--- a/PowerLmsData/系统资源/预初始化数据字典.xlsx
+++ b/PowerLmsData/系统资源/预初始化数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\光元\source\Repos1\PowerLms\PowerLmsData\系统资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42998257-D833-41CD-ADE2-E6B08F3ABF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F217BF-1DB8-44AD-8310-67FA6CC0DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DD_DataDicCatalogs" sheetId="3" r:id="rId1"/>
@@ -30795,8 +30795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709701B6-1383-4944-9A14-0BCA7FB0DE26}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30833,7 +30833,7 @@
         <v>564</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -30847,7 +30847,7 @@
         <v>1717</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -39716,7 +39716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F19600-2710-45B5-9416-5C11459523DA}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/PowerLmsData/系统资源/预初始化数据字典.xlsx
+++ b/PowerLmsData/系统资源/预初始化数据字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\光元\source\Repos1\PowerLms\PowerLmsData\系统资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84ECA0-8713-4624-A103-0244A64F484A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B122BF7-0771-4F43-ABAA-702196A8DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9614" uniqueCount="5809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9617" uniqueCount="5811">
   <si>
     <t>Id</t>
   </si>
@@ -19922,6 +19922,12 @@
   <si>
     <t>权限根</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.10</t>
+  </si>
+  <si>
+    <t>单位换算</t>
   </si>
 </sst>
 </file>
@@ -20118,7 +20124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20308,6 +20314,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -20581,7 +20593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -20603,6 +20615,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34055,10 +34070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
-  <dimension ref="A1:C629"/>
+  <dimension ref="A1:C630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34095,154 +34110,154 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>5004</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>5005</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>5006</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>5007</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>5008</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>5747</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>5009</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>5010</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>5011</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>5012</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>5013</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>5014</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>5015</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>5016</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>5017</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>5018</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>5019</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>5020</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>5748</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>5749</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>5021</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>5022</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>5003</v>
+      <c r="A14" s="9" t="s">
+        <v>5809</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>5810</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>5022</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>5021</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>5025</v>
+        <v>5022</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>5023</v>
@@ -34250,10 +34265,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>5023</v>
@@ -34261,10 +34276,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5023</v>
@@ -34272,10 +34287,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>5023</v>
@@ -34283,10 +34298,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5023</v>
@@ -34294,10 +34309,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>5036</v>
+        <v>5034</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>5023</v>
@@ -34305,32 +34320,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>5040</v>
+        <v>5038</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>5041</v>
+        <v>5039</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>5038</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5038</v>
@@ -34338,10 +34353,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>5045</v>
+        <v>5043</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>5038</v>
@@ -34349,10 +34364,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>5046</v>
+        <v>5044</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>5047</v>
+        <v>5045</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>5038</v>
@@ -34360,10 +34375,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>5048</v>
+        <v>5046</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>5049</v>
+        <v>5047</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>5038</v>
@@ -34371,10 +34386,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>5050</v>
+        <v>5048</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>5051</v>
+        <v>5049</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>5038</v>
@@ -34382,10 +34397,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>5053</v>
+        <v>5051</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>5038</v>
@@ -34393,32 +34408,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>5054</v>
+        <v>5052</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>5021</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>5054</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>5054</v>
@@ -34426,10 +34441,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>5054</v>
@@ -34437,10 +34452,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>5054</v>
@@ -34448,65 +34463,65 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>5064</v>
+        <v>5062</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>5003</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>5064</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>5068</v>
+        <v>5066</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>5068</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>5070</v>
@@ -34514,10 +34529,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>5070</v>
@@ -34525,10 +34540,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>5070</v>
@@ -34536,10 +34551,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5070</v>
@@ -34547,10 +34562,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5070</v>
@@ -34558,10 +34573,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>5070</v>
@@ -34569,10 +34584,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5070</v>
@@ -34580,10 +34595,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5070</v>
@@ -34591,10 +34606,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>5090</v>
+        <v>5088</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5070</v>
@@ -34602,10 +34617,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>5092</v>
+        <v>5090</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>5070</v>
@@ -34613,10 +34628,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>5094</v>
+        <v>5092</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5070</v>
@@ -34624,10 +34639,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>5096</v>
+        <v>5094</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5070</v>
@@ -34635,10 +34650,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>5750</v>
+        <v>5096</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5070</v>
@@ -34646,32 +34661,32 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>5098</v>
+        <v>5750</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>5099</v>
+        <v>5259</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>5100</v>
+        <v>5098</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>5098</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5098</v>
@@ -34679,10 +34694,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5098</v>
@@ -34690,10 +34705,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>5106</v>
+        <v>5104</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>5098</v>
@@ -34701,32 +34716,32 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>5066</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>5110</v>
+        <v>5108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>5108</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>5108</v>
@@ -34734,10 +34749,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5108</v>
@@ -34745,32 +34760,32 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>5066</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>5116</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5116</v>
@@ -34778,10 +34793,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5116</v>
@@ -34789,32 +34804,32 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>5122</v>
+        <v>5115</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>5066</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>5121</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5121</v>
@@ -34822,10 +34837,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>5121</v>
@@ -34833,32 +34848,32 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>5066</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>5111</v>
+        <v>5130</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>5129</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5129</v>
@@ -34866,10 +34881,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>5129</v>
@@ -34877,32 +34892,32 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>5751</v>
+        <v>5115</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>5066</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>5134</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>5134</v>
@@ -34910,21 +34925,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>5752</v>
+        <v>5137</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>5753</v>
+        <v>5138</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>5137</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>5754</v>
+        <v>5752</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>5137</v>
@@ -34932,10 +34947,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>5756</v>
+        <v>5754</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5137</v>
@@ -34943,21 +34958,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>5139</v>
+        <v>5756</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>5140</v>
+        <v>5757</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>5134</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>5134</v>
@@ -34965,10 +34980,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>5134</v>
@@ -34976,10 +34991,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>5134</v>
@@ -34987,10 +35002,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>5134</v>
@@ -34998,10 +35013,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>5134</v>
@@ -35009,32 +35024,32 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>5066</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>5153</v>
+        <v>5151</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>5151</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>5155</v>
+        <v>5153</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>5151</v>
@@ -35042,10 +35057,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>5151</v>
@@ -35053,10 +35068,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>5151</v>
@@ -35064,32 +35079,32 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>5066</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>5161</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>5161</v>
@@ -35097,10 +35112,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>5161</v>
@@ -35108,10 +35123,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>5161</v>
@@ -35119,21 +35134,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>5066</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>5174</v>
+        <v>5171</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>5175</v>
+        <v>5172</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>5066</v>
@@ -35141,21 +35156,21 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>5174</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>5174</v>
@@ -35163,10 +35178,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5174</v>
@@ -35174,10 +35189,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>5174</v>
@@ -35185,54 +35200,54 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>5064</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>5184</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>5189</v>
+        <v>5188</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>5190</v>
+        <v>5189</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>5188</v>
@@ -35240,10 +35255,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>5191</v>
+        <v>5190</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>5188</v>
@@ -35251,10 +35266,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>5192</v>
+        <v>5191</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>5188</v>
@@ -35262,10 +35277,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>5193</v>
+        <v>5192</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>5188</v>
@@ -35273,10 +35288,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>5194</v>
+        <v>5193</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>5188</v>
@@ -35284,10 +35299,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>5195</v>
+        <v>5194</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5188</v>
@@ -35295,10 +35310,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>5196</v>
+        <v>5195</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>5188</v>
@@ -35306,10 +35321,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>5188</v>
@@ -35317,10 +35332,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5188</v>
@@ -35328,10 +35343,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>5199</v>
+        <v>5198</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>5188</v>
@@ -35339,10 +35354,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>5758</v>
+        <v>5199</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>5188</v>
@@ -35350,10 +35365,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>5188</v>
@@ -35361,10 +35376,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>5188</v>
@@ -35372,32 +35387,32 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>5200</v>
+        <v>5760</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>5099</v>
+        <v>5259</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>5201</v>
+        <v>5200</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>5200</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>5200</v>
@@ -35405,10 +35420,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>5203</v>
+        <v>5202</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>5200</v>
@@ -35416,10 +35431,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>5200</v>
@@ -35427,32 +35442,32 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>5184</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>5205</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>5205</v>
@@ -35460,10 +35475,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>5208</v>
+        <v>5207</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>5205</v>
@@ -35471,32 +35486,32 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>5184</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>5209</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>5211</v>
+        <v>5210</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>5209</v>
@@ -35504,10 +35519,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>5212</v>
+        <v>5211</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>5209</v>
@@ -35515,32 +35530,32 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>5213</v>
+        <v>5212</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>5122</v>
+        <v>5115</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>5184</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>5214</v>
+        <v>5213</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>5213</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>5215</v>
+        <v>5214</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>5213</v>
@@ -35548,10 +35563,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>5213</v>
@@ -35559,32 +35574,32 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>5184</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>5218</v>
+        <v>5217</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>5111</v>
+        <v>5130</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>5217</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>5219</v>
+        <v>5218</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>5217</v>
@@ -35592,10 +35607,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>5220</v>
+        <v>5219</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>5217</v>
@@ -35603,32 +35618,32 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>5751</v>
+        <v>5115</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>5184</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>5221</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>5221</v>
@@ -35636,10 +35651,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>5221</v>
@@ -35647,10 +35662,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>5221</v>
@@ -35658,10 +35673,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>5221</v>
@@ -35669,10 +35684,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>5221</v>
@@ -35680,10 +35695,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>5221</v>
@@ -35691,10 +35706,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>5761</v>
+        <v>5228</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>5762</v>
+        <v>5148</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>5221</v>
@@ -35702,10 +35717,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>5229</v>
+        <v>5761</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>5150</v>
+        <v>5762</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>5221</v>
@@ -35713,32 +35728,32 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>5184</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>5230</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>5230</v>
@@ -35746,10 +35761,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>5230</v>
@@ -35757,10 +35772,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>5230</v>
@@ -35768,32 +35783,32 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>5184</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>5235</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>5235</v>
@@ -35801,10 +35816,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>5235</v>
@@ -35812,10 +35827,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>5235</v>
@@ -35823,65 +35838,65 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>5240</v>
+        <v>5239</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>5184</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>5242</v>
+        <v>5172</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>5064</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>5187</v>
+        <v>5242</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>5241</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
-        <v>5254</v>
+        <v>5245</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>5091</v>
+        <v>5073</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>5244</v>
@@ -35889,10 +35904,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>5244</v>
@@ -35900,10 +35915,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>5244</v>
@@ -35911,10 +35926,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
-        <v>5257</v>
+        <v>5256</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>5244</v>
@@ -35922,10 +35937,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>5244</v>
@@ -35933,10 +35948,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>5763</v>
+        <v>5258</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>5244</v>
@@ -35944,10 +35959,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>5244</v>
@@ -35955,10 +35970,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>5246</v>
+        <v>5764</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>5075</v>
+        <v>5608</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>5244</v>
@@ -35966,10 +35981,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>5244</v>
@@ -35977,10 +35992,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>5244</v>
@@ -35988,10 +36003,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>5244</v>
@@ -35999,10 +36014,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>5244</v>
@@ -36010,10 +36025,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>5244</v>
@@ -36021,10 +36036,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>5244</v>
@@ -36032,10 +36047,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>5253</v>
+        <v>5252</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>5244</v>
@@ -36043,32 +36058,32 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>5260</v>
+        <v>5253</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>5261</v>
+        <v>5089</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>5243</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>5260</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>5260</v>
@@ -36076,10 +36091,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>5260</v>
@@ -36087,10 +36102,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>5260</v>
@@ -36098,10 +36113,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>5260</v>
@@ -36109,32 +36124,32 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>5243</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>5272</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>5272</v>
@@ -36142,10 +36157,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>5272</v>
@@ -36153,10 +36168,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>5272</v>
@@ -36164,32 +36179,32 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>5243</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>5282</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>5282</v>
@@ -36197,10 +36212,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>5282</v>
@@ -36208,10 +36223,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>5282</v>
@@ -36219,32 +36234,32 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>5099</v>
+        <v>5291</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>5243</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
-        <v>5293</v>
+        <v>5292</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>5292</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>5292</v>
@@ -36252,10 +36267,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
-        <v>5295</v>
+        <v>5294</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>5292</v>
@@ -36263,10 +36278,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
-        <v>5296</v>
+        <v>5295</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>5292</v>
@@ -36274,32 +36289,32 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
-        <v>5297</v>
+        <v>5296</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>5298</v>
+        <v>5107</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>5243</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>5297</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>5297</v>
@@ -36307,10 +36322,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>5297</v>
@@ -36318,10 +36333,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>5297</v>
@@ -36329,32 +36344,32 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>5109</v>
+        <v>5306</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>5241</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>5307</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>5307</v>
@@ -36362,10 +36377,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>5307</v>
@@ -36373,32 +36388,32 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>5241</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>5311</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>5311</v>
@@ -36406,10 +36421,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>5314</v>
+        <v>5313</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>5311</v>
@@ -36417,32 +36432,32 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>5122</v>
+        <v>5115</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>5241</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>5315</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>5317</v>
+        <v>5316</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>5315</v>
@@ -36450,10 +36465,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>5315</v>
@@ -36461,32 +36476,32 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>5241</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>5111</v>
+        <v>5130</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>5319</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>5321</v>
+        <v>5320</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>5319</v>
@@ -36494,10 +36509,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
-        <v>5322</v>
+        <v>5321</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>5319</v>
@@ -36505,32 +36520,32 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>5323</v>
+        <v>5322</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>5751</v>
+        <v>5115</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>5241</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>5324</v>
+        <v>5323</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>5323</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5323</v>
@@ -36538,10 +36553,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>5323</v>
@@ -36549,10 +36564,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>5323</v>
@@ -36560,10 +36575,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>5329</v>
+        <v>5328</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>5323</v>
@@ -36571,10 +36586,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
-        <v>5330</v>
+        <v>5329</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>5323</v>
@@ -36582,10 +36597,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>5323</v>
@@ -36593,10 +36608,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
-        <v>5332</v>
+        <v>5331</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>5323</v>
@@ -36604,10 +36619,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
-        <v>5325</v>
+        <v>5332</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>5323</v>
@@ -36615,32 +36630,32 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
-        <v>5333</v>
+        <v>5325</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>5241</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>5333</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
-        <v>5335</v>
+        <v>5334</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>5333</v>
@@ -36648,10 +36663,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
-        <v>5336</v>
+        <v>5335</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>5333</v>
@@ -36659,10 +36674,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>5333</v>
@@ -36670,10 +36685,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
-        <v>5338</v>
+        <v>5337</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>5333</v>
@@ -36681,32 +36696,32 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>5241</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
-        <v>5341</v>
+        <v>5340</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>5340</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>5340</v>
@@ -36714,10 +36729,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>5340</v>
@@ -36725,10 +36740,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>5340</v>
@@ -36736,65 +36751,65 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>5241</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>5350</v>
+        <v>5349</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>5351</v>
+        <v>5172</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>5064</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>5187</v>
+        <v>5351</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>5350</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
-        <v>5354</v>
+        <v>5353</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
-        <v>5355</v>
+        <v>5354</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>5091</v>
+        <v>5073</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5353</v>
@@ -36802,10 +36817,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>5353</v>
@@ -36813,10 +36828,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>5353</v>
@@ -36824,10 +36839,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>5353</v>
@@ -36835,10 +36850,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>5075</v>
+        <v>5097</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>5353</v>
@@ -36846,10 +36861,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>5353</v>
@@ -36857,10 +36872,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>5353</v>
@@ -36868,10 +36883,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>5353</v>
@@ -36879,10 +36894,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>5353</v>
@@ -36890,10 +36905,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
-        <v>5364</v>
+        <v>5363</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>5353</v>
@@ -36901,10 +36916,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>5353</v>
@@ -36912,10 +36927,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>5353</v>
@@ -36923,32 +36938,32 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>5261</v>
+        <v>5089</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>5352</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>5367</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>5367</v>
@@ -36956,10 +36971,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>5367</v>
@@ -36967,10 +36982,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>5367</v>
@@ -36978,10 +36993,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
-        <v>5372</v>
+        <v>5371</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>5367</v>
@@ -36989,32 +37004,32 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>5352</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>5373</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>5373</v>
@@ -37022,10 +37037,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>5373</v>
@@ -37033,10 +37048,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>5373</v>
@@ -37044,32 +37059,32 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>5352</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>5379</v>
+        <v>5378</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>5378</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>5378</v>
@@ -37077,10 +37092,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>5378</v>
@@ -37088,10 +37103,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>5378</v>
@@ -37099,32 +37114,32 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>5099</v>
+        <v>5291</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>5352</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>5383</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>5383</v>
@@ -37132,10 +37147,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>5383</v>
@@ -37143,10 +37158,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>5383</v>
@@ -37154,32 +37169,32 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>5298</v>
+        <v>5107</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>5352</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>5388</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>5388</v>
@@ -37187,10 +37202,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>5388</v>
@@ -37198,10 +37213,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>5388</v>
@@ -37209,32 +37224,32 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>5109</v>
+        <v>5306</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>5350</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>5393</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>5393</v>
@@ -37242,10 +37257,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>5393</v>
@@ -37253,32 +37268,32 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>5350</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>5111</v>
+        <v>5117</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>5397</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>5397</v>
@@ -37286,10 +37301,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>5397</v>
@@ -37297,32 +37312,32 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>5122</v>
+        <v>5115</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>5350</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>5401</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>5401</v>
@@ -37330,10 +37345,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>5401</v>
@@ -37341,32 +37356,32 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>5350</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>5111</v>
+        <v>5130</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>5405</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
-        <v>5407</v>
+        <v>5406</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>5405</v>
@@ -37374,10 +37389,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
-        <v>5408</v>
+        <v>5407</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>5115</v>
+        <v>5113</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>5405</v>
@@ -37385,32 +37400,32 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
-        <v>5409</v>
+        <v>5408</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>5751</v>
+        <v>5115</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>5350</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
-        <v>5410</v>
+        <v>5409</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>5409</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>5412</v>
+        <v>5410</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>5409</v>
@@ -37418,10 +37433,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>5413</v>
+        <v>5412</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>5409</v>
@@ -37429,10 +37444,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>5409</v>
@@ -37440,10 +37455,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
-        <v>5415</v>
+        <v>5414</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>5409</v>
@@ -37451,10 +37466,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>5409</v>
@@ -37462,10 +37477,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
-        <v>5417</v>
+        <v>5416</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>5409</v>
@@ -37473,10 +37488,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>5409</v>
@@ -37484,10 +37499,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
-        <v>5411</v>
+        <v>5418</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>5409</v>
@@ -37495,32 +37510,32 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
-        <v>5419</v>
+        <v>5411</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>5350</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>5419</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>5419</v>
@@ -37528,10 +37543,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>5419</v>
@@ -37539,10 +37554,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
-        <v>5423</v>
+        <v>5422</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>5419</v>
@@ -37550,10 +37565,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
-        <v>5424</v>
+        <v>5423</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>5419</v>
@@ -37561,32 +37576,32 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>5425</v>
+        <v>5424</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>5350</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>5426</v>
+        <v>5425</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>5425</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
-        <v>5427</v>
+        <v>5426</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>5425</v>
@@ -37594,10 +37609,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5425</v>
@@ -37605,10 +37620,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>5425</v>
@@ -37616,65 +37631,65 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
-        <v>5430</v>
+        <v>5429</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>5350</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
-        <v>5431</v>
+        <v>5430</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>5432</v>
+        <v>5172</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>5064</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>5187</v>
+        <v>5432</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>5431</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>5433</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>5434</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>5434</v>
@@ -37682,10 +37697,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
-        <v>5437</v>
+        <v>5436</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>5434</v>
@@ -37693,10 +37708,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>5434</v>
@@ -37704,10 +37719,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
-        <v>5439</v>
+        <v>5438</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>5434</v>
@@ -37715,10 +37730,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>5434</v>
@@ -37726,10 +37741,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
-        <v>5441</v>
+        <v>5440</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>5434</v>
@@ -37737,10 +37752,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
-        <v>5442</v>
+        <v>5441</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C335" s="7" t="s">
         <v>5434</v>
@@ -37748,10 +37763,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>5443</v>
+        <v>5442</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>5434</v>
@@ -37759,10 +37774,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>5434</v>
@@ -37770,10 +37785,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
-        <v>5445</v>
+        <v>5444</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>5434</v>
@@ -37781,10 +37796,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>5434</v>
@@ -37792,10 +37807,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
-        <v>5447</v>
+        <v>5446</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>5434</v>
@@ -37803,10 +37818,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
-        <v>5765</v>
+        <v>5447</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>5434</v>
@@ -37814,10 +37829,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>5434</v>
@@ -37825,10 +37840,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>5434</v>
@@ -37836,32 +37851,32 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
-        <v>5448</v>
+        <v>5767</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>5751</v>
+        <v>5608</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>5431</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>5448</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5448</v>
@@ -37869,10 +37884,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>5448</v>
@@ -37880,10 +37895,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
-        <v>5453</v>
+        <v>5452</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>5448</v>
@@ -37891,10 +37906,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
-        <v>5454</v>
+        <v>5453</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>5448</v>
@@ -37902,10 +37917,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>5455</v>
+        <v>5454</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>5448</v>
@@ -37913,10 +37928,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>5448</v>
@@ -37924,10 +37939,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
-        <v>5457</v>
+        <v>5456</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>5448</v>
@@ -37935,10 +37950,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
-        <v>5450</v>
+        <v>5457</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>5448</v>
@@ -37946,32 +37961,32 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
-        <v>5458</v>
+        <v>5450</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>5431</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>5458</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>5458</v>
@@ -37979,10 +37994,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>5458</v>
@@ -37990,10 +38005,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>5458</v>
@@ -38001,10 +38016,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
-        <v>5463</v>
+        <v>5462</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>5458</v>
@@ -38012,32 +38027,32 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
-        <v>5464</v>
+        <v>5463</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>5431</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
-        <v>5465</v>
+        <v>5464</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>5464</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
-        <v>5466</v>
+        <v>5465</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>5464</v>
@@ -38045,10 +38060,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
-        <v>5467</v>
+        <v>5466</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>5464</v>
@@ -38056,10 +38071,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>5464</v>
@@ -38067,65 +38082,65 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
-        <v>5469</v>
+        <v>5468</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>5431</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>5471</v>
+        <v>5172</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>5064</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
-        <v>5472</v>
+        <v>5470</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>5187</v>
+        <v>5471</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>5470</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>5472</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>5473</v>
@@ -38133,10 +38148,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>5473</v>
@@ -38144,10 +38159,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>5473</v>
@@ -38155,10 +38170,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>5473</v>
@@ -38166,10 +38181,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>5473</v>
@@ -38177,10 +38192,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>5473</v>
@@ -38188,10 +38203,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>5473</v>
@@ -38199,10 +38214,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>5473</v>
@@ -38210,10 +38225,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>5473</v>
@@ -38221,10 +38236,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>5473</v>
@@ -38232,10 +38247,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>5473</v>
@@ -38243,10 +38258,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
-        <v>5486</v>
+        <v>5485</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>5473</v>
@@ -38254,10 +38269,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
-        <v>5768</v>
+        <v>5486</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>5473</v>
@@ -38265,10 +38280,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>5473</v>
@@ -38276,10 +38291,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>5473</v>
@@ -38287,32 +38302,32 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
-        <v>5487</v>
+        <v>5770</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>5751</v>
+        <v>5608</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>5470</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>5487</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>5487</v>
@@ -38320,10 +38335,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
-        <v>5491</v>
+        <v>5490</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>5487</v>
@@ -38331,10 +38346,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
-        <v>5492</v>
+        <v>5491</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>5487</v>
@@ -38342,10 +38357,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="7" t="s">
-        <v>5493</v>
+        <v>5492</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>5487</v>
@@ -38353,10 +38368,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>5487</v>
@@ -38364,10 +38379,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="7" t="s">
-        <v>5495</v>
+        <v>5494</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>5487</v>
@@ -38375,10 +38390,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>5487</v>
@@ -38386,10 +38401,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
-        <v>5489</v>
+        <v>5496</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>5487</v>
@@ -38397,32 +38412,32 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
-        <v>5497</v>
+        <v>5489</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>5470</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="7" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>5497</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="7" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>5497</v>
@@ -38430,10 +38445,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="7" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>5497</v>
@@ -38441,10 +38456,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>5497</v>
@@ -38452,10 +38467,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C400" s="7" t="s">
         <v>5497</v>
@@ -38463,32 +38478,32 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
-        <v>5503</v>
+        <v>5502</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>5470</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
-        <v>5504</v>
+        <v>5503</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>5503</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>5503</v>
@@ -38496,10 +38511,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>5503</v>
@@ -38507,10 +38522,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>5503</v>
@@ -38518,65 +38533,65 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>5470</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>5510</v>
+        <v>5172</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>5064</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>5187</v>
+        <v>5510</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>5509</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>5512</v>
@@ -38584,10 +38599,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
-        <v>5515</v>
+        <v>5514</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>5512</v>
@@ -38595,10 +38610,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
-        <v>5516</v>
+        <v>5515</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>5512</v>
@@ -38606,10 +38621,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>5512</v>
@@ -38617,10 +38632,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
-        <v>5518</v>
+        <v>5517</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>5512</v>
@@ -38628,10 +38643,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5512</v>
@@ -38639,10 +38654,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
-        <v>5520</v>
+        <v>5519</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5512</v>
@@ -38650,10 +38665,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
-        <v>5521</v>
+        <v>5520</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5512</v>
@@ -38661,10 +38676,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>5512</v>
@@ -38672,10 +38687,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>5512</v>
@@ -38683,10 +38698,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>5512</v>
@@ -38694,10 +38709,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
-        <v>5525</v>
+        <v>5524</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>5512</v>
@@ -38705,10 +38720,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
-        <v>5771</v>
+        <v>5525</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>5512</v>
@@ -38716,10 +38731,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
-        <v>5772</v>
+        <v>5771</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>5512</v>
@@ -38727,10 +38742,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>5512</v>
@@ -38738,32 +38753,32 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
-        <v>5526</v>
+        <v>5773</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>5751</v>
+        <v>5608</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>5509</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>5526</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>5526</v>
@@ -38771,10 +38786,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>5526</v>
@@ -38782,10 +38797,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>5526</v>
@@ -38793,10 +38808,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>5526</v>
@@ -38804,10 +38819,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
-        <v>5533</v>
+        <v>5532</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>5526</v>
@@ -38815,10 +38830,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
-        <v>5534</v>
+        <v>5533</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>5526</v>
@@ -38826,10 +38841,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>5526</v>
@@ -38837,10 +38852,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
-        <v>5528</v>
+        <v>5535</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>5526</v>
@@ -38848,32 +38863,32 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
-        <v>5536</v>
+        <v>5528</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>5509</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
-        <v>5537</v>
+        <v>5536</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>5536</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="7" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>5536</v>
@@ -38881,10 +38896,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>5536</v>
@@ -38892,10 +38907,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="7" t="s">
-        <v>5540</v>
+        <v>5539</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>5536</v>
@@ -38903,10 +38918,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>5536</v>
@@ -38914,32 +38929,32 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>5509</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
-        <v>5543</v>
+        <v>5542</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>5542</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>5542</v>
@@ -38947,10 +38962,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="7" t="s">
-        <v>5545</v>
+        <v>5544</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>5542</v>
@@ -38958,10 +38973,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="7" t="s">
-        <v>5546</v>
+        <v>5545</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>5542</v>
@@ -38969,65 +38984,65 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
-        <v>5547</v>
+        <v>5546</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>5509</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>5549</v>
+        <v>5172</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>5064</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
-        <v>5550</v>
+        <v>5548</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>5187</v>
+        <v>5549</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>5548</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>5550</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="7" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
-        <v>5553</v>
+        <v>5552</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>5551</v>
@@ -39035,10 +39050,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>5551</v>
@@ -39046,10 +39061,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>5551</v>
@@ -39057,10 +39072,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
-        <v>5556</v>
+        <v>5555</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>5551</v>
@@ -39068,10 +39083,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>5551</v>
@@ -39079,10 +39094,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
-        <v>5558</v>
+        <v>5557</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>5551</v>
@@ -39090,10 +39105,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="7" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>5551</v>
@@ -39101,10 +39116,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="7" t="s">
-        <v>5560</v>
+        <v>5559</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>5551</v>
@@ -39112,10 +39127,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="7" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>5551</v>
@@ -39123,10 +39138,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>5551</v>
@@ -39134,10 +39149,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>5551</v>
@@ -39145,10 +39160,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>5551</v>
@@ -39156,10 +39171,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
-        <v>5774</v>
+        <v>5564</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>5551</v>
@@ -39167,10 +39182,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="7" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>5551</v>
@@ -39178,10 +39193,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="7" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>5551</v>
@@ -39189,32 +39204,32 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
-        <v>5565</v>
+        <v>5776</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>5751</v>
+        <v>5608</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>5548</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
-        <v>5566</v>
+        <v>5565</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>5565</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
-        <v>5568</v>
+        <v>5566</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>5565</v>
@@ -39222,10 +39237,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
-        <v>5569</v>
+        <v>5568</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>5565</v>
@@ -39233,10 +39248,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
-        <v>5570</v>
+        <v>5569</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C471" s="7" t="s">
         <v>5565</v>
@@ -39244,10 +39259,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>5565</v>
@@ -39255,10 +39270,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>5565</v>
@@ -39266,10 +39281,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
-        <v>5573</v>
+        <v>5572</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>5565</v>
@@ -39277,10 +39292,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>5565</v>
@@ -39288,10 +39303,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
-        <v>5567</v>
+        <v>5574</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>5565</v>
@@ -39299,32 +39314,32 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
-        <v>5575</v>
+        <v>5567</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>5548</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>5575</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
-        <v>5577</v>
+        <v>5576</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>5575</v>
@@ -39332,10 +39347,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="7" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>5575</v>
@@ -39343,10 +39358,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>5575</v>
@@ -39354,10 +39369,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
-        <v>5580</v>
+        <v>5579</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C482" s="7" t="s">
         <v>5575</v>
@@ -39365,32 +39380,32 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>5548</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>5581</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C485" s="7" t="s">
         <v>5581</v>
@@ -39398,10 +39413,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C486" s="7" t="s">
         <v>5581</v>
@@ -39409,10 +39424,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C487" s="7" t="s">
         <v>5581</v>
@@ -39420,65 +39435,65 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>5548</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>5588</v>
+        <v>5172</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>5064</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
-        <v>5589</v>
+        <v>5587</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>5187</v>
+        <v>5588</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>5587</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>5589</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C493" s="7" t="s">
         <v>5590</v>
@@ -39486,10 +39501,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C494" s="7" t="s">
         <v>5590</v>
@@ -39497,10 +39512,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C495" s="7" t="s">
         <v>5590</v>
@@ -39508,10 +39523,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C496" s="7" t="s">
         <v>5590</v>
@@ -39519,10 +39534,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C497" s="7" t="s">
         <v>5590</v>
@@ -39530,10 +39545,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C498" s="7" t="s">
         <v>5590</v>
@@ -39541,10 +39556,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C499" s="7" t="s">
         <v>5590</v>
@@ -39552,10 +39567,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C500" s="7" t="s">
         <v>5590</v>
@@ -39563,10 +39578,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C501" s="7" t="s">
         <v>5590</v>
@@ -39574,10 +39589,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C502" s="7" t="s">
         <v>5590</v>
@@ -39585,10 +39600,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C503" s="7" t="s">
         <v>5590</v>
@@ -39596,10 +39611,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C504" s="7" t="s">
         <v>5590</v>
@@ -39607,10 +39622,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C505" s="7" t="s">
         <v>5590</v>
@@ -39618,10 +39633,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C506" s="7" t="s">
         <v>5590</v>
@@ -39629,10 +39644,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
-        <v>5607</v>
+        <v>5605</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C507" s="7" t="s">
         <v>5590</v>
@@ -39640,32 +39655,32 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="7" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>5751</v>
+        <v>5608</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>5587</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>5609</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C510" s="7" t="s">
         <v>5609</v>
@@ -39673,10 +39688,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
       <c r="B511" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C511" s="7" t="s">
         <v>5609</v>
@@ -39684,10 +39699,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C512" s="7" t="s">
         <v>5609</v>
@@ -39695,10 +39710,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
       <c r="B513" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C513" s="7" t="s">
         <v>5609</v>
@@ -39706,10 +39721,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C514" s="7" t="s">
         <v>5609</v>
@@ -39717,10 +39732,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C515" s="7" t="s">
         <v>5609</v>
@@ -39728,10 +39743,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C516" s="7" t="s">
         <v>5609</v>
@@ -39739,10 +39754,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
-        <v>5611</v>
+        <v>5618</v>
       </c>
       <c r="B517" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C517" s="7" t="s">
         <v>5609</v>
@@ -39750,32 +39765,32 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="7" t="s">
-        <v>5619</v>
+        <v>5611</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>5587</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="B519" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>5619</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C520" s="7" t="s">
         <v>5619</v>
@@ -39783,10 +39798,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>5619</v>
@@ -39794,10 +39809,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C522" s="7" t="s">
         <v>5619</v>
@@ -39805,10 +39820,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>5619</v>
@@ -39816,32 +39831,32 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>5587</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>5625</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C526" s="7" t="s">
         <v>5625</v>
@@ -39849,10 +39864,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C527" s="7" t="s">
         <v>5625</v>
@@ -39860,10 +39875,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C528" s="7" t="s">
         <v>5625</v>
@@ -39871,65 +39886,65 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>5587</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>5632</v>
+        <v>5172</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>5064</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
-        <v>5633</v>
+        <v>5631</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>5187</v>
+        <v>5632</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>5631</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>5071</v>
+        <v>5187</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>5633</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C534" s="7" t="s">
         <v>5634</v>
@@ -39937,10 +39952,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="C535" s="7" t="s">
         <v>5634</v>
@@ -39948,10 +39963,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="C536" s="7" t="s">
         <v>5634</v>
@@ -39959,10 +39974,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="C537" s="7" t="s">
         <v>5634</v>
@@ -39970,10 +39985,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C538" s="7" t="s">
         <v>5634</v>
@@ -39981,10 +39996,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C539" s="7" t="s">
         <v>5634</v>
@@ -39992,10 +40007,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C540" s="7" t="s">
         <v>5634</v>
@@ -40003,10 +40018,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C541" s="7" t="s">
         <v>5634</v>
@@ -40014,10 +40029,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C542" s="7" t="s">
         <v>5634</v>
@@ -40025,10 +40040,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="C543" s="7" t="s">
         <v>5634</v>
@@ -40036,10 +40051,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="C544" s="7" t="s">
         <v>5634</v>
@@ -40047,10 +40062,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="C545" s="7" t="s">
         <v>5634</v>
@@ -40058,10 +40073,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
-        <v>5777</v>
+        <v>5647</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>5259</v>
+        <v>5097</v>
       </c>
       <c r="C546" s="7" t="s">
         <v>5634</v>
@@ -40069,10 +40084,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
-        <v>5778</v>
+        <v>5777</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>5606</v>
+        <v>5259</v>
       </c>
       <c r="C547" s="7" t="s">
         <v>5634</v>
@@ -40080,10 +40095,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C548" s="7" t="s">
         <v>5634</v>
@@ -40091,32 +40106,32 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
-        <v>5648</v>
+        <v>5779</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>5751</v>
+        <v>5608</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>5631</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>5136</v>
+        <v>5751</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>5648</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
-        <v>5651</v>
+        <v>5649</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C551" s="7" t="s">
         <v>5648</v>
@@ -40124,10 +40139,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="C552" s="7" t="s">
         <v>5648</v>
@@ -40135,10 +40150,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="C553" s="7" t="s">
         <v>5648</v>
@@ -40146,10 +40161,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="C554" s="7" t="s">
         <v>5648</v>
@@ -40157,10 +40172,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C555" s="7" t="s">
         <v>5648</v>
@@ -40168,10 +40183,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C556" s="7" t="s">
         <v>5648</v>
@@ -40179,10 +40194,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="C557" s="7" t="s">
         <v>5648</v>
@@ -40190,10 +40205,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
-        <v>5650</v>
+        <v>5657</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>5150</v>
+        <v>5173</v>
       </c>
       <c r="C558" s="7" t="s">
         <v>5648</v>
@@ -40201,32 +40216,32 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
-        <v>5658</v>
+        <v>5650</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>5631</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>5658</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C561" s="7" t="s">
         <v>5658</v>
@@ -40234,10 +40249,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C562" s="7" t="s">
         <v>5658</v>
@@ -40245,10 +40260,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="C563" s="7" t="s">
         <v>5658</v>
@@ -40256,10 +40271,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>5339</v>
+        <v>5160</v>
       </c>
       <c r="C564" s="7" t="s">
         <v>5658</v>
@@ -40267,32 +40282,32 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
       <c r="B565" s="7" t="s">
-        <v>5162</v>
+        <v>5339</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>5631</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>5342</v>
+        <v>5162</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>5664</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
       <c r="B567" s="7" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="C567" s="7" t="s">
         <v>5664</v>
@@ -40300,10 +40315,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="C568" s="7" t="s">
         <v>5664</v>
@@ -40311,10 +40326,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="C569" s="7" t="s">
         <v>5664</v>
@@ -40322,43 +40337,43 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>5172</v>
+        <v>5348</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>5631</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
-        <v>5780</v>
+        <v>5669</v>
       </c>
       <c r="B571" s="7" t="s">
-        <v>5781</v>
+        <v>5172</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>5064</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>5780</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="B573" s="7" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="C573" s="7" t="s">
         <v>5780</v>
@@ -40366,10 +40381,10 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="C574" s="7" t="s">
         <v>5780</v>
@@ -40377,10 +40392,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="B575" s="7" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="C575" s="7" t="s">
         <v>5780</v>
@@ -40388,10 +40403,10 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="C576" s="7" t="s">
         <v>5780</v>
@@ -40399,10 +40414,10 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="C577" s="7" t="s">
         <v>5780</v>
@@ -40410,10 +40425,10 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="C578" s="7" t="s">
         <v>5780</v>
@@ -40421,10 +40436,10 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="B579" s="7" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="C579" s="7" t="s">
         <v>5780</v>
@@ -40432,10 +40447,10 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="C580" s="7" t="s">
         <v>5780</v>
@@ -40446,73 +40461,73 @@
         <v>5798</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
       <c r="C581" s="7" t="s">
         <v>5780</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="8" t="s">
-        <v>5801</v>
-      </c>
-      <c r="B582" s="8" t="s">
-        <v>5802</v>
-      </c>
-      <c r="C582" s="8" t="s">
-        <v>5003</v>
+      <c r="A582" s="7" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>5780</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="8" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B583" s="8" t="s">
+        <v>5802</v>
+      </c>
+      <c r="C583" s="8" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A584" s="8" t="s">
         <v>5803</v>
       </c>
-      <c r="B583" s="8" t="s">
+      <c r="B584" s="8" t="s">
         <v>5804</v>
       </c>
-      <c r="C583" s="8" t="s">
+      <c r="C584" s="8" t="s">
         <v>5801</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584" s="7" t="s">
-        <v>5670</v>
-      </c>
-      <c r="B584" s="7" t="s">
-        <v>5671</v>
-      </c>
-      <c r="C584" s="7" t="s">
-        <v>5003</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>5673</v>
+        <v>5671</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>5670</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
-        <v>5674</v>
+        <v>5672</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>5154</v>
+        <v>5673</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C587" s="7" t="s">
         <v>5672</v>
@@ -40520,10 +40535,10 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C588" s="7" t="s">
         <v>5672</v>
@@ -40531,10 +40546,10 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>5678</v>
+        <v>5158</v>
       </c>
       <c r="C589" s="7" t="s">
         <v>5672</v>
@@ -40542,10 +40557,10 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
-        <v>5679</v>
+        <v>5677</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="C590" s="7" t="s">
         <v>5672</v>
@@ -40553,10 +40568,10 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
-        <v>5681</v>
+        <v>5679</v>
       </c>
       <c r="B591" s="7" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="C591" s="7" t="s">
         <v>5672</v>
@@ -40564,10 +40579,10 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
-        <v>5683</v>
+        <v>5681</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>5684</v>
+        <v>5682</v>
       </c>
       <c r="C592" s="7" t="s">
         <v>5672</v>
@@ -40575,10 +40590,10 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
-        <v>5685</v>
+        <v>5683</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>5686</v>
+        <v>5684</v>
       </c>
       <c r="C593" s="7" t="s">
         <v>5672</v>
@@ -40586,10 +40601,10 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
-        <v>5687</v>
+        <v>5685</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>5688</v>
+        <v>5686</v>
       </c>
       <c r="C594" s="7" t="s">
         <v>5672</v>
@@ -40597,10 +40612,10 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="7" t="s">
-        <v>5689</v>
+        <v>5687</v>
       </c>
       <c r="B595" s="7" t="s">
-        <v>5160</v>
+        <v>5688</v>
       </c>
       <c r="C595" s="7" t="s">
         <v>5672</v>
@@ -40608,32 +40623,32 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="7" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>5073</v>
+        <v>5160</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>5670</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="7" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>5805</v>
+        <v>5073</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>5690</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
-        <v>5806</v>
+        <v>5691</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>5073</v>
+        <v>5805</v>
       </c>
       <c r="C598" s="7" t="s">
         <v>5690</v>
@@ -40641,10 +40656,10 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
-        <v>5692</v>
+        <v>5806</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>5693</v>
+        <v>5073</v>
       </c>
       <c r="C599" s="7" t="s">
         <v>5690</v>
@@ -40652,10 +40667,10 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="7" t="s">
-        <v>5694</v>
+        <v>5692</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>5695</v>
+        <v>5693</v>
       </c>
       <c r="C600" s="7" t="s">
         <v>5690</v>
@@ -40663,10 +40678,10 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="7" t="s">
-        <v>5696</v>
+        <v>5694</v>
       </c>
       <c r="B601" s="7" t="s">
-        <v>5697</v>
+        <v>5695</v>
       </c>
       <c r="C601" s="7" t="s">
         <v>5690</v>
@@ -40674,10 +40689,10 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="7" t="s">
-        <v>5698</v>
+        <v>5696</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>5162</v>
+        <v>5697</v>
       </c>
       <c r="C602" s="7" t="s">
         <v>5690</v>
@@ -40685,10 +40700,10 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="7" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="B603" s="7" t="s">
-        <v>5700</v>
+        <v>5162</v>
       </c>
       <c r="C603" s="7" t="s">
         <v>5690</v>
@@ -40696,10 +40711,10 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="7" t="s">
-        <v>5701</v>
+        <v>5699</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>5087</v>
+        <v>5700</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>5690</v>
@@ -40707,10 +40722,10 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="C605" s="7" t="s">
         <v>5690</v>
@@ -40718,10 +40733,10 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>5089</v>
+        <v>5085</v>
       </c>
       <c r="C606" s="7" t="s">
         <v>5690</v>
@@ -40729,32 +40744,32 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>5705</v>
+        <v>5089</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>5670</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
-        <v>5706</v>
+        <v>5704</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>5707</v>
+        <v>5705</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>5704</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
-        <v>5708</v>
+        <v>5706</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>5709</v>
+        <v>5707</v>
       </c>
       <c r="C609" s="7" t="s">
         <v>5704</v>
@@ -40762,10 +40777,10 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
-        <v>5710</v>
+        <v>5708</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>5711</v>
+        <v>5709</v>
       </c>
       <c r="C610" s="7" t="s">
         <v>5704</v>
@@ -40773,32 +40788,32 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
-        <v>5712</v>
+        <v>5710</v>
       </c>
       <c r="B611" s="7" t="s">
-        <v>5697</v>
+        <v>5711</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>5670</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>5714</v>
+        <v>5697</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>5712</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
-        <v>5715</v>
+        <v>5713</v>
       </c>
       <c r="B613" s="7" t="s">
-        <v>5716</v>
+        <v>5714</v>
       </c>
       <c r="C613" s="7" t="s">
         <v>5712</v>
@@ -40806,10 +40821,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
-        <v>5717</v>
+        <v>5715</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>5718</v>
+        <v>5716</v>
       </c>
       <c r="C614" s="7" t="s">
         <v>5712</v>
@@ -40817,10 +40832,10 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
-        <v>5719</v>
+        <v>5717</v>
       </c>
       <c r="B615" s="7" t="s">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="C615" s="7" t="s">
         <v>5712</v>
@@ -40828,10 +40843,10 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>5684</v>
+        <v>5720</v>
       </c>
       <c r="C616" s="7" t="s">
         <v>5712</v>
@@ -40839,10 +40854,10 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
       <c r="B617" s="7" t="s">
-        <v>5723</v>
+        <v>5684</v>
       </c>
       <c r="C617" s="7" t="s">
         <v>5712</v>
@@ -40850,10 +40865,10 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
-        <v>5724</v>
+        <v>5722</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>5688</v>
+        <v>5723</v>
       </c>
       <c r="C618" s="7" t="s">
         <v>5712</v>
@@ -40861,10 +40876,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="B619" s="7" t="s">
-        <v>5726</v>
+        <v>5688</v>
       </c>
       <c r="C619" s="7" t="s">
         <v>5712</v>
@@ -40872,10 +40887,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="B620" s="7" t="s">
-        <v>5728</v>
+        <v>5726</v>
       </c>
       <c r="C620" s="7" t="s">
         <v>5712</v>
@@ -40883,32 +40898,32 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="B621" s="7" t="s">
-        <v>5730</v>
+        <v>5728</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>5670</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="7" t="s">
-        <v>5731</v>
+        <v>5729</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>5732</v>
+        <v>5730</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>5729</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="7" t="s">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="B623" s="7" t="s">
-        <v>5734</v>
+        <v>5732</v>
       </c>
       <c r="C623" s="7" t="s">
         <v>5729</v>
@@ -40916,10 +40931,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
-        <v>5735</v>
+        <v>5733</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
       <c r="C624" s="7" t="s">
         <v>5729</v>
@@ -40927,10 +40942,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
-        <v>5737</v>
+        <v>5735</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>5738</v>
+        <v>5736</v>
       </c>
       <c r="C625" s="7" t="s">
         <v>5729</v>
@@ -40938,10 +40953,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="C626" s="7" t="s">
         <v>5729</v>
@@ -40949,10 +40964,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>5742</v>
+        <v>5740</v>
       </c>
       <c r="C627" s="7" t="s">
         <v>5729</v>
@@ -40960,10 +40975,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
-        <v>5743</v>
+        <v>5741</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="C628" s="7" t="s">
         <v>5729</v>
@@ -40971,12 +40986,23 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>5744</v>
+      </c>
+      <c r="C629" s="7" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="7" t="s">
         <v>5745</v>
       </c>
-      <c r="B629" s="7" t="s">
+      <c r="B630" s="7" t="s">
         <v>5746</v>
       </c>
-      <c r="C629" s="7" t="s">
+      <c r="C630" s="7" t="s">
         <v>5003</v>
       </c>
     </row>

--- a/PowerLmsData/系统资源/预初始化数据字典.xlsx
+++ b/PowerLmsData/系统资源/预初始化数据字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\光元\source\Repos1\PowerLms\PowerLmsData\系统资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B122BF7-0771-4F43-ABAA-702196A8DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD1C12-3B15-446A-BE3E-4229F3F89CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9617" uniqueCount="5811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9632" uniqueCount="5821">
   <si>
     <t>Id</t>
   </si>
@@ -19924,10 +19924,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B.10</t>
-  </si>
-  <si>
-    <t>单位换算</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>运价管理</t>
+  </si>
+  <si>
+    <t>A.1</t>
+  </si>
+  <si>
+    <t>空运运价</t>
+  </si>
+  <si>
+    <t>A.1.1</t>
+  </si>
+  <si>
+    <t>新增运价</t>
+  </si>
+  <si>
+    <t>A.1.2</t>
+  </si>
+  <si>
+    <t>删除运价</t>
+  </si>
+  <si>
+    <t>A.1.3</t>
+  </si>
+  <si>
+    <t>编辑运价</t>
+  </si>
+  <si>
+    <t>A.1.4</t>
+  </si>
+  <si>
+    <t>批量导入运价</t>
   </si>
 </sst>
 </file>
@@ -20124,7 +20154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -20314,12 +20344,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -20611,13 +20635,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34070,11 +34092,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
-  <dimension ref="A1:C630"/>
+  <dimension ref="A1:C635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -34100,6909 +34120,6964 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>5001</v>
+        <v>5809</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5002</v>
+        <v>5810</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
+        <v>5811</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5812</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>5815</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5816</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5817</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>5819</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5002</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>5004</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>5005</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>5006</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>5007</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>5008</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>5009</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>5010</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>5011</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>5012</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>5013</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>5014</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>5015</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>5016</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>5017</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>5018</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>5019</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>5020</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>5748</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>5749</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>5809</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>5810</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>5021</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>5022</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>5023</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>5022</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>5021</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>5024</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>5025</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>5026</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>5027</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>5028</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>5029</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
         <v>5030</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>5031</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>5032</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>5033</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>5034</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>5035</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>5036</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>5037</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>5038</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>5039</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>5021</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>5040</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>5041</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>5042</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>5043</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>5044</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>5045</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>5046</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>5047</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>5048</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>5049</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>5050</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>5051</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>5052</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>5053</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>5054</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>5055</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>5021</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>5056</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>5057</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>5058</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>5059</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>5060</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>5061</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>5062</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>5063</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>5064</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>5065</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>5066</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>5067</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>5068</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>5069</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>5070</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>5068</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>5072</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>5074</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>5076</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>5078</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>5080</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>5082</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>5084</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
         <v>5086</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>5088</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>5090</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>5092</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>5094</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>5096</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>5750</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>5098</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>5068</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>5100</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>5102</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>5104</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>5106</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>5108</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>5110</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>5108</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>5112</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>5108</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>5114</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>5108</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>5116</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>5118</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>5116</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>5119</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>5116</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>5120</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>5116</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>5121</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>5123</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>5121</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>5125</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>5121</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
         <v>5127</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>5121</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>5129</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
         <v>5131</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>5129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>5132</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>5129</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>5133</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>5129</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>5134</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>5135</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>5137</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>5752</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>5753</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>5137</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>5754</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>5755</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>5137</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>5756</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>5757</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>5137</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>5139</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>5141</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
         <v>5143</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
         <v>5145</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>5147</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
         <v>5149</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
         <v>5151</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
         <v>5153</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
         <v>5155</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
         <v>5157</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
         <v>5159</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
         <v>5161</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
         <v>5163</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>5164</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
         <v>5165</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>5166</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
         <v>5167</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>5168</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
         <v>5169</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>5170</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>5171</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
         <v>5174</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>5175</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
         <v>5176</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>5177</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
         <v>5178</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>5179</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
         <v>5180</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>5181</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
         <v>5182</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>5183</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
         <v>5184</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>5185</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
         <v>5186</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
         <v>5188</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>5186</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
         <v>5189</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
         <v>5190</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
         <v>5191</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
         <v>5192</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
         <v>5193</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
         <v>5194</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
         <v>5195</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
         <v>5196</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
         <v>5197</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
         <v>5198</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
         <v>5199</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
         <v>5758</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
         <v>5759</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
         <v>5760</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
         <v>5200</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>5186</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
         <v>5201</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
         <v>5202</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C128" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
         <v>5203</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C129" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
         <v>5204</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C130" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
         <v>5205</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C131" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
         <v>5206</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C132" s="8" t="s">
         <v>5205</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>5207</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C133" s="8" t="s">
         <v>5205</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
         <v>5208</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C134" s="8" t="s">
         <v>5205</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
         <v>5209</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C135" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>5210</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C136" s="8" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
         <v>5211</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C137" s="8" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>5212</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C138" s="8" t="s">
         <v>5209</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
         <v>5213</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C139" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
         <v>5214</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C140" s="8" t="s">
         <v>5213</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
         <v>5215</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C141" s="8" t="s">
         <v>5213</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
         <v>5216</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C142" s="8" t="s">
         <v>5213</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>5217</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C143" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
         <v>5218</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C144" s="8" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
         <v>5219</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C145" s="8" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>5220</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B146" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C146" s="8" t="s">
         <v>5217</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
         <v>5221</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B147" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C147" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>5222</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C148" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
         <v>5223</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C149" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
         <v>5224</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
         <v>5225</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C151" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
         <v>5226</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
         <v>5227</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C153" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
         <v>5228</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C154" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
         <v>5761</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>5762</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C155" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
         <v>5229</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C156" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
         <v>5230</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
         <v>5231</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
         <v>5232</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C159" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
         <v>5233</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C160" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
         <v>5234</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B161" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C161" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
         <v>5235</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C162" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
         <v>5236</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>5164</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C163" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
         <v>5237</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B164" s="8" t="s">
         <v>5166</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C164" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
         <v>5238</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B165" s="8" t="s">
         <v>5168</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C165" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
         <v>5239</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B166" s="8" t="s">
         <v>5170</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C166" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>5240</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B167" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C167" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
         <v>5241</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B168" s="8" t="s">
         <v>5242</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C168" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
         <v>5243</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B169" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C169" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
         <v>5244</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B170" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C170" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="8" t="s">
         <v>5245</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B171" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C171" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
         <v>5254</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B172" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C172" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
         <v>5255</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B173" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C173" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
         <v>5256</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B174" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C174" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
         <v>5257</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B175" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C175" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>5258</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B176" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C176" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
         <v>5763</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C177" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
         <v>5764</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B178" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C178" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
         <v>5246</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C179" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
         <v>5247</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B180" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C180" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
         <v>5248</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B181" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C181" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
         <v>5249</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B182" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C182" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="8" t="s">
         <v>5250</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B183" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C183" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
         <v>5251</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B184" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C184" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
         <v>5252</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B185" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C185" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="8" t="s">
         <v>5253</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B186" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C186" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
         <v>5260</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B187" s="8" t="s">
         <v>5261</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C187" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
         <v>5262</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B188" s="8" t="s">
         <v>5263</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C188" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="8" t="s">
         <v>5264</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B189" s="8" t="s">
         <v>5265</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C189" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
         <v>5266</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B190" s="8" t="s">
         <v>5267</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C190" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
         <v>5268</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B191" s="8" t="s">
         <v>5269</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C191" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
         <v>5270</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B192" s="8" t="s">
         <v>5271</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C192" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
         <v>5272</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B193" s="8" t="s">
         <v>5273</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C193" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
         <v>5274</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B194" s="8" t="s">
         <v>5275</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C194" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
         <v>5276</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B195" s="8" t="s">
         <v>5277</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C195" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
         <v>5278</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B196" s="8" t="s">
         <v>5279</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C196" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
         <v>5280</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B197" s="8" t="s">
         <v>5281</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C197" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
         <v>5282</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B198" s="8" t="s">
         <v>5283</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C198" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="8" t="s">
         <v>5284</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B199" s="8" t="s">
         <v>5285</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C199" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
         <v>5286</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B200" s="8" t="s">
         <v>5287</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C200" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
         <v>5288</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B201" s="8" t="s">
         <v>5289</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C201" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
         <v>5290</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B202" s="8" t="s">
         <v>5291</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C202" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
         <v>5292</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B203" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C203" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
         <v>5293</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B204" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C204" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
         <v>5294</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B205" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C205" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
         <v>5295</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B206" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C206" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="8" t="s">
         <v>5296</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C207" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
         <v>5297</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B208" s="8" t="s">
         <v>5298</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C208" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
         <v>5299</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B209" s="8" t="s">
         <v>5300</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C209" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="8" t="s">
         <v>5301</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B210" s="8" t="s">
         <v>5302</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C210" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
         <v>5303</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B211" s="8" t="s">
         <v>5304</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C211" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="8" t="s">
         <v>5305</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B212" s="8" t="s">
         <v>5306</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C212" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
         <v>5307</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B213" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C213" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
         <v>5308</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B214" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C214" s="8" t="s">
         <v>5307</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
         <v>5309</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B215" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C215" s="8" t="s">
         <v>5307</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
         <v>5310</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B216" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C216" s="8" t="s">
         <v>5307</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
         <v>5311</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B217" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C217" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="7" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
         <v>5312</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B218" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C218" s="8" t="s">
         <v>5311</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
         <v>5313</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B219" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C219" s="8" t="s">
         <v>5311</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
         <v>5314</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B220" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C220" s="8" t="s">
         <v>5311</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
         <v>5315</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B221" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C221" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
         <v>5316</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B222" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C222" s="8" t="s">
         <v>5315</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
         <v>5317</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B223" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C223" s="8" t="s">
         <v>5315</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
         <v>5318</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B224" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C224" s="8" t="s">
         <v>5315</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
         <v>5319</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B225" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C225" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
         <v>5320</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B226" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C226" s="8" t="s">
         <v>5319</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
         <v>5321</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B227" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C227" s="8" t="s">
         <v>5319</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="7" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
         <v>5322</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B228" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C228" s="8" t="s">
         <v>5319</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
         <v>5323</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B229" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C229" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
         <v>5324</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B230" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C230" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
         <v>5326</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B231" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C231" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
         <v>5327</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B232" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C232" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
         <v>5328</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B233" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C233" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
         <v>5329</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B234" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C234" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
         <v>5330</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B235" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C235" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
         <v>5331</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B236" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C236" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>5332</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B237" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C237" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="7" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
         <v>5325</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B238" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C238" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>5333</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B239" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C239" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="7" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>5334</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B240" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C240" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="8" t="s">
         <v>5335</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B241" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C241" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
         <v>5336</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B242" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C242" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="7" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="8" t="s">
         <v>5337</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B243" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C243" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="7" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
         <v>5338</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B244" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C244" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
         <v>5340</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B245" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C245" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="8" t="s">
         <v>5341</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B246" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C246" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
         <v>5343</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B247" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C247" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="8" t="s">
         <v>5345</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B248" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C248" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="7" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="8" t="s">
         <v>5347</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B249" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C249" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="7" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="8" t="s">
         <v>5349</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B250" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C250" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="7" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="8" t="s">
         <v>5350</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B251" s="8" t="s">
         <v>5351</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C251" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="7" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="8" t="s">
         <v>5352</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B252" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C252" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="7" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
         <v>5353</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B253" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C253" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="7" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="8" t="s">
         <v>5354</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B254" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C254" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="7" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="8" t="s">
         <v>5355</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B255" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C255" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="7" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="8" t="s">
         <v>5356</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B256" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C256" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="7" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="8" t="s">
         <v>5357</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B257" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C257" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="7" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="8" t="s">
         <v>5358</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B258" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C258" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="7" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="8" t="s">
         <v>5359</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B259" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C259" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="7" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="8" t="s">
         <v>5360</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B260" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C260" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="8" t="s">
         <v>5361</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B261" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C261" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="7" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="8" t="s">
         <v>5362</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B262" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C262" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="7" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="8" t="s">
         <v>5363</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B263" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C263" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="7" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="8" t="s">
         <v>5364</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B264" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C264" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="7" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="8" t="s">
         <v>5365</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B265" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C265" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="7" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="8" t="s">
         <v>5366</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B266" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C266" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="7" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="8" t="s">
         <v>5367</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B267" s="8" t="s">
         <v>5261</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C267" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="7" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="8" t="s">
         <v>5368</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B268" s="8" t="s">
         <v>5263</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C268" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="7" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="8" t="s">
         <v>5369</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B269" s="8" t="s">
         <v>5265</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C269" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="7" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="8" t="s">
         <v>5370</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B270" s="8" t="s">
         <v>5267</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C270" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="7" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="8" t="s">
         <v>5371</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B271" s="8" t="s">
         <v>5269</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C271" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="7" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="8" t="s">
         <v>5372</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B272" s="8" t="s">
         <v>5271</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C272" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="7" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="8" t="s">
         <v>5373</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B273" s="8" t="s">
         <v>5273</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C273" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="8" t="s">
         <v>5374</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B274" s="8" t="s">
         <v>5275</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C274" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="7" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="8" t="s">
         <v>5375</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B275" s="8" t="s">
         <v>5277</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C275" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="7" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="8" t="s">
         <v>5376</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B276" s="8" t="s">
         <v>5279</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C276" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="7" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="8" t="s">
         <v>5377</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B277" s="8" t="s">
         <v>5281</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C277" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="7" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="8" t="s">
         <v>5378</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B278" s="8" t="s">
         <v>5283</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C278" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="7" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="8" t="s">
         <v>5379</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B279" s="8" t="s">
         <v>5285</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C279" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="7" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="8" t="s">
         <v>5380</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B280" s="8" t="s">
         <v>5287</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C280" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="7" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="8" t="s">
         <v>5381</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B281" s="8" t="s">
         <v>5289</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C281" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="7" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="8" t="s">
         <v>5382</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B282" s="8" t="s">
         <v>5291</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C282" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="7" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="8" t="s">
         <v>5383</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B283" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C283" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="7" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="8" t="s">
         <v>5384</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B284" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C284" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="7" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="8" t="s">
         <v>5385</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B285" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C285" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="7" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="8" t="s">
         <v>5386</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B286" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C286" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="7" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="8" t="s">
         <v>5387</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B287" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C287" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="7" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="8" t="s">
         <v>5388</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B288" s="8" t="s">
         <v>5298</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C288" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="7" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="8" t="s">
         <v>5389</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B289" s="8" t="s">
         <v>5300</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C289" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="7" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="8" t="s">
         <v>5390</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B290" s="8" t="s">
         <v>5302</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C290" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="7" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="8" t="s">
         <v>5391</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B291" s="8" t="s">
         <v>5304</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C291" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="7" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="8" t="s">
         <v>5392</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B292" s="8" t="s">
         <v>5306</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C292" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="7" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="8" t="s">
         <v>5393</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B293" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C293" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="7" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="8" t="s">
         <v>5394</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B294" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C294" s="8" t="s">
         <v>5393</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="7" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="8" t="s">
         <v>5395</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B295" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C295" s="8" t="s">
         <v>5393</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="7" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="8" t="s">
         <v>5396</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B296" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C296" s="8" t="s">
         <v>5393</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="7" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="8" t="s">
         <v>5397</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B297" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C297" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="7" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="8" t="s">
         <v>5398</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B298" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C298" s="8" t="s">
         <v>5397</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="7" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="8" t="s">
         <v>5399</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B299" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C299" s="8" t="s">
         <v>5397</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="7" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="8" t="s">
         <v>5400</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B300" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C300" s="8" t="s">
         <v>5397</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="7" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="8" t="s">
         <v>5401</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B301" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C301" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="7" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="8" t="s">
         <v>5402</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B302" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C302" s="8" t="s">
         <v>5401</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="7" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="8" t="s">
         <v>5403</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B303" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C303" s="8" t="s">
         <v>5401</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="7" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="8" t="s">
         <v>5404</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B304" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C304" s="8" t="s">
         <v>5401</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="7" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="8" t="s">
         <v>5405</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B305" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C305" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="7" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="8" t="s">
         <v>5406</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B306" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C306" s="8" t="s">
         <v>5405</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="7" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="8" t="s">
         <v>5407</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B307" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C307" s="8" t="s">
         <v>5405</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="7" t="s">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="8" t="s">
         <v>5408</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B308" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C308" s="8" t="s">
         <v>5405</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="7" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="8" t="s">
         <v>5409</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B309" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C309" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="7" t="s">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="8" t="s">
         <v>5410</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B310" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C310" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="7" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="8" t="s">
         <v>5412</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B311" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C311" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="7" t="s">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="8" t="s">
         <v>5413</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B312" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C312" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="7" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="8" t="s">
         <v>5414</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B313" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C313" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="7" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="8" t="s">
         <v>5415</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B314" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C314" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="7" t="s">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="8" t="s">
         <v>5416</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B315" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C315" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="7" t="s">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="8" t="s">
         <v>5417</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B316" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C316" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="7" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="8" t="s">
         <v>5418</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B317" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C317" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="7" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="8" t="s">
         <v>5411</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B318" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C318" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="7" t="s">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="8" t="s">
         <v>5419</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B319" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C319" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="7" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="8" t="s">
         <v>5420</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B320" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C320" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="7" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="8" t="s">
         <v>5421</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B321" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C321" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="7" t="s">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="8" t="s">
         <v>5422</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B322" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C322" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="7" t="s">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="8" t="s">
         <v>5423</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B323" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C323" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="7" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="8" t="s">
         <v>5424</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B324" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C324" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="7" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="8" t="s">
         <v>5425</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B325" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C325" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="7" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="8" t="s">
         <v>5426</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B326" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C326" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="7" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="8" t="s">
         <v>5427</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B327" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C327" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="7" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="8" t="s">
         <v>5428</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B328" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C328" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="7" t="s">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="8" t="s">
         <v>5429</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B329" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C329" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="7" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="8" t="s">
         <v>5430</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B330" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C330" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="7" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="8" t="s">
         <v>5431</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B331" s="8" t="s">
         <v>5432</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C331" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="7" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="8" t="s">
         <v>5433</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B332" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C332" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="7" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="8" t="s">
         <v>5434</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B333" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C333" s="8" t="s">
         <v>5433</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="7" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="8" t="s">
         <v>5435</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B334" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C334" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="7" t="s">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="8" t="s">
         <v>5436</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B335" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C335" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="7" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="8" t="s">
         <v>5437</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B336" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C336" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="7" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="8" t="s">
         <v>5438</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B337" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C337" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="7" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="8" t="s">
         <v>5439</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B338" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C338" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="7" t="s">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="8" t="s">
         <v>5440</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B339" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C339" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="7" t="s">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="8" t="s">
         <v>5441</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B340" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C340" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="7" t="s">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="8" t="s">
         <v>5442</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B341" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C341" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="7" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="8" t="s">
         <v>5443</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B342" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C342" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="7" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="8" t="s">
         <v>5444</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B343" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="C343" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="7" t="s">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="8" t="s">
         <v>5445</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B344" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C344" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="7" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="8" t="s">
         <v>5446</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B345" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="C345" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="7" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="8" t="s">
         <v>5447</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B346" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C346" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="7" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="8" t="s">
         <v>5765</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B347" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C347" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="7" t="s">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="8" t="s">
         <v>5766</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B348" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C348" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="7" t="s">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="8" t="s">
         <v>5767</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="B349" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C349" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="7" t="s">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="8" t="s">
         <v>5448</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B350" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C350" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="7" t="s">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="8" t="s">
         <v>5449</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B351" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C351" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="7" t="s">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="8" t="s">
         <v>5451</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B352" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C352" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="7" t="s">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="8" t="s">
         <v>5452</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B353" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C353" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="7" t="s">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="8" t="s">
         <v>5453</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B354" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C354" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="7" t="s">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="8" t="s">
         <v>5454</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B355" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C355" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="7" t="s">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="8" t="s">
         <v>5455</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B356" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C356" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="7" t="s">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="8" t="s">
         <v>5456</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B357" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C357" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="7" t="s">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="8" t="s">
         <v>5457</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B358" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C358" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="7" t="s">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="8" t="s">
         <v>5450</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B359" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C359" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="7" t="s">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="8" t="s">
         <v>5458</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="B360" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C360" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="7" t="s">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="8" t="s">
         <v>5459</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B361" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C361" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="7" t="s">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="8" t="s">
         <v>5460</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B362" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C362" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="7" t="s">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="8" t="s">
         <v>5461</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B363" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C363" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="7" t="s">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="8" t="s">
         <v>5462</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B364" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C364" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="7" t="s">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="8" t="s">
         <v>5463</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B365" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C365" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="7" t="s">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="8" t="s">
         <v>5464</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B366" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C366" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="7" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="8" t="s">
         <v>5465</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B367" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C367" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="7" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="8" t="s">
         <v>5466</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B368" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C368" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="7" t="s">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="8" t="s">
         <v>5467</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B369" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C369" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="7" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="8" t="s">
         <v>5468</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B370" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C370" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="7" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="8" t="s">
         <v>5469</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B371" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C371" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="7" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="8" t="s">
         <v>5470</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B372" s="8" t="s">
         <v>5471</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C372" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="7" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="8" t="s">
         <v>5472</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B373" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C373" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="7" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="8" t="s">
         <v>5473</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B374" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C374" s="8" t="s">
         <v>5472</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="7" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="8" t="s">
         <v>5474</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B375" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C375" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="7" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="8" t="s">
         <v>5475</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B376" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C376" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="7" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="8" t="s">
         <v>5476</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B377" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C377" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="7" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="8" t="s">
         <v>5477</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B378" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C378" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="7" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="8" t="s">
         <v>5478</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B379" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C379" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="7" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="8" t="s">
         <v>5479</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B380" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C380" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="7" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="8" t="s">
         <v>5480</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B381" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C381" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="7" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="8" t="s">
         <v>5481</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B382" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C382" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="7" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="8" t="s">
         <v>5482</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B383" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C383" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="7" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="8" t="s">
         <v>5483</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B384" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C384" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="7" t="s">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="8" t="s">
         <v>5484</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B385" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C385" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="7" t="s">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="8" t="s">
         <v>5485</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B386" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C386" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="7" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="8" t="s">
         <v>5486</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B387" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C387" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="7" t="s">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="8" t="s">
         <v>5768</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B388" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C388" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="7" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="8" t="s">
         <v>5769</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B389" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C389" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="7" t="s">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="8" t="s">
         <v>5770</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B390" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C390" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="7" t="s">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="8" t="s">
         <v>5487</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B391" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C391" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="7" t="s">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="8" t="s">
         <v>5488</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B392" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C392" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="7" t="s">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="8" t="s">
         <v>5490</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B393" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C393" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="7" t="s">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="8" t="s">
         <v>5491</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B394" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C394" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="7" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="8" t="s">
         <v>5492</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B395" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C395" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" s="7" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="8" t="s">
         <v>5493</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B396" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C396" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="7" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="8" t="s">
         <v>5494</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B397" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C397" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" s="7" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="8" t="s">
         <v>5495</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B398" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C398" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" s="7" t="s">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="8" t="s">
         <v>5496</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B399" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C399" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" s="7" t="s">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="8" t="s">
         <v>5489</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B400" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C400" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" s="7" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="8" t="s">
         <v>5497</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B401" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C401" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" s="7" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="8" t="s">
         <v>5498</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B402" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C402" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" s="7" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="8" t="s">
         <v>5499</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B403" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C403" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" s="7" t="s">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="8" t="s">
         <v>5500</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B404" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C404" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" s="7" t="s">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="8" t="s">
         <v>5501</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B405" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C405" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" s="7" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="8" t="s">
         <v>5502</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="B406" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C406" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="7" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="8" t="s">
         <v>5503</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B407" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C407" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" s="7" t="s">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="8" t="s">
         <v>5504</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B408" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C408" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" s="7" t="s">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="8" t="s">
         <v>5505</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B409" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C409" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" s="7" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="8" t="s">
         <v>5506</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B410" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C410" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" s="7" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="8" t="s">
         <v>5507</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B411" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C411" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" s="7" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="8" t="s">
         <v>5508</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B412" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C412" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="7" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="8" t="s">
         <v>5509</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B413" s="8" t="s">
         <v>5510</v>
       </c>
-      <c r="C408" s="7" t="s">
+      <c r="C413" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="7" t="s">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="8" t="s">
         <v>5511</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B414" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C409" s="7" t="s">
+      <c r="C414" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="7" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="8" t="s">
         <v>5512</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B415" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C415" s="8" t="s">
         <v>5511</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" s="7" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="8" t="s">
         <v>5513</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B416" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C416" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="7" t="s">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="8" t="s">
         <v>5514</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B417" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C417" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" s="7" t="s">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="8" t="s">
         <v>5515</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B418" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C413" s="7" t="s">
+      <c r="C418" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="7" t="s">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="8" t="s">
         <v>5516</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B419" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C414" s="7" t="s">
+      <c r="C419" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="7" t="s">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="8" t="s">
         <v>5517</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B420" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C420" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" s="7" t="s">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="8" t="s">
         <v>5518</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B421" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C421" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" s="7" t="s">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="8" t="s">
         <v>5519</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B422" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C417" s="7" t="s">
+      <c r="C422" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" s="7" t="s">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="8" t="s">
         <v>5520</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B423" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C423" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" s="7" t="s">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="8" t="s">
         <v>5521</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B424" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C424" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" s="7" t="s">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="8" t="s">
         <v>5522</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B425" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C420" s="7" t="s">
+      <c r="C425" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" s="7" t="s">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="8" t="s">
         <v>5523</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B426" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C421" s="7" t="s">
+      <c r="C426" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" s="7" t="s">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="8" t="s">
         <v>5524</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B427" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C427" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" s="7" t="s">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="8" t="s">
         <v>5525</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B428" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C428" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" s="7" t="s">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="8" t="s">
         <v>5771</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B429" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C424" s="7" t="s">
+      <c r="C429" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" s="7" t="s">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="8" t="s">
         <v>5772</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B430" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C430" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" s="7" t="s">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="8" t="s">
         <v>5773</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B431" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C431" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" s="7" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="8" t="s">
         <v>5526</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B432" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C432" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="7" t="s">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="8" t="s">
         <v>5527</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B433" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C433" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="7" t="s">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="8" t="s">
         <v>5529</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B434" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C429" s="7" t="s">
+      <c r="C434" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" s="7" t="s">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="8" t="s">
         <v>5530</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B435" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C430" s="7" t="s">
+      <c r="C435" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" s="7" t="s">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="8" t="s">
         <v>5531</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B436" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C436" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" s="7" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="8" t="s">
         <v>5532</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B437" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C432" s="7" t="s">
+      <c r="C437" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="7" t="s">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="8" t="s">
         <v>5533</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B438" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C433" s="7" t="s">
+      <c r="C438" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="7" t="s">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="8" t="s">
         <v>5534</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B439" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C434" s="7" t="s">
+      <c r="C439" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="7" t="s">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="8" t="s">
         <v>5535</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B440" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C435" s="7" t="s">
+      <c r="C440" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" s="7" t="s">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="8" t="s">
         <v>5528</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B441" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C436" s="7" t="s">
+      <c r="C441" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="7" t="s">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="8" t="s">
         <v>5536</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B442" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C437" s="7" t="s">
+      <c r="C442" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="7" t="s">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" s="8" t="s">
         <v>5537</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B443" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C438" s="7" t="s">
+      <c r="C443" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="7" t="s">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="8" t="s">
         <v>5538</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B444" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C439" s="7" t="s">
+      <c r="C444" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" s="7" t="s">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="8" t="s">
         <v>5539</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B445" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C440" s="7" t="s">
+      <c r="C445" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" s="7" t="s">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="8" t="s">
         <v>5540</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B446" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C441" s="7" t="s">
+      <c r="C446" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" s="7" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="8" t="s">
         <v>5541</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B447" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C447" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="7" t="s">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" s="8" t="s">
         <v>5542</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B448" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C443" s="7" t="s">
+      <c r="C448" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" s="7" t="s">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" s="8" t="s">
         <v>5543</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B449" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C444" s="7" t="s">
+      <c r="C449" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="7" t="s">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="8" t="s">
         <v>5544</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B450" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C445" s="7" t="s">
+      <c r="C450" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" s="7" t="s">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="8" t="s">
         <v>5545</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B451" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C446" s="7" t="s">
+      <c r="C451" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" s="7" t="s">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" s="8" t="s">
         <v>5546</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B452" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C447" s="7" t="s">
+      <c r="C452" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" s="7" t="s">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" s="8" t="s">
         <v>5547</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B453" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C448" s="7" t="s">
+      <c r="C453" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" s="7" t="s">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="8" t="s">
         <v>5548</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B454" s="8" t="s">
         <v>5549</v>
       </c>
-      <c r="C449" s="7" t="s">
+      <c r="C454" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="7" t="s">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="8" t="s">
         <v>5550</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B455" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C450" s="7" t="s">
+      <c r="C455" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" s="7" t="s">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" s="8" t="s">
         <v>5551</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B456" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C451" s="7" t="s">
+      <c r="C456" s="8" t="s">
         <v>5550</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" s="7" t="s">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="8" t="s">
         <v>5552</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B457" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C452" s="7" t="s">
+      <c r="C457" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" s="7" t="s">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="8" t="s">
         <v>5553</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B458" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C458" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="7" t="s">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="8" t="s">
         <v>5554</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B459" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C459" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="7" t="s">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="8" t="s">
         <v>5555</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B460" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C460" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" s="7" t="s">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" s="8" t="s">
         <v>5556</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B461" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C456" s="7" t="s">
+      <c r="C461" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="7" t="s">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" s="8" t="s">
         <v>5557</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B462" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C462" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" s="7" t="s">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="8" t="s">
         <v>5558</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B463" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="C463" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" s="7" t="s">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="8" t="s">
         <v>5559</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B464" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="C464" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" s="7" t="s">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="8" t="s">
         <v>5560</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B465" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C460" s="7" t="s">
+      <c r="C465" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" s="7" t="s">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="8" t="s">
         <v>5561</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B466" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C461" s="7" t="s">
+      <c r="C466" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" s="7" t="s">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="8" t="s">
         <v>5562</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B467" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C462" s="7" t="s">
+      <c r="C467" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" s="7" t="s">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="8" t="s">
         <v>5563</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B468" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C463" s="7" t="s">
+      <c r="C468" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="7" t="s">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="8" t="s">
         <v>5564</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B469" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C464" s="7" t="s">
+      <c r="C469" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="7" t="s">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="8" t="s">
         <v>5774</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B470" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C465" s="7" t="s">
+      <c r="C470" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="7" t="s">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="8" t="s">
         <v>5775</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B471" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C466" s="7" t="s">
+      <c r="C471" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="7" t="s">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="8" t="s">
         <v>5776</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B472" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C467" s="7" t="s">
+      <c r="C472" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="7" t="s">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="8" t="s">
         <v>5565</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B473" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="C473" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="7" t="s">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="8" t="s">
         <v>5566</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B474" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C474" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="7" t="s">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="8" t="s">
         <v>5568</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B475" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="C475" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="7" t="s">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="8" t="s">
         <v>5569</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B476" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="C476" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="7" t="s">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="8" t="s">
         <v>5570</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B477" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="C477" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="7" t="s">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="8" t="s">
         <v>5571</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B478" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C473" s="7" t="s">
+      <c r="C478" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="7" t="s">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="8" t="s">
         <v>5572</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B479" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C474" s="7" t="s">
+      <c r="C479" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="7" t="s">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="8" t="s">
         <v>5573</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B480" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="C480" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="7" t="s">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="8" t="s">
         <v>5574</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B481" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C476" s="7" t="s">
+      <c r="C481" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" s="7" t="s">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="8" t="s">
         <v>5567</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B482" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C477" s="7" t="s">
+      <c r="C482" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="7" t="s">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="8" t="s">
         <v>5575</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B483" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C478" s="7" t="s">
+      <c r="C483" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="7" t="s">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="8" t="s">
         <v>5576</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B484" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C479" s="7" t="s">
+      <c r="C484" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="7" t="s">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="8" t="s">
         <v>5577</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B485" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C480" s="7" t="s">
+      <c r="C485" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" s="7" t="s">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="8" t="s">
         <v>5578</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B486" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C481" s="7" t="s">
+      <c r="C486" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="7" t="s">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="8" t="s">
         <v>5579</v>
       </c>
-      <c r="B482" s="7" t="s">
+      <c r="B487" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C482" s="7" t="s">
+      <c r="C487" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="7" t="s">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="8" t="s">
         <v>5580</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="B488" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C483" s="7" t="s">
+      <c r="C488" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" s="7" t="s">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="8" t="s">
         <v>5581</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="B489" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C484" s="7" t="s">
+      <c r="C489" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" s="7" t="s">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="8" t="s">
         <v>5582</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="B490" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C485" s="7" t="s">
+      <c r="C490" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" s="7" t="s">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="8" t="s">
         <v>5583</v>
       </c>
-      <c r="B486" s="7" t="s">
+      <c r="B491" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C486" s="7" t="s">
+      <c r="C491" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" s="7" t="s">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="8" t="s">
         <v>5584</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B492" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C487" s="7" t="s">
+      <c r="C492" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" s="7" t="s">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="8" t="s">
         <v>5585</v>
       </c>
-      <c r="B488" s="7" t="s">
+      <c r="B493" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="C493" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" s="7" t="s">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="8" t="s">
         <v>5586</v>
       </c>
-      <c r="B489" s="7" t="s">
+      <c r="B494" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C489" s="7" t="s">
+      <c r="C494" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" s="7" t="s">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="8" t="s">
         <v>5587</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="B495" s="8" t="s">
         <v>5588</v>
       </c>
-      <c r="C490" s="7" t="s">
+      <c r="C495" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" s="7" t="s">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="8" t="s">
         <v>5589</v>
       </c>
-      <c r="B491" s="7" t="s">
+      <c r="B496" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C491" s="7" t="s">
+      <c r="C496" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" s="7" t="s">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="8" t="s">
         <v>5590</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="B497" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C492" s="7" t="s">
+      <c r="C497" s="8" t="s">
         <v>5589</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" s="7" t="s">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="8" t="s">
         <v>5591</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="B498" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C493" s="7" t="s">
+      <c r="C498" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="7" t="s">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="8" t="s">
         <v>5592</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="B499" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C494" s="7" t="s">
+      <c r="C499" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" s="7" t="s">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="8" t="s">
         <v>5593</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="B500" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C495" s="7" t="s">
+      <c r="C500" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" s="7" t="s">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="8" t="s">
         <v>5594</v>
       </c>
-      <c r="B496" s="7" t="s">
+      <c r="B501" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C496" s="7" t="s">
+      <c r="C501" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" s="7" t="s">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="8" t="s">
         <v>5595</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="B502" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C497" s="7" t="s">
+      <c r="C502" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="7" t="s">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="8" t="s">
         <v>5596</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="B503" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C498" s="7" t="s">
+      <c r="C503" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="7" t="s">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="8" t="s">
         <v>5597</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="B504" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C499" s="7" t="s">
+      <c r="C504" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="7" t="s">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="8" t="s">
         <v>5598</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="B505" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C500" s="7" t="s">
+      <c r="C505" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="7" t="s">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="8" t="s">
         <v>5599</v>
       </c>
-      <c r="B501" s="7" t="s">
+      <c r="B506" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C501" s="7" t="s">
+      <c r="C506" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" s="7" t="s">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="8" t="s">
         <v>5600</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="B507" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C502" s="7" t="s">
+      <c r="C507" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" s="7" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="8" t="s">
         <v>5601</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="B508" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C503" s="7" t="s">
+      <c r="C508" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" s="7" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="8" t="s">
         <v>5602</v>
       </c>
-      <c r="B504" s="7" t="s">
+      <c r="B509" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C504" s="7" t="s">
+      <c r="C509" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" s="7" t="s">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="8" t="s">
         <v>5603</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="B510" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C505" s="7" t="s">
+      <c r="C510" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="7" t="s">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="8" t="s">
         <v>5604</v>
       </c>
-      <c r="B506" s="7" t="s">
+      <c r="B511" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="C511" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" s="7" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="8" t="s">
         <v>5605</v>
       </c>
-      <c r="B507" s="7" t="s">
+      <c r="B512" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C507" s="7" t="s">
+      <c r="C512" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" s="7" t="s">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="8" t="s">
         <v>5607</v>
       </c>
-      <c r="B508" s="7" t="s">
+      <c r="B513" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C508" s="7" t="s">
+      <c r="C513" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="7" t="s">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="8" t="s">
         <v>5609</v>
       </c>
-      <c r="B509" s="7" t="s">
+      <c r="B514" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C509" s="7" t="s">
+      <c r="C514" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="7" t="s">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="8" t="s">
         <v>5610</v>
       </c>
-      <c r="B510" s="7" t="s">
+      <c r="B515" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C510" s="7" t="s">
+      <c r="C515" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" s="7" t="s">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="8" t="s">
         <v>5612</v>
       </c>
-      <c r="B511" s="7" t="s">
+      <c r="B516" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C511" s="7" t="s">
+      <c r="C516" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="7" t="s">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="8" t="s">
         <v>5613</v>
       </c>
-      <c r="B512" s="7" t="s">
+      <c r="B517" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C512" s="7" t="s">
+      <c r="C517" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="7" t="s">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="8" t="s">
         <v>5614</v>
       </c>
-      <c r="B513" s="7" t="s">
+      <c r="B518" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C513" s="7" t="s">
+      <c r="C518" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" s="7" t="s">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="8" t="s">
         <v>5615</v>
       </c>
-      <c r="B514" s="7" t="s">
+      <c r="B519" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C514" s="7" t="s">
+      <c r="C519" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="7" t="s">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="8" t="s">
         <v>5616</v>
       </c>
-      <c r="B515" s="7" t="s">
+      <c r="B520" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C515" s="7" t="s">
+      <c r="C520" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="7" t="s">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="8" t="s">
         <v>5617</v>
       </c>
-      <c r="B516" s="7" t="s">
+      <c r="B521" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C516" s="7" t="s">
+      <c r="C521" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" s="7" t="s">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="8" t="s">
         <v>5618</v>
       </c>
-      <c r="B517" s="7" t="s">
+      <c r="B522" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C517" s="7" t="s">
+      <c r="C522" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="7" t="s">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" s="8" t="s">
         <v>5611</v>
       </c>
-      <c r="B518" s="7" t="s">
+      <c r="B523" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C518" s="7" t="s">
+      <c r="C523" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="7" t="s">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="8" t="s">
         <v>5619</v>
       </c>
-      <c r="B519" s="7" t="s">
+      <c r="B524" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C519" s="7" t="s">
+      <c r="C524" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" s="7" t="s">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="8" t="s">
         <v>5620</v>
       </c>
-      <c r="B520" s="7" t="s">
+      <c r="B525" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C520" s="7" t="s">
+      <c r="C525" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" s="7" t="s">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="8" t="s">
         <v>5621</v>
       </c>
-      <c r="B521" s="7" t="s">
+      <c r="B526" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C521" s="7" t="s">
+      <c r="C526" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" s="7" t="s">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="8" t="s">
         <v>5622</v>
       </c>
-      <c r="B522" s="7" t="s">
+      <c r="B527" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C522" s="7" t="s">
+      <c r="C527" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" s="7" t="s">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="8" t="s">
         <v>5623</v>
       </c>
-      <c r="B523" s="7" t="s">
+      <c r="B528" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C523" s="7" t="s">
+      <c r="C528" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" s="7" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="8" t="s">
         <v>5624</v>
       </c>
-      <c r="B524" s="7" t="s">
+      <c r="B529" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C524" s="7" t="s">
+      <c r="C529" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" s="7" t="s">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="8" t="s">
         <v>5625</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="B530" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="C530" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="7" t="s">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="8" t="s">
         <v>5626</v>
       </c>
-      <c r="B526" s="7" t="s">
+      <c r="B531" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="C531" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="7" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="8" t="s">
         <v>5627</v>
       </c>
-      <c r="B527" s="7" t="s">
+      <c r="B532" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C527" s="7" t="s">
+      <c r="C532" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="7" t="s">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="8" t="s">
         <v>5628</v>
       </c>
-      <c r="B528" s="7" t="s">
+      <c r="B533" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="C533" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" s="7" t="s">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="8" t="s">
         <v>5629</v>
       </c>
-      <c r="B529" s="7" t="s">
+      <c r="B534" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C529" s="7" t="s">
+      <c r="C534" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" s="7" t="s">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="8" t="s">
         <v>5630</v>
       </c>
-      <c r="B530" s="7" t="s">
+      <c r="B535" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="C535" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" s="7" t="s">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="8" t="s">
         <v>5631</v>
       </c>
-      <c r="B531" s="7" t="s">
+      <c r="B536" s="8" t="s">
         <v>5632</v>
       </c>
-      <c r="C531" s="7" t="s">
+      <c r="C536" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" s="7" t="s">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="8" t="s">
         <v>5633</v>
       </c>
-      <c r="B532" s="7" t="s">
+      <c r="B537" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C532" s="7" t="s">
+      <c r="C537" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" s="7" t="s">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="8" t="s">
         <v>5634</v>
       </c>
-      <c r="B533" s="7" t="s">
+      <c r="B538" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C533" s="7" t="s">
+      <c r="C538" s="8" t="s">
         <v>5633</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" s="7" t="s">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="8" t="s">
         <v>5635</v>
       </c>
-      <c r="B534" s="7" t="s">
+      <c r="B539" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C534" s="7" t="s">
+      <c r="C539" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" s="7" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="8" t="s">
         <v>5636</v>
       </c>
-      <c r="B535" s="7" t="s">
+      <c r="B540" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C535" s="7" t="s">
+      <c r="C540" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" s="7" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A541" s="8" t="s">
         <v>5637</v>
       </c>
-      <c r="B536" s="7" t="s">
+      <c r="B541" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C536" s="7" t="s">
+      <c r="C541" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" s="7" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" s="8" t="s">
         <v>5638</v>
       </c>
-      <c r="B537" s="7" t="s">
+      <c r="B542" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C537" s="7" t="s">
+      <c r="C542" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" s="7" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" s="8" t="s">
         <v>5639</v>
       </c>
-      <c r="B538" s="7" t="s">
+      <c r="B543" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C538" s="7" t="s">
+      <c r="C543" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" s="7" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" s="8" t="s">
         <v>5640</v>
       </c>
-      <c r="B539" s="7" t="s">
+      <c r="B544" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C539" s="7" t="s">
+      <c r="C544" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" s="7" t="s">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A545" s="8" t="s">
         <v>5641</v>
       </c>
-      <c r="B540" s="7" t="s">
+      <c r="B545" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C540" s="7" t="s">
+      <c r="C545" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" s="7" t="s">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" s="8" t="s">
         <v>5642</v>
       </c>
-      <c r="B541" s="7" t="s">
+      <c r="B546" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C541" s="7" t="s">
+      <c r="C546" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" s="7" t="s">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" s="8" t="s">
         <v>5643</v>
       </c>
-      <c r="B542" s="7" t="s">
+      <c r="B547" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="C547" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" s="7" t="s">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A548" s="8" t="s">
         <v>5644</v>
       </c>
-      <c r="B543" s="7" t="s">
+      <c r="B548" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C543" s="7" t="s">
+      <c r="C548" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" s="7" t="s">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A549" s="8" t="s">
         <v>5645</v>
       </c>
-      <c r="B544" s="7" t="s">
+      <c r="B549" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C544" s="7" t="s">
+      <c r="C549" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" s="7" t="s">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A550" s="8" t="s">
         <v>5646</v>
       </c>
-      <c r="B545" s="7" t="s">
+      <c r="B550" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C545" s="7" t="s">
+      <c r="C550" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" s="7" t="s">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" s="8" t="s">
         <v>5647</v>
       </c>
-      <c r="B546" s="7" t="s">
+      <c r="B551" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C546" s="7" t="s">
+      <c r="C551" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" s="7" t="s">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A552" s="8" t="s">
         <v>5777</v>
       </c>
-      <c r="B547" s="7" t="s">
+      <c r="B552" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C547" s="7" t="s">
+      <c r="C552" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" s="7" t="s">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A553" s="8" t="s">
         <v>5778</v>
       </c>
-      <c r="B548" s="7" t="s">
+      <c r="B553" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="C553" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" s="7" t="s">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" s="8" t="s">
         <v>5779</v>
       </c>
-      <c r="B549" s="7" t="s">
+      <c r="B554" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C549" s="7" t="s">
+      <c r="C554" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" s="7" t="s">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A555" s="8" t="s">
         <v>5648</v>
       </c>
-      <c r="B550" s="7" t="s">
+      <c r="B555" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C550" s="7" t="s">
+      <c r="C555" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" s="7" t="s">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" s="8" t="s">
         <v>5649</v>
       </c>
-      <c r="B551" s="7" t="s">
+      <c r="B556" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="C556" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" s="7" t="s">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" s="8" t="s">
         <v>5651</v>
       </c>
-      <c r="B552" s="7" t="s">
+      <c r="B557" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C552" s="7" t="s">
+      <c r="C557" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" s="7" t="s">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" s="8" t="s">
         <v>5652</v>
       </c>
-      <c r="B553" s="7" t="s">
+      <c r="B558" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C553" s="7" t="s">
+      <c r="C558" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" s="7" t="s">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A559" s="8" t="s">
         <v>5653</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="B559" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C554" s="7" t="s">
+      <c r="C559" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" s="7" t="s">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A560" s="8" t="s">
         <v>5654</v>
       </c>
-      <c r="B555" s="7" t="s">
+      <c r="B560" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C555" s="7" t="s">
+      <c r="C560" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" s="7" t="s">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A561" s="8" t="s">
         <v>5655</v>
       </c>
-      <c r="B556" s="7" t="s">
+      <c r="B561" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C556" s="7" t="s">
+      <c r="C561" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" s="7" t="s">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A562" s="8" t="s">
         <v>5656</v>
       </c>
-      <c r="B557" s="7" t="s">
+      <c r="B562" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C557" s="7" t="s">
+      <c r="C562" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" s="7" t="s">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A563" s="8" t="s">
         <v>5657</v>
       </c>
-      <c r="B558" s="7" t="s">
+      <c r="B563" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C558" s="7" t="s">
+      <c r="C563" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" s="7" t="s">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" s="8" t="s">
         <v>5650</v>
       </c>
-      <c r="B559" s="7" t="s">
+      <c r="B564" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C559" s="7" t="s">
+      <c r="C564" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" s="7" t="s">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" s="8" t="s">
         <v>5658</v>
       </c>
-      <c r="B560" s="7" t="s">
+      <c r="B565" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C560" s="7" t="s">
+      <c r="C565" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" s="7" t="s">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" s="8" t="s">
         <v>5659</v>
       </c>
-      <c r="B561" s="7" t="s">
+      <c r="B566" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C561" s="7" t="s">
+      <c r="C566" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="7" t="s">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A567" s="8" t="s">
         <v>5660</v>
       </c>
-      <c r="B562" s="7" t="s">
+      <c r="B567" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C562" s="7" t="s">
+      <c r="C567" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="7" t="s">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A568" s="8" t="s">
         <v>5661</v>
       </c>
-      <c r="B563" s="7" t="s">
+      <c r="B568" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C563" s="7" t="s">
+      <c r="C568" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="7" t="s">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A569" s="8" t="s">
         <v>5662</v>
       </c>
-      <c r="B564" s="7" t="s">
+      <c r="B569" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C564" s="7" t="s">
+      <c r="C569" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="7" t="s">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" s="8" t="s">
         <v>5663</v>
       </c>
-      <c r="B565" s="7" t="s">
+      <c r="B570" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C565" s="7" t="s">
+      <c r="C570" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="7" t="s">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A571" s="8" t="s">
         <v>5664</v>
       </c>
-      <c r="B566" s="7" t="s">
+      <c r="B571" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C566" s="7" t="s">
+      <c r="C571" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="7" t="s">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A572" s="8" t="s">
         <v>5665</v>
       </c>
-      <c r="B567" s="7" t="s">
+      <c r="B572" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C567" s="7" t="s">
+      <c r="C572" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="7" t="s">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" s="8" t="s">
         <v>5666</v>
       </c>
-      <c r="B568" s="7" t="s">
+      <c r="B573" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C568" s="7" t="s">
+      <c r="C573" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="7" t="s">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A574" s="8" t="s">
         <v>5667</v>
       </c>
-      <c r="B569" s="7" t="s">
+      <c r="B574" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C569" s="7" t="s">
+      <c r="C574" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="7" t="s">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A575" s="8" t="s">
         <v>5668</v>
       </c>
-      <c r="B570" s="7" t="s">
+      <c r="B575" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C570" s="7" t="s">
+      <c r="C575" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="7" t="s">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A576" s="8" t="s">
         <v>5669</v>
       </c>
-      <c r="B571" s="7" t="s">
+      <c r="B576" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C571" s="7" t="s">
+      <c r="C576" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" s="7" t="s">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A577" s="8" t="s">
         <v>5780</v>
       </c>
-      <c r="B572" s="7" t="s">
+      <c r="B577" s="8" t="s">
         <v>5781</v>
       </c>
-      <c r="C572" s="7" t="s">
+      <c r="C577" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" s="7" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" s="8" t="s">
         <v>5782</v>
       </c>
-      <c r="B573" s="7" t="s">
+      <c r="B578" s="8" t="s">
         <v>5783</v>
       </c>
-      <c r="C573" s="7" t="s">
+      <c r="C578" s="8" t="s">
         <v>5780</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="7" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579" s="8" t="s">
         <v>5784</v>
       </c>
-      <c r="B574" s="7" t="s">
+      <c r="B579" s="8" t="s">
         <v>5785</v>
       </c>
-      <c r="C574" s="7" t="s">
+      <c r="C579" s="8" t="s">
         <v>5780</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" s="7" t="s">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A580" s="8" t="s">
         <v>5786</v>
       </c>
-      <c r="B575" s="7" t="s">
+      <c r="B580" s="8" t="s">
         <v>5787</v>
       </c>
-      <c r="C575" s="7" t="s">
+      <c r="C580" s="8" t="s">
         <v>5780</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" s="7" t="s">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" s="8" t="s">
         <v>5788</v>
       </c>
-      <c r="B576" s="7" t="s">
+      <c r="B581" s="8" t="s">
         <v>5789</v>
       </c>
-      <c r="C576" s="7" t="s">
+      <c r="C581" s="8" t="s">
         <v>5780</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="7" t="s">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A582" s="8" t="s">
         <v>5790</v>
       </c>
-      <c r="B577" s="7" t="s">
+      <c r="B582" s="8" t="s">
         <v>5791</v>
       </c>
-      <c r="C577" s="7" t="s">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="7" t="s">
-        <v>5792</v>
-      </c>
-      <c r="B578" s="7" t="s">
-        <v>5793</v>
-      </c>
-      <c r="C578" s="7" t="s">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="7" t="s">
-        <v>5794</v>
-      </c>
-      <c r="B579" s="7" t="s">
-        <v>5795</v>
-      </c>
-      <c r="C579" s="7" t="s">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="7" t="s">
-        <v>5796</v>
-      </c>
-      <c r="B580" s="7" t="s">
-        <v>5797</v>
-      </c>
-      <c r="C580" s="7" t="s">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581" s="7" t="s">
-        <v>5798</v>
-      </c>
-      <c r="B581" s="7" t="s">
-        <v>5799</v>
-      </c>
-      <c r="C581" s="7" t="s">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="7" t="s">
-        <v>5798</v>
-      </c>
-      <c r="B582" s="7" t="s">
-        <v>5800</v>
-      </c>
-      <c r="C582" s="7" t="s">
+      <c r="C582" s="8" t="s">
         <v>5780</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="8" t="s">
-        <v>5801</v>
+        <v>5792</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>5802</v>
+        <v>5793</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>5003</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="8" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B584" s="8" t="s">
+        <v>5795</v>
+      </c>
+      <c r="C584" s="8" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" s="8" t="s">
+        <v>5796</v>
+      </c>
+      <c r="B585" s="8" t="s">
+        <v>5797</v>
+      </c>
+      <c r="C585" s="8" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" s="8" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B586" s="8" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C586" s="8" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A587" s="8" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B587" s="8" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C587" s="8" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" s="9" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B588" s="9" t="s">
+        <v>5802</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A589" s="9" t="s">
         <v>5803</v>
       </c>
-      <c r="B584" s="8" t="s">
+      <c r="B589" s="9" t="s">
         <v>5804</v>
       </c>
-      <c r="C584" s="8" t="s">
+      <c r="C589" s="9" t="s">
         <v>5801</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="7" t="s">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" s="8" t="s">
         <v>5670</v>
       </c>
-      <c r="B585" s="7" t="s">
+      <c r="B590" s="8" t="s">
         <v>5671</v>
       </c>
-      <c r="C585" s="7" t="s">
+      <c r="C590" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="7" t="s">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A591" s="8" t="s">
         <v>5672</v>
       </c>
-      <c r="B586" s="7" t="s">
+      <c r="B591" s="8" t="s">
         <v>5673</v>
       </c>
-      <c r="C586" s="7" t="s">
+      <c r="C591" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587" s="7" t="s">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" s="8" t="s">
         <v>5674</v>
       </c>
-      <c r="B587" s="7" t="s">
+      <c r="B592" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C587" s="7" t="s">
+      <c r="C592" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" s="7" t="s">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" s="8" t="s">
         <v>5675</v>
       </c>
-      <c r="B588" s="7" t="s">
+      <c r="B593" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="C593" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="7" t="s">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A594" s="8" t="s">
         <v>5676</v>
       </c>
-      <c r="B589" s="7" t="s">
+      <c r="B594" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C589" s="7" t="s">
+      <c r="C594" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="7" t="s">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A595" s="8" t="s">
         <v>5677</v>
       </c>
-      <c r="B590" s="7" t="s">
+      <c r="B595" s="8" t="s">
         <v>5678</v>
       </c>
-      <c r="C590" s="7" t="s">
+      <c r="C595" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="7" t="s">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" s="8" t="s">
         <v>5679</v>
       </c>
-      <c r="B591" s="7" t="s">
+      <c r="B596" s="8" t="s">
         <v>5680</v>
       </c>
-      <c r="C591" s="7" t="s">
+      <c r="C596" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="7" t="s">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A597" s="8" t="s">
         <v>5681</v>
       </c>
-      <c r="B592" s="7" t="s">
+      <c r="B597" s="8" t="s">
         <v>5682</v>
       </c>
-      <c r="C592" s="7" t="s">
+      <c r="C597" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593" s="7" t="s">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" s="8" t="s">
         <v>5683</v>
       </c>
-      <c r="B593" s="7" t="s">
+      <c r="B598" s="8" t="s">
         <v>5684</v>
       </c>
-      <c r="C593" s="7" t="s">
+      <c r="C598" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594" s="7" t="s">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A599" s="8" t="s">
         <v>5685</v>
       </c>
-      <c r="B594" s="7" t="s">
+      <c r="B599" s="8" t="s">
         <v>5686</v>
       </c>
-      <c r="C594" s="7" t="s">
+      <c r="C599" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595" s="7" t="s">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A600" s="8" t="s">
         <v>5687</v>
       </c>
-      <c r="B595" s="7" t="s">
+      <c r="B600" s="8" t="s">
         <v>5688</v>
       </c>
-      <c r="C595" s="7" t="s">
+      <c r="C600" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596" s="7" t="s">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A601" s="8" t="s">
         <v>5689</v>
       </c>
-      <c r="B596" s="7" t="s">
+      <c r="B601" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C596" s="7" t="s">
+      <c r="C601" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A597" s="7" t="s">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A602" s="8" t="s">
         <v>5690</v>
       </c>
-      <c r="B597" s="7" t="s">
+      <c r="B602" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C597" s="7" t="s">
+      <c r="C602" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A598" s="7" t="s">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A603" s="8" t="s">
         <v>5691</v>
       </c>
-      <c r="B598" s="7" t="s">
+      <c r="B603" s="8" t="s">
         <v>5805</v>
       </c>
-      <c r="C598" s="7" t="s">
+      <c r="C603" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A599" s="7" t="s">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A604" s="8" t="s">
         <v>5806</v>
       </c>
-      <c r="B599" s="7" t="s">
+      <c r="B604" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C599" s="7" t="s">
+      <c r="C604" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" s="7" t="s">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A605" s="8" t="s">
         <v>5692</v>
       </c>
-      <c r="B600" s="7" t="s">
+      <c r="B605" s="8" t="s">
         <v>5693</v>
       </c>
-      <c r="C600" s="7" t="s">
+      <c r="C605" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" s="7" t="s">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A606" s="8" t="s">
         <v>5694</v>
       </c>
-      <c r="B601" s="7" t="s">
+      <c r="B606" s="8" t="s">
         <v>5695</v>
       </c>
-      <c r="C601" s="7" t="s">
+      <c r="C606" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602" s="7" t="s">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A607" s="8" t="s">
         <v>5696</v>
       </c>
-      <c r="B602" s="7" t="s">
+      <c r="B607" s="8" t="s">
         <v>5697</v>
       </c>
-      <c r="C602" s="7" t="s">
+      <c r="C607" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A603" s="7" t="s">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A608" s="8" t="s">
         <v>5698</v>
       </c>
-      <c r="B603" s="7" t="s">
+      <c r="B608" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C603" s="7" t="s">
+      <c r="C608" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" s="7" t="s">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A609" s="8" t="s">
         <v>5699</v>
       </c>
-      <c r="B604" s="7" t="s">
+      <c r="B609" s="8" t="s">
         <v>5700</v>
       </c>
-      <c r="C604" s="7" t="s">
+      <c r="C609" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605" s="7" t="s">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A610" s="8" t="s">
         <v>5701</v>
       </c>
-      <c r="B605" s="7" t="s">
+      <c r="B610" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C605" s="7" t="s">
+      <c r="C610" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606" s="7" t="s">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A611" s="8" t="s">
         <v>5702</v>
       </c>
-      <c r="B606" s="7" t="s">
+      <c r="B611" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C606" s="7" t="s">
+      <c r="C611" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607" s="7" t="s">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A612" s="8" t="s">
         <v>5703</v>
       </c>
-      <c r="B607" s="7" t="s">
+      <c r="B612" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C607" s="7" t="s">
+      <c r="C612" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608" s="7" t="s">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A613" s="8" t="s">
         <v>5704</v>
       </c>
-      <c r="B608" s="7" t="s">
+      <c r="B613" s="8" t="s">
         <v>5705</v>
       </c>
-      <c r="C608" s="7" t="s">
+      <c r="C613" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609" s="7" t="s">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A614" s="8" t="s">
         <v>5706</v>
       </c>
-      <c r="B609" s="7" t="s">
+      <c r="B614" s="8" t="s">
         <v>5707</v>
       </c>
-      <c r="C609" s="7" t="s">
+      <c r="C614" s="8" t="s">
         <v>5704</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610" s="7" t="s">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="8" t="s">
         <v>5708</v>
       </c>
-      <c r="B610" s="7" t="s">
+      <c r="B615" s="8" t="s">
         <v>5709</v>
       </c>
-      <c r="C610" s="7" t="s">
+      <c r="C615" s="8" t="s">
         <v>5704</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="7" t="s">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="8" t="s">
         <v>5710</v>
       </c>
-      <c r="B611" s="7" t="s">
+      <c r="B616" s="8" t="s">
         <v>5711</v>
       </c>
-      <c r="C611" s="7" t="s">
+      <c r="C616" s="8" t="s">
         <v>5704</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="7" t="s">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="8" t="s">
         <v>5712</v>
       </c>
-      <c r="B612" s="7" t="s">
+      <c r="B617" s="8" t="s">
         <v>5697</v>
       </c>
-      <c r="C612" s="7" t="s">
+      <c r="C617" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="7" t="s">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="8" t="s">
         <v>5713</v>
       </c>
-      <c r="B613" s="7" t="s">
+      <c r="B618" s="8" t="s">
         <v>5714</v>
       </c>
-      <c r="C613" s="7" t="s">
+      <c r="C618" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614" s="7" t="s">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="8" t="s">
         <v>5715</v>
       </c>
-      <c r="B614" s="7" t="s">
+      <c r="B619" s="8" t="s">
         <v>5716</v>
       </c>
-      <c r="C614" s="7" t="s">
+      <c r="C619" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A615" s="7" t="s">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="8" t="s">
         <v>5717</v>
       </c>
-      <c r="B615" s="7" t="s">
+      <c r="B620" s="8" t="s">
         <v>5718</v>
       </c>
-      <c r="C615" s="7" t="s">
+      <c r="C620" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616" s="7" t="s">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="8" t="s">
         <v>5719</v>
       </c>
-      <c r="B616" s="7" t="s">
+      <c r="B621" s="8" t="s">
         <v>5720</v>
       </c>
-      <c r="C616" s="7" t="s">
+      <c r="C621" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617" s="7" t="s">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="8" t="s">
         <v>5721</v>
       </c>
-      <c r="B617" s="7" t="s">
+      <c r="B622" s="8" t="s">
         <v>5684</v>
       </c>
-      <c r="C617" s="7" t="s">
+      <c r="C622" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A618" s="7" t="s">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="8" t="s">
         <v>5722</v>
       </c>
-      <c r="B618" s="7" t="s">
+      <c r="B623" s="8" t="s">
         <v>5723</v>
       </c>
-      <c r="C618" s="7" t="s">
+      <c r="C623" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A619" s="7" t="s">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="8" t="s">
         <v>5724</v>
       </c>
-      <c r="B619" s="7" t="s">
+      <c r="B624" s="8" t="s">
         <v>5688</v>
       </c>
-      <c r="C619" s="7" t="s">
+      <c r="C624" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A620" s="7" t="s">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="8" t="s">
         <v>5725</v>
       </c>
-      <c r="B620" s="7" t="s">
+      <c r="B625" s="8" t="s">
         <v>5726</v>
       </c>
-      <c r="C620" s="7" t="s">
+      <c r="C625" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A621" s="7" t="s">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="8" t="s">
         <v>5727</v>
       </c>
-      <c r="B621" s="7" t="s">
+      <c r="B626" s="8" t="s">
         <v>5728</v>
       </c>
-      <c r="C621" s="7" t="s">
+      <c r="C626" s="8" t="s">
         <v>5712</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A622" s="7" t="s">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="8" t="s">
         <v>5729</v>
       </c>
-      <c r="B622" s="7" t="s">
+      <c r="B627" s="8" t="s">
         <v>5730</v>
       </c>
-      <c r="C622" s="7" t="s">
+      <c r="C627" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A623" s="7" t="s">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="8" t="s">
         <v>5731</v>
       </c>
-      <c r="B623" s="7" t="s">
+      <c r="B628" s="8" t="s">
         <v>5732</v>
       </c>
-      <c r="C623" s="7" t="s">
+      <c r="C628" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="7" t="s">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="8" t="s">
         <v>5733</v>
       </c>
-      <c r="B624" s="7" t="s">
+      <c r="B629" s="8" t="s">
         <v>5734</v>
       </c>
-      <c r="C624" s="7" t="s">
+      <c r="C629" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A625" s="7" t="s">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="8" t="s">
         <v>5735</v>
       </c>
-      <c r="B625" s="7" t="s">
+      <c r="B630" s="8" t="s">
         <v>5736</v>
       </c>
-      <c r="C625" s="7" t="s">
+      <c r="C630" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626" s="7" t="s">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="8" t="s">
         <v>5737</v>
       </c>
-      <c r="B626" s="7" t="s">
+      <c r="B631" s="8" t="s">
         <v>5738</v>
       </c>
-      <c r="C626" s="7" t="s">
+      <c r="C631" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627" s="7" t="s">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="8" t="s">
         <v>5739</v>
       </c>
-      <c r="B627" s="7" t="s">
+      <c r="B632" s="8" t="s">
         <v>5740</v>
       </c>
-      <c r="C627" s="7" t="s">
+      <c r="C632" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A628" s="7" t="s">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="8" t="s">
         <v>5741</v>
       </c>
-      <c r="B628" s="7" t="s">
+      <c r="B633" s="8" t="s">
         <v>5742</v>
       </c>
-      <c r="C628" s="7" t="s">
+      <c r="C633" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A629" s="7" t="s">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="8" t="s">
         <v>5743</v>
       </c>
-      <c r="B629" s="7" t="s">
+      <c r="B634" s="8" t="s">
         <v>5744</v>
       </c>
-      <c r="C629" s="7" t="s">
+      <c r="C634" s="8" t="s">
         <v>5729</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630" s="7" t="s">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="8" t="s">
         <v>5745</v>
       </c>
-      <c r="B630" s="7" t="s">
+      <c r="B635" s="8" t="s">
         <v>5746</v>
       </c>
-      <c r="C630" s="7" t="s">
+      <c r="C635" s="8" t="s">
         <v>5003</v>
       </c>
     </row>

--- a/PowerLmsData/系统资源/预初始化数据字典.xlsx
+++ b/PowerLmsData/系统资源/预初始化数据字典.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\光元\source\Repos1\PowerLms\PowerLmsData\系统资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF0EB4-890B-419C-B58D-14C2893EE2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C38A57-85A7-4745-BCD4-1ADD92A2AB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9638" uniqueCount="5825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9638" uniqueCount="5827">
   <si>
     <t>Id</t>
   </si>
@@ -19955,9 +19955,6 @@
     <t>审核工作号</t>
   </si>
   <si>
-    <t>业务计算</t>
-  </si>
-  <si>
     <t>新建结算</t>
   </si>
   <si>
@@ -19968,6 +19965,15 @@
   </si>
   <si>
     <t>结算单确认</t>
+  </si>
+  <si>
+    <t>D20.9</t>
+  </si>
+  <si>
+    <t>业务结算</t>
+  </si>
+  <si>
+    <t>F.3.4</t>
   </si>
 </sst>
 </file>
@@ -20627,7 +20633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -20645,10 +20651,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -34103,8 +34113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
   <dimension ref="A1:C637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="B660" sqref="B660"/>
+    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34121,6996 +34131,6996 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>5003</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>5815</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>5803</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5804</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>5805</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>5806</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>5803</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>5807</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5808</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>5805</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>5809</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>5810</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>5805</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>5811</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>5812</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>5805</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>5813</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5814</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>5805</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>5001</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>5002</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>5004</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>5005</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>5006</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>5007</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>5008</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>5743</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>5009</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>5010</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>5011</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>5012</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>5013</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>5014</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>5015</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>5016</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>5017</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>5018</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>5019</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>5020</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>5744</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>5745</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>5816</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>5817</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>5001</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>5021</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>5022</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>5023</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>5022</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>5021</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>5024</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>5025</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>5026</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>5027</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>5028</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>5029</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>5030</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>5031</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>5032</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>5033</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>5034</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>5035</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>5036</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>5037</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>5023</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>5038</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>5039</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>5021</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>5040</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>5041</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>5042</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>5043</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>5044</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>5045</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>5046</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>5047</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>5048</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>5049</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>5050</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>5051</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>5052</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>5053</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>5038</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>5054</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>5055</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>5021</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>5056</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>5057</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>5058</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>5059</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>5060</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>5061</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>5062</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>5063</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>5054</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>5064</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>5065</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>5066</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>5067</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>5068</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>5069</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>5070</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>5068</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>5072</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>5074</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>5076</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>5078</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>5080</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>5082</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>5084</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>5086</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>5088</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>5090</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>5092</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>5094</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>5096</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>5746</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>5070</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>5098</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>5068</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>5100</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>5102</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>5104</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>5106</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>5098</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>5108</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>5110</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>5108</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>5112</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>5108</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>5114</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>5108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>5116</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>5118</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>5116</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>5119</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>5116</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>5120</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>5116</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>5121</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>5123</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>5121</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>5125</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>5121</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>5127</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>5121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>5129</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>5131</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>5129</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>5132</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>5129</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>5133</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>5129</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>5134</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>5135</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>5137</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>5748</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>5749</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>5137</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>5750</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>5751</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>5137</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>5752</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>5753</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>5137</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>5139</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>5141</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>5143</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>5145</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>5147</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>5149</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>5134</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>5151</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>5153</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>5155</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>5157</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>5159</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>5151</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="8" t="s">
         <v>5161</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="8" t="s">
         <v>5163</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>5164</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>5165</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>5166</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="8" t="s">
         <v>5167</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>5168</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="8" t="s">
         <v>5169</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>5170</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>5161</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="8" t="s">
         <v>5171</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>5174</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>5175</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>5066</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>5176</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>5177</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>5178</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>5179</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="8" t="s">
         <v>5180</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>5181</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>5182</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>5183</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>5174</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>5184</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>5185</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="8" t="s">
         <v>5186</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>5188</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>5186</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="8" t="s">
         <v>5189</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="8" t="s">
         <v>5190</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="8" t="s">
         <v>5191</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="8" t="s">
         <v>5192</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="8" t="s">
         <v>5193</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="8" t="s">
         <v>5194</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="8" t="s">
         <v>5195</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="8" t="s">
         <v>5196</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>5197</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="8" t="s">
         <v>5198</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="8" t="s">
         <v>5199</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="8" t="s">
         <v>5754</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="8" t="s">
         <v>5755</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="8" t="s">
         <v>5756</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>5188</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="8" t="s">
         <v>5200</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="8" t="s">
         <v>5186</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="8" t="s">
         <v>5201</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="8" t="s">
         <v>5202</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="8" t="s">
         <v>5203</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="8" t="s">
         <v>5204</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="8" t="s">
         <v>5200</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="8" t="s">
         <v>5205</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="8" t="s">
         <v>5206</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="8" t="s">
         <v>5205</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="8" t="s">
         <v>5207</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="8" t="s">
         <v>5205</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="8" t="s">
         <v>5208</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="8" t="s">
         <v>5205</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="8" t="s">
         <v>5209</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="8" t="s">
         <v>5210</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="8" t="s">
         <v>5209</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="8" t="s">
         <v>5211</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="8" t="s">
         <v>5209</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="8" t="s">
         <v>5212</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="8" t="s">
         <v>5209</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="8" t="s">
         <v>5213</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="8" t="s">
         <v>5214</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="8" t="s">
         <v>5213</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="8" t="s">
         <v>5215</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="8" t="s">
         <v>5213</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="8" t="s">
         <v>5216</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="8" t="s">
         <v>5213</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="8" t="s">
         <v>5217</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="8" t="s">
         <v>5218</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="8" t="s">
         <v>5217</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="8" t="s">
         <v>5219</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="8" t="s">
         <v>5217</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="8" t="s">
         <v>5220</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="8" t="s">
         <v>5217</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="8" t="s">
         <v>5221</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="8" t="s">
         <v>5222</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="8" t="s">
         <v>5223</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="8" t="s">
         <v>5224</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="8" t="s">
         <v>5225</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="8" t="s">
         <v>5226</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="8" t="s">
         <v>5227</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="8" t="s">
         <v>5228</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="8" t="s">
         <v>5757</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>5758</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>5229</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="8" t="s">
         <v>5221</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="8" t="s">
         <v>5230</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="8" t="s">
         <v>5231</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="8" t="s">
         <v>5232</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
         <v>5233</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="8" t="s">
         <v>5234</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="8" t="s">
         <v>5230</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="8" t="s">
         <v>5235</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="8" t="s">
         <v>5236</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="8" t="s">
         <v>5164</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="8" t="s">
         <v>5237</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="8" t="s">
         <v>5166</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="8" t="s">
         <v>5238</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="8" t="s">
         <v>5168</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="8" t="s">
         <v>5239</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="8" t="s">
         <v>5170</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="8" t="s">
         <v>5235</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="8" t="s">
         <v>5240</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="8" t="s">
         <v>5184</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="8" t="s">
         <v>5241</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="8" t="s">
         <v>5242</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="8" t="s">
         <v>5243</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="8" t="s">
         <v>5244</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="8" t="s">
         <v>5245</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="8" t="s">
         <v>5254</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="8" t="s">
         <v>5255</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="8" t="s">
         <v>5256</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C175" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="8" t="s">
         <v>5257</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="8" t="s">
         <v>5258</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="8" t="s">
         <v>5759</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="8" t="s">
         <v>5760</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="8" t="s">
         <v>5246</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="8" t="s">
         <v>5247</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="8" t="s">
         <v>5248</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="8" t="s">
         <v>5249</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="8" t="s">
         <v>5250</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="8" t="s">
         <v>5251</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="8" t="s">
         <v>5252</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="8" t="s">
         <v>5253</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="8" t="s">
         <v>5244</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="8" t="s">
         <v>5260</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="8" t="s">
         <v>5261</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="8" t="s">
         <v>5262</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="8" t="s">
         <v>5263</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="8" t="s">
         <v>5264</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="8" t="s">
         <v>5265</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="8" t="s">
         <v>5266</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="8" t="s">
         <v>5267</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="8" t="s">
         <v>5268</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="8" t="s">
         <v>5269</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="8" t="s">
         <v>5270</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="8" t="s">
         <v>5271</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="8" t="s">
         <v>5260</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="8" t="s">
         <v>5272</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="8" t="s">
         <v>5273</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="8" t="s">
         <v>5274</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="8" t="s">
         <v>5275</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="8" t="s">
         <v>5276</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="8" t="s">
         <v>5277</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="8" t="s">
         <v>5278</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="8" t="s">
         <v>5279</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="8" t="s">
         <v>5280</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="8" t="s">
         <v>5281</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="8" t="s">
         <v>5272</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="8" t="s">
         <v>5282</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="8" t="s">
         <v>5283</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="8" t="s">
         <v>5284</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="8" t="s">
         <v>5285</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="8" t="s">
         <v>5286</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="8" t="s">
         <v>5287</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
+      <c r="A202" s="8" t="s">
         <v>5288</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="8" t="s">
         <v>5289</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="8" t="s">
         <v>5290</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="8" t="s">
         <v>5291</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="8" t="s">
         <v>5282</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="8" t="s">
         <v>5292</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="8" t="s">
         <v>5293</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="8" t="s">
         <v>5294</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="8" t="s">
         <v>5295</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="8" t="s">
         <v>5296</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="8" t="s">
         <v>5292</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="8" t="s">
         <v>5297</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="8" t="s">
         <v>5298</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="8" t="s">
         <v>5243</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="8" t="s">
         <v>5299</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="8" t="s">
         <v>5300</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="8" t="s">
         <v>5301</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="8" t="s">
         <v>5302</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="8" t="s">
         <v>5303</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="8" t="s">
         <v>5304</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C212" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="8" t="s">
         <v>5305</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="8" t="s">
         <v>5306</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="8" t="s">
         <v>5297</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="8" t="s">
         <v>5307</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="8" t="s">
         <v>5308</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="8" t="s">
         <v>5307</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="8" t="s">
         <v>5309</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="8" t="s">
         <v>5307</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="8" t="s">
         <v>5310</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="8" t="s">
         <v>5307</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="8" t="s">
         <v>5311</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="8" t="s">
         <v>5312</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="8" t="s">
         <v>5311</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="8" t="s">
         <v>5313</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="8" t="s">
         <v>5311</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="8" t="s">
         <v>5314</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="8" t="s">
         <v>5311</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="8" t="s">
         <v>5315</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="7" t="s">
+      <c r="A223" s="8" t="s">
         <v>5316</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="8" t="s">
         <v>5315</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="8" t="s">
         <v>5317</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="8" t="s">
         <v>5315</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="8" t="s">
         <v>5318</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="8" t="s">
         <v>5315</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="8" t="s">
         <v>5319</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
+      <c r="A227" s="8" t="s">
         <v>5320</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="8" t="s">
         <v>5319</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="8" t="s">
         <v>5321</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="8" t="s">
         <v>5319</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
+      <c r="A229" s="8" t="s">
         <v>5322</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="8" t="s">
         <v>5319</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="8" t="s">
         <v>5323</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="8" t="s">
         <v>5324</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="8" t="s">
         <v>5326</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="8" t="s">
         <v>5327</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="8" t="s">
         <v>5328</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="8" t="s">
         <v>5329</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
+      <c r="A236" s="8" t="s">
         <v>5330</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="8" t="s">
         <v>5331</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="7" t="s">
+      <c r="A238" s="8" t="s">
         <v>5332</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="8" t="s">
         <v>5325</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="8" t="s">
         <v>5323</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
+      <c r="A240" s="8" t="s">
         <v>5333</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="8" t="s">
         <v>5334</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="8" t="s">
         <v>5335</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="8" t="s">
         <v>5336</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="8" t="s">
         <v>5337</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="7" t="s">
+      <c r="A245" s="8" t="s">
         <v>5338</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="8" t="s">
         <v>5333</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="7" t="s">
+      <c r="A246" s="8" t="s">
         <v>5340</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="8" t="s">
         <v>5341</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="8" t="s">
         <v>5343</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="7" t="s">
+      <c r="A249" s="8" t="s">
         <v>5345</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="7" t="s">
+      <c r="A250" s="8" t="s">
         <v>5347</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="8" t="s">
         <v>5340</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="7" t="s">
+      <c r="A251" s="8" t="s">
         <v>5349</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="8" t="s">
         <v>5241</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="7" t="s">
+      <c r="A252" s="8" t="s">
         <v>5350</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="8" t="s">
         <v>5351</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="7" t="s">
+      <c r="A253" s="8" t="s">
         <v>5352</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="7" t="s">
+      <c r="A254" s="8" t="s">
         <v>5353</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="8" t="s">
         <v>5354</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="8" t="s">
         <v>5355</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="8" t="s">
         <v>5356</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="7" t="s">
+      <c r="A258" s="8" t="s">
         <v>5357</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="7" t="s">
+      <c r="A259" s="8" t="s">
         <v>5358</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="7" t="s">
+      <c r="A260" s="8" t="s">
         <v>5359</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="8" t="s">
         <v>5360</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="7" t="s">
+      <c r="A262" s="8" t="s">
         <v>5361</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="8" t="s">
         <v>5362</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="7" t="s">
+      <c r="A264" s="8" t="s">
         <v>5363</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="7" t="s">
+      <c r="A265" s="8" t="s">
         <v>5364</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="7" t="s">
+      <c r="A266" s="8" t="s">
         <v>5365</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="7" t="s">
+      <c r="A267" s="8" t="s">
         <v>5366</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="8" t="s">
         <v>5353</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="8" t="s">
         <v>5367</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="8" t="s">
         <v>5261</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
+      <c r="A269" s="8" t="s">
         <v>5368</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="8" t="s">
         <v>5263</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="7" t="s">
+      <c r="A270" s="8" t="s">
         <v>5369</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="8" t="s">
         <v>5265</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="7" t="s">
+      <c r="A271" s="8" t="s">
         <v>5370</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="8" t="s">
         <v>5267</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="7" t="s">
+      <c r="A272" s="8" t="s">
         <v>5371</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="8" t="s">
         <v>5269</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="8" t="s">
         <v>5372</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="8" t="s">
         <v>5271</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="8" t="s">
         <v>5367</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="7" t="s">
+      <c r="A274" s="8" t="s">
         <v>5373</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="8" t="s">
         <v>5273</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="7" t="s">
+      <c r="A275" s="8" t="s">
         <v>5374</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="8" t="s">
         <v>5275</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="7" t="s">
+      <c r="A276" s="8" t="s">
         <v>5375</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="8" t="s">
         <v>5277</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="7" t="s">
+      <c r="A277" s="8" t="s">
         <v>5376</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="8" t="s">
         <v>5279</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="7" t="s">
+      <c r="A278" s="8" t="s">
         <v>5377</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="8" t="s">
         <v>5281</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="8" t="s">
         <v>5373</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="7" t="s">
+      <c r="A279" s="8" t="s">
         <v>5378</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="8" t="s">
         <v>5283</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="7" t="s">
+      <c r="A280" s="8" t="s">
         <v>5379</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="8" t="s">
         <v>5285</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="8" t="s">
         <v>5380</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="8" t="s">
         <v>5287</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="7" t="s">
+      <c r="A282" s="8" t="s">
         <v>5381</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="8" t="s">
         <v>5289</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="7" t="s">
+      <c r="A283" s="8" t="s">
         <v>5382</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="8" t="s">
         <v>5291</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="8" t="s">
         <v>5378</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="7" t="s">
+      <c r="A284" s="8" t="s">
         <v>5383</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="8" t="s">
         <v>5099</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="7" t="s">
+      <c r="A285" s="8" t="s">
         <v>5384</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="8" t="s">
         <v>5101</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="7" t="s">
+      <c r="A286" s="8" t="s">
         <v>5385</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="8" t="s">
         <v>5103</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="7" t="s">
+      <c r="A287" s="8" t="s">
         <v>5386</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="8" t="s">
         <v>5105</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="7" t="s">
+      <c r="A288" s="8" t="s">
         <v>5387</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="8" t="s">
         <v>5107</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="8" t="s">
         <v>5383</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="8" t="s">
         <v>5388</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="8" t="s">
         <v>5298</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="8" t="s">
         <v>5352</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="8" t="s">
         <v>5389</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="8" t="s">
         <v>5300</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="8" t="s">
         <v>5390</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="8" t="s">
         <v>5302</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="8" t="s">
         <v>5391</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="8" t="s">
         <v>5304</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="7" t="s">
+      <c r="A293" s="8" t="s">
         <v>5392</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="8" t="s">
         <v>5306</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="8" t="s">
         <v>5388</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="7" t="s">
+      <c r="A294" s="8" t="s">
         <v>5393</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="8" t="s">
         <v>5109</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C294" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="7" t="s">
+      <c r="A295" s="8" t="s">
         <v>5394</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="8" t="s">
         <v>5393</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="7" t="s">
+      <c r="A296" s="8" t="s">
         <v>5395</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="8" t="s">
         <v>5393</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="7" t="s">
+      <c r="A297" s="8" t="s">
         <v>5396</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="8" t="s">
         <v>5393</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="7" t="s">
+      <c r="A298" s="8" t="s">
         <v>5397</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="8" t="s">
         <v>5117</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="7" t="s">
+      <c r="A299" s="8" t="s">
         <v>5398</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="8" t="s">
         <v>5397</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="7" t="s">
+      <c r="A300" s="8" t="s">
         <v>5399</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="8" t="s">
         <v>5397</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="7" t="s">
+      <c r="A301" s="8" t="s">
         <v>5400</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="8" t="s">
         <v>5397</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="7" t="s">
+      <c r="A302" s="8" t="s">
         <v>5401</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="8" t="s">
         <v>5122</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="7" t="s">
+      <c r="A303" s="8" t="s">
         <v>5402</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="8" t="s">
         <v>5124</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="8" t="s">
         <v>5401</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="7" t="s">
+      <c r="A304" s="8" t="s">
         <v>5403</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="8" t="s">
         <v>5126</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="8" t="s">
         <v>5401</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="7" t="s">
+      <c r="A305" s="8" t="s">
         <v>5404</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="8" t="s">
         <v>5128</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="8" t="s">
         <v>5401</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="7" t="s">
+      <c r="A306" s="8" t="s">
         <v>5405</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="8" t="s">
         <v>5130</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="7" t="s">
+      <c r="A307" s="8" t="s">
         <v>5406</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="8" t="s">
         <v>5111</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="8" t="s">
         <v>5405</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="7" t="s">
+      <c r="A308" s="8" t="s">
         <v>5407</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="8" t="s">
         <v>5113</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="8" t="s">
         <v>5405</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="7" t="s">
+      <c r="A309" s="8" t="s">
         <v>5408</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="8" t="s">
         <v>5115</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="8" t="s">
         <v>5405</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="7" t="s">
+      <c r="A310" s="8" t="s">
         <v>5409</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="7" t="s">
+      <c r="A311" s="8" t="s">
         <v>5410</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="7" t="s">
+      <c r="A312" s="8" t="s">
         <v>5412</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="7" t="s">
+      <c r="A313" s="8" t="s">
         <v>5413</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="7" t="s">
+      <c r="A314" s="8" t="s">
         <v>5414</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="8" t="s">
         <v>5415</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="7" t="s">
+      <c r="A316" s="8" t="s">
         <v>5416</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="7" t="s">
+      <c r="A317" s="8" t="s">
         <v>5417</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="7" t="s">
+      <c r="A318" s="8" t="s">
         <v>5418</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="7" t="s">
+      <c r="A319" s="8" t="s">
         <v>5411</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" s="8" t="s">
         <v>5409</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="7" t="s">
+      <c r="A320" s="8" t="s">
         <v>5419</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="8" t="s">
         <v>5420</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C321" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="7" t="s">
+      <c r="A322" s="8" t="s">
         <v>5421</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C322" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="7" t="s">
+      <c r="A323" s="8" t="s">
         <v>5422</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="7" t="s">
+      <c r="A324" s="8" t="s">
         <v>5423</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C324" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="7" t="s">
+      <c r="A325" s="8" t="s">
         <v>5424</v>
       </c>
-      <c r="B325" s="7" t="s">
+      <c r="B325" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="8" t="s">
         <v>5419</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" s="7" t="s">
+      <c r="A326" s="8" t="s">
         <v>5425</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" s="7" t="s">
+      <c r="A327" s="8" t="s">
         <v>5426</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" s="7" t="s">
+      <c r="A328" s="8" t="s">
         <v>5427</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C328" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" s="7" t="s">
+      <c r="A329" s="8" t="s">
         <v>5428</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" s="7" t="s">
+      <c r="A330" s="8" t="s">
         <v>5429</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="8" t="s">
         <v>5425</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" s="7" t="s">
+      <c r="A331" s="8" t="s">
         <v>5430</v>
       </c>
-      <c r="B331" s="7" t="s">
+      <c r="B331" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C331" s="8" t="s">
         <v>5350</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" s="7" t="s">
+      <c r="A332" s="8" t="s">
         <v>5431</v>
       </c>
-      <c r="B332" s="7" t="s">
+      <c r="B332" s="8" t="s">
         <v>5432</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C332" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" s="7" t="s">
+      <c r="A333" s="8" t="s">
         <v>5433</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C333" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" s="7" t="s">
+      <c r="A334" s="8" t="s">
         <v>5434</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C334" s="8" t="s">
         <v>5433</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" s="7" t="s">
+      <c r="A335" s="8" t="s">
         <v>5435</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="B335" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C335" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" s="7" t="s">
+      <c r="A336" s="8" t="s">
         <v>5436</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C336" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" s="7" t="s">
+      <c r="A337" s="8" t="s">
         <v>5437</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C337" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" s="7" t="s">
+      <c r="A338" s="8" t="s">
         <v>5438</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="C338" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" s="7" t="s">
+      <c r="A339" s="8" t="s">
         <v>5439</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C339" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" s="7" t="s">
+      <c r="A340" s="8" t="s">
         <v>5440</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="C340" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" s="7" t="s">
+      <c r="A341" s="8" t="s">
         <v>5441</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C341" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" s="7" t="s">
+      <c r="A342" s="8" t="s">
         <v>5442</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C342" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" s="7" t="s">
+      <c r="A343" s="8" t="s">
         <v>5443</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C343" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" s="7" t="s">
+      <c r="A344" s="8" t="s">
         <v>5444</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="B344" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C344" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" s="7" t="s">
+      <c r="A345" s="8" t="s">
         <v>5445</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C345" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" s="7" t="s">
+      <c r="A346" s="8" t="s">
         <v>5446</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="B346" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C346" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" s="7" t="s">
+      <c r="A347" s="8" t="s">
         <v>5447</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C347" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" s="7" t="s">
+      <c r="A348" s="8" t="s">
         <v>5761</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C348" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" s="7" t="s">
+      <c r="A349" s="8" t="s">
         <v>5762</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C349" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" s="7" t="s">
+      <c r="A350" s="8" t="s">
         <v>5763</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C350" s="8" t="s">
         <v>5434</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" s="7" t="s">
+      <c r="A351" s="8" t="s">
         <v>5448</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="B351" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C351" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" s="7" t="s">
+      <c r="A352" s="8" t="s">
         <v>5449</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="B352" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C352" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" s="7" t="s">
+      <c r="A353" s="8" t="s">
         <v>5451</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="B353" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C353" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" s="7" t="s">
+      <c r="A354" s="8" t="s">
         <v>5452</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B354" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C354" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" s="7" t="s">
+      <c r="A355" s="8" t="s">
         <v>5453</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="B355" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C355" s="7" t="s">
+      <c r="C355" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" s="7" t="s">
+      <c r="A356" s="8" t="s">
         <v>5454</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C356" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" s="7" t="s">
+      <c r="A357" s="8" t="s">
         <v>5455</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C357" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="7" t="s">
+      <c r="A358" s="8" t="s">
         <v>5456</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C358" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="7" t="s">
+      <c r="A359" s="8" t="s">
         <v>5457</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" s="7" t="s">
+      <c r="A360" s="8" t="s">
         <v>5450</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C360" s="8" t="s">
         <v>5448</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" s="7" t="s">
+      <c r="A361" s="8" t="s">
         <v>5458</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C361" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="7" t="s">
+      <c r="A362" s="8" t="s">
         <v>5459</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C362" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" s="7" t="s">
+      <c r="A363" s="8" t="s">
         <v>5460</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C363" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" s="7" t="s">
+      <c r="A364" s="8" t="s">
         <v>5461</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C364" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" s="7" t="s">
+      <c r="A365" s="8" t="s">
         <v>5462</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C365" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="7" t="s">
+      <c r="A366" s="8" t="s">
         <v>5463</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C366" s="8" t="s">
         <v>5458</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" s="7" t="s">
+      <c r="A367" s="8" t="s">
         <v>5464</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C367" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" s="7" t="s">
+      <c r="A368" s="8" t="s">
         <v>5465</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C368" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" s="7" t="s">
+      <c r="A369" s="8" t="s">
         <v>5466</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C369" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="7" t="s">
+      <c r="A370" s="8" t="s">
         <v>5467</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C370" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="7" t="s">
+      <c r="A371" s="8" t="s">
         <v>5468</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C371" s="8" t="s">
         <v>5464</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" s="7" t="s">
+      <c r="A372" s="8" t="s">
         <v>5469</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C372" s="8" t="s">
         <v>5431</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" s="7" t="s">
+      <c r="A373" s="8" t="s">
         <v>5470</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="8" t="s">
         <v>5471</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C373" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="7" t="s">
+      <c r="A374" s="8" t="s">
         <v>5472</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C374" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" s="7" t="s">
+      <c r="A375" s="8" t="s">
         <v>5473</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C375" s="8" t="s">
         <v>5472</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" s="7" t="s">
+      <c r="A376" s="8" t="s">
         <v>5474</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C376" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" s="7" t="s">
+      <c r="A377" s="8" t="s">
         <v>5475</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C377" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" s="7" t="s">
+      <c r="A378" s="8" t="s">
         <v>5476</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C378" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" s="7" t="s">
+      <c r="A379" s="8" t="s">
         <v>5477</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B379" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C379" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" s="7" t="s">
+      <c r="A380" s="8" t="s">
         <v>5478</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C380" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" s="7" t="s">
+      <c r="A381" s="8" t="s">
         <v>5479</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C381" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" s="7" t="s">
+      <c r="A382" s="8" t="s">
         <v>5480</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C382" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" s="7" t="s">
+      <c r="A383" s="8" t="s">
         <v>5481</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C383" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" s="7" t="s">
+      <c r="A384" s="8" t="s">
         <v>5482</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C384" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" s="7" t="s">
+      <c r="A385" s="8" t="s">
         <v>5483</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="B385" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C385" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" s="7" t="s">
+      <c r="A386" s="8" t="s">
         <v>5484</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="B386" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C386" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" s="7" t="s">
+      <c r="A387" s="8" t="s">
         <v>5485</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C387" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" s="7" t="s">
+      <c r="A388" s="8" t="s">
         <v>5486</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C388" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" s="7" t="s">
+      <c r="A389" s="8" t="s">
         <v>5764</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C389" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" s="7" t="s">
+      <c r="A390" s="8" t="s">
         <v>5765</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C390" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" s="7" t="s">
+      <c r="A391" s="8" t="s">
         <v>5766</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="B391" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C391" s="8" t="s">
         <v>5473</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" s="7" t="s">
+      <c r="A392" s="8" t="s">
         <v>5487</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C392" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" s="7" t="s">
+      <c r="A393" s="8" t="s">
         <v>5488</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C393" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" s="7" t="s">
+      <c r="A394" s="8" t="s">
         <v>5490</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="B394" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C394" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" s="7" t="s">
+      <c r="A395" s="8" t="s">
         <v>5491</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="B395" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C395" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" s="7" t="s">
+      <c r="A396" s="8" t="s">
         <v>5492</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C396" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" s="7" t="s">
+      <c r="A397" s="8" t="s">
         <v>5493</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="B397" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C397" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" s="7" t="s">
+      <c r="A398" s="8" t="s">
         <v>5494</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="B398" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C398" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" s="7" t="s">
+      <c r="A399" s="8" t="s">
         <v>5495</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="B399" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" s="7" t="s">
+      <c r="A400" s="8" t="s">
         <v>5496</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C400" s="7" t="s">
+      <c r="C400" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" s="7" t="s">
+      <c r="A401" s="8" t="s">
         <v>5489</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="B401" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C401" s="7" t="s">
+      <c r="C401" s="8" t="s">
         <v>5487</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" s="7" t="s">
+      <c r="A402" s="8" t="s">
         <v>5497</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C402" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" s="7" t="s">
+      <c r="A403" s="8" t="s">
         <v>5498</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" s="7" t="s">
+      <c r="A404" s="8" t="s">
         <v>5499</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C404" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" s="7" t="s">
+      <c r="A405" s="8" t="s">
         <v>5500</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C405" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" s="7" t="s">
+      <c r="A406" s="8" t="s">
         <v>5501</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C406" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" s="7" t="s">
+      <c r="A407" s="8" t="s">
         <v>5502</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="B407" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C407" s="8" t="s">
         <v>5497</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" s="7" t="s">
+      <c r="A408" s="8" t="s">
         <v>5503</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B408" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C408" s="7" t="s">
+      <c r="C408" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="7" t="s">
+      <c r="A409" s="8" t="s">
         <v>5504</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B409" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C409" s="7" t="s">
+      <c r="C409" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" s="7" t="s">
+      <c r="A410" s="8" t="s">
         <v>5505</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B410" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C410" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" s="7" t="s">
+      <c r="A411" s="8" t="s">
         <v>5506</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C411" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" s="7" t="s">
+      <c r="A412" s="8" t="s">
         <v>5507</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C412" s="8" t="s">
         <v>5503</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" s="7" t="s">
+      <c r="A413" s="8" t="s">
         <v>5508</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C413" s="7" t="s">
+      <c r="C413" s="8" t="s">
         <v>5470</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" s="7" t="s">
+      <c r="A414" s="8" t="s">
         <v>5509</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="B414" s="8" t="s">
         <v>5510</v>
       </c>
-      <c r="C414" s="7" t="s">
+      <c r="C414" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" s="7" t="s">
+      <c r="A415" s="8" t="s">
         <v>5511</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B415" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C415" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" s="7" t="s">
+      <c r="A416" s="8" t="s">
         <v>5512</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B416" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C416" s="8" t="s">
         <v>5511</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" s="7" t="s">
+      <c r="A417" s="8" t="s">
         <v>5513</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C417" s="7" t="s">
+      <c r="C417" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" s="7" t="s">
+      <c r="A418" s="8" t="s">
         <v>5514</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C418" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" s="7" t="s">
+      <c r="A419" s="8" t="s">
         <v>5515</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C419" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" s="7" t="s">
+      <c r="A420" s="8" t="s">
         <v>5516</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="B420" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C420" s="7" t="s">
+      <c r="C420" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" s="7" t="s">
+      <c r="A421" s="8" t="s">
         <v>5517</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C421" s="7" t="s">
+      <c r="C421" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" s="7" t="s">
+      <c r="A422" s="8" t="s">
         <v>5518</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B422" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C422" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" s="7" t="s">
+      <c r="A423" s="8" t="s">
         <v>5519</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C423" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" s="7" t="s">
+      <c r="A424" s="8" t="s">
         <v>5520</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C424" s="7" t="s">
+      <c r="C424" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" s="7" t="s">
+      <c r="A425" s="8" t="s">
         <v>5521</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="B425" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C425" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" s="7" t="s">
+      <c r="A426" s="8" t="s">
         <v>5522</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B426" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C426" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" s="7" t="s">
+      <c r="A427" s="8" t="s">
         <v>5523</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C427" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" s="7" t="s">
+      <c r="A428" s="8" t="s">
         <v>5524</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C428" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" s="7" t="s">
+      <c r="A429" s="8" t="s">
         <v>5525</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="B429" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C429" s="7" t="s">
+      <c r="C429" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" s="7" t="s">
+      <c r="A430" s="8" t="s">
         <v>5767</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="B430" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C430" s="7" t="s">
+      <c r="C430" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" s="7" t="s">
+      <c r="A431" s="8" t="s">
         <v>5768</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C431" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" s="7" t="s">
+      <c r="A432" s="8" t="s">
         <v>5769</v>
       </c>
-      <c r="B432" s="7" t="s">
+      <c r="B432" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C432" s="7" t="s">
+      <c r="C432" s="8" t="s">
         <v>5512</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" s="7" t="s">
+      <c r="A433" s="8" t="s">
         <v>5526</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C433" s="7" t="s">
+      <c r="C433" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" s="7" t="s">
+      <c r="A434" s="8" t="s">
         <v>5527</v>
       </c>
-      <c r="B434" s="7" t="s">
+      <c r="B434" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C434" s="7" t="s">
+      <c r="C434" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" s="7" t="s">
+      <c r="A435" s="8" t="s">
         <v>5529</v>
       </c>
-      <c r="B435" s="7" t="s">
+      <c r="B435" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C435" s="7" t="s">
+      <c r="C435" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" s="7" t="s">
+      <c r="A436" s="8" t="s">
         <v>5530</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C436" s="7" t="s">
+      <c r="C436" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" s="7" t="s">
+      <c r="A437" s="8" t="s">
         <v>5531</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C437" s="7" t="s">
+      <c r="C437" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" s="7" t="s">
+      <c r="A438" s="8" t="s">
         <v>5532</v>
       </c>
-      <c r="B438" s="7" t="s">
+      <c r="B438" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C438" s="7" t="s">
+      <c r="C438" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" s="7" t="s">
+      <c r="A439" s="8" t="s">
         <v>5533</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C439" s="7" t="s">
+      <c r="C439" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" s="7" t="s">
+      <c r="A440" s="8" t="s">
         <v>5534</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C440" s="7" t="s">
+      <c r="C440" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" s="7" t="s">
+      <c r="A441" s="8" t="s">
         <v>5535</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C441" s="7" t="s">
+      <c r="C441" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" s="7" t="s">
+      <c r="A442" s="8" t="s">
         <v>5528</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="B442" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C442" s="8" t="s">
         <v>5526</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" s="7" t="s">
+      <c r="A443" s="8" t="s">
         <v>5536</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="B443" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C443" s="7" t="s">
+      <c r="C443" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" s="7" t="s">
+      <c r="A444" s="8" t="s">
         <v>5537</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C444" s="7" t="s">
+      <c r="C444" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" s="7" t="s">
+      <c r="A445" s="8" t="s">
         <v>5538</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B445" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C445" s="7" t="s">
+      <c r="C445" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" s="7" t="s">
+      <c r="A446" s="8" t="s">
         <v>5539</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C446" s="7" t="s">
+      <c r="C446" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" s="7" t="s">
+      <c r="A447" s="8" t="s">
         <v>5540</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B447" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C447" s="7" t="s">
+      <c r="C447" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" s="7" t="s">
+      <c r="A448" s="8" t="s">
         <v>5541</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="B448" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C448" s="7" t="s">
+      <c r="C448" s="8" t="s">
         <v>5536</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" s="7" t="s">
+      <c r="A449" s="8" t="s">
         <v>5542</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="B449" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C449" s="7" t="s">
+      <c r="C449" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" s="7" t="s">
+      <c r="A450" s="8" t="s">
         <v>5543</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C450" s="7" t="s">
+      <c r="C450" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" s="7" t="s">
+      <c r="A451" s="8" t="s">
         <v>5544</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C451" s="7" t="s">
+      <c r="C451" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" s="7" t="s">
+      <c r="A452" s="8" t="s">
         <v>5545</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="B452" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C452" s="7" t="s">
+      <c r="C452" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" s="7" t="s">
+      <c r="A453" s="8" t="s">
         <v>5546</v>
       </c>
-      <c r="B453" s="7" t="s">
+      <c r="B453" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C453" s="8" t="s">
         <v>5542</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" s="7" t="s">
+      <c r="A454" s="8" t="s">
         <v>5547</v>
       </c>
-      <c r="B454" s="7" t="s">
+      <c r="B454" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C454" s="8" t="s">
         <v>5509</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" s="7" t="s">
+      <c r="A455" s="8" t="s">
         <v>5548</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="B455" s="8" t="s">
         <v>5549</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C455" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" s="7" t="s">
+      <c r="A456" s="8" t="s">
         <v>5550</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="B456" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C456" s="7" t="s">
+      <c r="C456" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" s="7" t="s">
+      <c r="A457" s="8" t="s">
         <v>5551</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="B457" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C457" s="8" t="s">
         <v>5550</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" s="7" t="s">
+      <c r="A458" s="8" t="s">
         <v>5552</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B458" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="C458" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" s="7" t="s">
+      <c r="A459" s="8" t="s">
         <v>5553</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B459" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="C459" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" s="7" t="s">
+      <c r="A460" s="8" t="s">
         <v>5554</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="B460" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C460" s="7" t="s">
+      <c r="C460" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" s="7" t="s">
+      <c r="A461" s="8" t="s">
         <v>5555</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C461" s="7" t="s">
+      <c r="C461" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" s="7" t="s">
+      <c r="A462" s="8" t="s">
         <v>5556</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C462" s="7" t="s">
+      <c r="C462" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" s="7" t="s">
+      <c r="A463" s="8" t="s">
         <v>5557</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C463" s="7" t="s">
+      <c r="C463" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" s="7" t="s">
+      <c r="A464" s="8" t="s">
         <v>5558</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C464" s="7" t="s">
+      <c r="C464" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" s="7" t="s">
+      <c r="A465" s="8" t="s">
         <v>5559</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C465" s="7" t="s">
+      <c r="C465" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" s="7" t="s">
+      <c r="A466" s="8" t="s">
         <v>5560</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C466" s="7" t="s">
+      <c r="C466" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" s="7" t="s">
+      <c r="A467" s="8" t="s">
         <v>5561</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C467" s="7" t="s">
+      <c r="C467" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" s="7" t="s">
+      <c r="A468" s="8" t="s">
         <v>5562</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="C468" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" s="7" t="s">
+      <c r="A469" s="8" t="s">
         <v>5563</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C469" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" s="7" t="s">
+      <c r="A470" s="8" t="s">
         <v>5564</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B470" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="C470" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" s="7" t="s">
+      <c r="A471" s="8" t="s">
         <v>5770</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B471" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="C471" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" s="7" t="s">
+      <c r="A472" s="8" t="s">
         <v>5771</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="C472" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" s="7" t="s">
+      <c r="A473" s="8" t="s">
         <v>5772</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C473" s="7" t="s">
+      <c r="C473" s="8" t="s">
         <v>5551</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" s="7" t="s">
+      <c r="A474" s="8" t="s">
         <v>5565</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C474" s="7" t="s">
+      <c r="C474" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" s="7" t="s">
+      <c r="A475" s="8" t="s">
         <v>5566</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="C475" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" s="7" t="s">
+      <c r="A476" s="8" t="s">
         <v>5568</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C476" s="7" t="s">
+      <c r="C476" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" s="7" t="s">
+      <c r="A477" s="8" t="s">
         <v>5569</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C477" s="7" t="s">
+      <c r="C477" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" s="7" t="s">
+      <c r="A478" s="8" t="s">
         <v>5570</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C478" s="7" t="s">
+      <c r="C478" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" s="7" t="s">
+      <c r="A479" s="8" t="s">
         <v>5571</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C479" s="7" t="s">
+      <c r="C479" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" s="7" t="s">
+      <c r="A480" s="8" t="s">
         <v>5572</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C480" s="7" t="s">
+      <c r="C480" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" s="7" t="s">
+      <c r="A481" s="8" t="s">
         <v>5573</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C481" s="7" t="s">
+      <c r="C481" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" s="7" t="s">
+      <c r="A482" s="8" t="s">
         <v>5574</v>
       </c>
-      <c r="B482" s="7" t="s">
+      <c r="B482" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C482" s="7" t="s">
+      <c r="C482" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" s="7" t="s">
+      <c r="A483" s="8" t="s">
         <v>5567</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="B483" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C483" s="7" t="s">
+      <c r="C483" s="8" t="s">
         <v>5565</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" s="7" t="s">
+      <c r="A484" s="8" t="s">
         <v>5575</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="B484" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C484" s="7" t="s">
+      <c r="C484" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" s="7" t="s">
+      <c r="A485" s="8" t="s">
         <v>5576</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="B485" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C485" s="7" t="s">
+      <c r="C485" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" s="7" t="s">
+      <c r="A486" s="8" t="s">
         <v>5577</v>
       </c>
-      <c r="B486" s="7" t="s">
+      <c r="B486" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C486" s="7" t="s">
+      <c r="C486" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" s="7" t="s">
+      <c r="A487" s="8" t="s">
         <v>5578</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B487" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C487" s="7" t="s">
+      <c r="C487" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" s="7" t="s">
+      <c r="A488" s="8" t="s">
         <v>5579</v>
       </c>
-      <c r="B488" s="7" t="s">
+      <c r="B488" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C488" s="7" t="s">
+      <c r="C488" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" s="7" t="s">
+      <c r="A489" s="8" t="s">
         <v>5580</v>
       </c>
-      <c r="B489" s="7" t="s">
+      <c r="B489" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C489" s="7" t="s">
+      <c r="C489" s="8" t="s">
         <v>5575</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" s="7" t="s">
+      <c r="A490" s="8" t="s">
         <v>5581</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="B490" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C490" s="7" t="s">
+      <c r="C490" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" s="7" t="s">
+      <c r="A491" s="8" t="s">
         <v>5582</v>
       </c>
-      <c r="B491" s="7" t="s">
+      <c r="B491" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C491" s="7" t="s">
+      <c r="C491" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" s="7" t="s">
+      <c r="A492" s="8" t="s">
         <v>5583</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="B492" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C492" s="7" t="s">
+      <c r="C492" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" s="7" t="s">
+      <c r="A493" s="8" t="s">
         <v>5584</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="B493" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C493" s="7" t="s">
+      <c r="C493" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" s="7" t="s">
+      <c r="A494" s="8" t="s">
         <v>5585</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="B494" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C494" s="7" t="s">
+      <c r="C494" s="8" t="s">
         <v>5581</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" s="7" t="s">
+      <c r="A495" s="8" t="s">
         <v>5586</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="B495" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C495" s="7" t="s">
+      <c r="C495" s="8" t="s">
         <v>5548</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" s="7" t="s">
+      <c r="A496" s="8" t="s">
         <v>5587</v>
       </c>
-      <c r="B496" s="7" t="s">
+      <c r="B496" s="8" t="s">
         <v>5588</v>
       </c>
-      <c r="C496" s="7" t="s">
+      <c r="C496" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" s="7" t="s">
+      <c r="A497" s="8" t="s">
         <v>5589</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="B497" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C497" s="7" t="s">
+      <c r="C497" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" s="7" t="s">
+      <c r="A498" s="8" t="s">
         <v>5590</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="B498" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C498" s="7" t="s">
+      <c r="C498" s="8" t="s">
         <v>5589</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" s="7" t="s">
+      <c r="A499" s="8" t="s">
         <v>5591</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="B499" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C499" s="7" t="s">
+      <c r="C499" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" s="7" t="s">
+      <c r="A500" s="8" t="s">
         <v>5592</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="B500" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C500" s="7" t="s">
+      <c r="C500" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" s="7" t="s">
+      <c r="A501" s="8" t="s">
         <v>5593</v>
       </c>
-      <c r="B501" s="7" t="s">
+      <c r="B501" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C501" s="7" t="s">
+      <c r="C501" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" s="7" t="s">
+      <c r="A502" s="8" t="s">
         <v>5594</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="B502" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C502" s="7" t="s">
+      <c r="C502" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" s="7" t="s">
+      <c r="A503" s="8" t="s">
         <v>5595</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="B503" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C503" s="7" t="s">
+      <c r="C503" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" s="7" t="s">
+      <c r="A504" s="8" t="s">
         <v>5596</v>
       </c>
-      <c r="B504" s="7" t="s">
+      <c r="B504" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C504" s="7" t="s">
+      <c r="C504" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" s="7" t="s">
+      <c r="A505" s="8" t="s">
         <v>5597</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="B505" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C505" s="7" t="s">
+      <c r="C505" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" s="7" t="s">
+      <c r="A506" s="8" t="s">
         <v>5598</v>
       </c>
-      <c r="B506" s="7" t="s">
+      <c r="B506" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C506" s="7" t="s">
+      <c r="C506" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" s="7" t="s">
+      <c r="A507" s="8" t="s">
         <v>5599</v>
       </c>
-      <c r="B507" s="7" t="s">
+      <c r="B507" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C507" s="7" t="s">
+      <c r="C507" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" s="7" t="s">
+      <c r="A508" s="8" t="s">
         <v>5600</v>
       </c>
-      <c r="B508" s="7" t="s">
+      <c r="B508" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C508" s="7" t="s">
+      <c r="C508" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" s="7" t="s">
+      <c r="A509" s="8" t="s">
         <v>5601</v>
       </c>
-      <c r="B509" s="7" t="s">
+      <c r="B509" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C509" s="7" t="s">
+      <c r="C509" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" s="7" t="s">
+      <c r="A510" s="8" t="s">
         <v>5602</v>
       </c>
-      <c r="B510" s="7" t="s">
+      <c r="B510" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C510" s="7" t="s">
+      <c r="C510" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" s="7" t="s">
+      <c r="A511" s="8" t="s">
         <v>5603</v>
       </c>
-      <c r="B511" s="7" t="s">
+      <c r="B511" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C511" s="7" t="s">
+      <c r="C511" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" s="7" t="s">
+      <c r="A512" s="8" t="s">
         <v>5604</v>
       </c>
-      <c r="B512" s="7" t="s">
+      <c r="B512" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C512" s="7" t="s">
+      <c r="C512" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" s="7" t="s">
+      <c r="A513" s="8" t="s">
         <v>5605</v>
       </c>
-      <c r="B513" s="7" t="s">
+      <c r="B513" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C513" s="7" t="s">
+      <c r="C513" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" s="7" t="s">
+      <c r="A514" s="8" t="s">
         <v>5607</v>
       </c>
-      <c r="B514" s="7" t="s">
+      <c r="B514" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C514" s="7" t="s">
+      <c r="C514" s="8" t="s">
         <v>5590</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" s="7" t="s">
+      <c r="A515" s="8" t="s">
         <v>5609</v>
       </c>
-      <c r="B515" s="7" t="s">
+      <c r="B515" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C515" s="7" t="s">
+      <c r="C515" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" s="7" t="s">
+      <c r="A516" s="8" t="s">
         <v>5610</v>
       </c>
-      <c r="B516" s="7" t="s">
+      <c r="B516" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C516" s="7" t="s">
+      <c r="C516" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" s="7" t="s">
+      <c r="A517" s="8" t="s">
         <v>5612</v>
       </c>
-      <c r="B517" s="7" t="s">
+      <c r="B517" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C517" s="7" t="s">
+      <c r="C517" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" s="7" t="s">
+      <c r="A518" s="8" t="s">
         <v>5613</v>
       </c>
-      <c r="B518" s="7" t="s">
+      <c r="B518" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C518" s="7" t="s">
+      <c r="C518" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" s="7" t="s">
+      <c r="A519" s="8" t="s">
         <v>5614</v>
       </c>
-      <c r="B519" s="7" t="s">
+      <c r="B519" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C519" s="7" t="s">
+      <c r="C519" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" s="7" t="s">
+      <c r="A520" s="8" t="s">
         <v>5615</v>
       </c>
-      <c r="B520" s="7" t="s">
+      <c r="B520" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C520" s="7" t="s">
+      <c r="C520" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" s="7" t="s">
+      <c r="A521" s="8" t="s">
         <v>5616</v>
       </c>
-      <c r="B521" s="7" t="s">
+      <c r="B521" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C521" s="7" t="s">
+      <c r="C521" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" s="7" t="s">
+      <c r="A522" s="8" t="s">
         <v>5617</v>
       </c>
-      <c r="B522" s="7" t="s">
+      <c r="B522" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C522" s="7" t="s">
+      <c r="C522" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" s="7" t="s">
+      <c r="A523" s="8" t="s">
         <v>5618</v>
       </c>
-      <c r="B523" s="7" t="s">
+      <c r="B523" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C523" s="7" t="s">
+      <c r="C523" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" s="7" t="s">
+      <c r="A524" s="8" t="s">
         <v>5611</v>
       </c>
-      <c r="B524" s="7" t="s">
+      <c r="B524" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C524" s="7" t="s">
+      <c r="C524" s="8" t="s">
         <v>5609</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" s="7" t="s">
+      <c r="A525" s="8" t="s">
         <v>5619</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="B525" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="C525" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="7" t="s">
+      <c r="A526" s="8" t="s">
         <v>5620</v>
       </c>
-      <c r="B526" s="7" t="s">
+      <c r="B526" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="C526" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="7" t="s">
+      <c r="A527" s="8" t="s">
         <v>5621</v>
       </c>
-      <c r="B527" s="7" t="s">
+      <c r="B527" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C527" s="7" t="s">
+      <c r="C527" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="7" t="s">
+      <c r="A528" s="8" t="s">
         <v>5622</v>
       </c>
-      <c r="B528" s="7" t="s">
+      <c r="B528" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C528" s="7" t="s">
+      <c r="C528" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" s="7" t="s">
+      <c r="A529" s="8" t="s">
         <v>5623</v>
       </c>
-      <c r="B529" s="7" t="s">
+      <c r="B529" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C529" s="7" t="s">
+      <c r="C529" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" s="7" t="s">
+      <c r="A530" s="8" t="s">
         <v>5624</v>
       </c>
-      <c r="B530" s="7" t="s">
+      <c r="B530" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C530" s="7" t="s">
+      <c r="C530" s="8" t="s">
         <v>5619</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" s="7" t="s">
+      <c r="A531" s="8" t="s">
         <v>5625</v>
       </c>
-      <c r="B531" s="7" t="s">
+      <c r="B531" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C531" s="7" t="s">
+      <c r="C531" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" s="7" t="s">
+      <c r="A532" s="8" t="s">
         <v>5626</v>
       </c>
-      <c r="B532" s="7" t="s">
+      <c r="B532" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C532" s="7" t="s">
+      <c r="C532" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" s="7" t="s">
+      <c r="A533" s="8" t="s">
         <v>5627</v>
       </c>
-      <c r="B533" s="7" t="s">
+      <c r="B533" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C533" s="7" t="s">
+      <c r="C533" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" s="7" t="s">
+      <c r="A534" s="8" t="s">
         <v>5628</v>
       </c>
-      <c r="B534" s="7" t="s">
+      <c r="B534" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C534" s="7" t="s">
+      <c r="C534" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" s="7" t="s">
+      <c r="A535" s="8" t="s">
         <v>5629</v>
       </c>
-      <c r="B535" s="7" t="s">
+      <c r="B535" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C535" s="7" t="s">
+      <c r="C535" s="8" t="s">
         <v>5625</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" s="7" t="s">
+      <c r="A536" s="8" t="s">
         <v>5630</v>
       </c>
-      <c r="B536" s="7" t="s">
+      <c r="B536" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C536" s="7" t="s">
+      <c r="C536" s="8" t="s">
         <v>5587</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" s="7" t="s">
+      <c r="A537" s="8" t="s">
         <v>5631</v>
       </c>
-      <c r="B537" s="7" t="s">
+      <c r="B537" s="8" t="s">
         <v>5632</v>
       </c>
-      <c r="C537" s="7" t="s">
+      <c r="C537" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" s="7" t="s">
+      <c r="A538" s="8" t="s">
         <v>5633</v>
       </c>
-      <c r="B538" s="7" t="s">
+      <c r="B538" s="8" t="s">
         <v>5187</v>
       </c>
-      <c r="C538" s="7" t="s">
+      <c r="C538" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" s="7" t="s">
+      <c r="A539" s="8" t="s">
         <v>5634</v>
       </c>
-      <c r="B539" s="7" t="s">
+      <c r="B539" s="8" t="s">
         <v>5071</v>
       </c>
-      <c r="C539" s="7" t="s">
+      <c r="C539" s="8" t="s">
         <v>5633</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" s="7" t="s">
+      <c r="A540" s="8" t="s">
         <v>5635</v>
       </c>
-      <c r="B540" s="7" t="s">
+      <c r="B540" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C540" s="7" t="s">
+      <c r="C540" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" s="7" t="s">
+      <c r="A541" s="8" t="s">
         <v>5636</v>
       </c>
-      <c r="B541" s="7" t="s">
+      <c r="B541" s="8" t="s">
         <v>5075</v>
       </c>
-      <c r="C541" s="7" t="s">
+      <c r="C541" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" s="7" t="s">
+      <c r="A542" s="8" t="s">
         <v>5637</v>
       </c>
-      <c r="B542" s="7" t="s">
+      <c r="B542" s="8" t="s">
         <v>5077</v>
       </c>
-      <c r="C542" s="7" t="s">
+      <c r="C542" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" s="7" t="s">
+      <c r="A543" s="8" t="s">
         <v>5638</v>
       </c>
-      <c r="B543" s="7" t="s">
+      <c r="B543" s="8" t="s">
         <v>5079</v>
       </c>
-      <c r="C543" s="7" t="s">
+      <c r="C543" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" s="7" t="s">
+      <c r="A544" s="8" t="s">
         <v>5639</v>
       </c>
-      <c r="B544" s="7" t="s">
+      <c r="B544" s="8" t="s">
         <v>5081</v>
       </c>
-      <c r="C544" s="7" t="s">
+      <c r="C544" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" s="7" t="s">
+      <c r="A545" s="8" t="s">
         <v>5640</v>
       </c>
-      <c r="B545" s="7" t="s">
+      <c r="B545" s="8" t="s">
         <v>5083</v>
       </c>
-      <c r="C545" s="7" t="s">
+      <c r="C545" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" s="7" t="s">
+      <c r="A546" s="8" t="s">
         <v>5641</v>
       </c>
-      <c r="B546" s="7" t="s">
+      <c r="B546" s="8" t="s">
         <v>5085</v>
       </c>
-      <c r="C546" s="7" t="s">
+      <c r="C546" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" s="7" t="s">
+      <c r="A547" s="8" t="s">
         <v>5642</v>
       </c>
-      <c r="B547" s="7" t="s">
+      <c r="B547" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C547" s="7" t="s">
+      <c r="C547" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" s="7" t="s">
+      <c r="A548" s="8" t="s">
         <v>5643</v>
       </c>
-      <c r="B548" s="7" t="s">
+      <c r="B548" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C548" s="7" t="s">
+      <c r="C548" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" s="7" t="s">
+      <c r="A549" s="8" t="s">
         <v>5644</v>
       </c>
-      <c r="B549" s="7" t="s">
+      <c r="B549" s="8" t="s">
         <v>5091</v>
       </c>
-      <c r="C549" s="7" t="s">
+      <c r="C549" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" s="7" t="s">
+      <c r="A550" s="8" t="s">
         <v>5645</v>
       </c>
-      <c r="B550" s="7" t="s">
+      <c r="B550" s="8" t="s">
         <v>5093</v>
       </c>
-      <c r="C550" s="7" t="s">
+      <c r="C550" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" s="7" t="s">
+      <c r="A551" s="8" t="s">
         <v>5646</v>
       </c>
-      <c r="B551" s="7" t="s">
+      <c r="B551" s="8" t="s">
         <v>5095</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="C551" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" s="7" t="s">
+      <c r="A552" s="8" t="s">
         <v>5647</v>
       </c>
-      <c r="B552" s="7" t="s">
+      <c r="B552" s="8" t="s">
         <v>5097</v>
       </c>
-      <c r="C552" s="7" t="s">
+      <c r="C552" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" s="7" t="s">
+      <c r="A553" s="8" t="s">
         <v>5773</v>
       </c>
-      <c r="B553" s="7" t="s">
+      <c r="B553" s="8" t="s">
         <v>5259</v>
       </c>
-      <c r="C553" s="7" t="s">
+      <c r="C553" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" s="7" t="s">
+      <c r="A554" s="8" t="s">
         <v>5774</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="B554" s="8" t="s">
         <v>5606</v>
       </c>
-      <c r="C554" s="7" t="s">
+      <c r="C554" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" s="7" t="s">
+      <c r="A555" s="8" t="s">
         <v>5775</v>
       </c>
-      <c r="B555" s="7" t="s">
+      <c r="B555" s="8" t="s">
         <v>5608</v>
       </c>
-      <c r="C555" s="7" t="s">
+      <c r="C555" s="8" t="s">
         <v>5634</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" s="7" t="s">
+      <c r="A556" s="8" t="s">
         <v>5648</v>
       </c>
-      <c r="B556" s="7" t="s">
+      <c r="B556" s="8" t="s">
         <v>5747</v>
       </c>
-      <c r="C556" s="7" t="s">
+      <c r="C556" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" s="7" t="s">
+      <c r="A557" s="8" t="s">
         <v>5649</v>
       </c>
-      <c r="B557" s="7" t="s">
+      <c r="B557" s="8" t="s">
         <v>5136</v>
       </c>
-      <c r="C557" s="7" t="s">
+      <c r="C557" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" s="7" t="s">
+      <c r="A558" s="8" t="s">
         <v>5651</v>
       </c>
-      <c r="B558" s="7" t="s">
+      <c r="B558" s="8" t="s">
         <v>5138</v>
       </c>
-      <c r="C558" s="7" t="s">
+      <c r="C558" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" s="7" t="s">
+      <c r="A559" s="8" t="s">
         <v>5652</v>
       </c>
-      <c r="B559" s="7" t="s">
+      <c r="B559" s="8" t="s">
         <v>5140</v>
       </c>
-      <c r="C559" s="7" t="s">
+      <c r="C559" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" s="7" t="s">
+      <c r="A560" s="8" t="s">
         <v>5653</v>
       </c>
-      <c r="B560" s="7" t="s">
+      <c r="B560" s="8" t="s">
         <v>5142</v>
       </c>
-      <c r="C560" s="7" t="s">
+      <c r="C560" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" s="7" t="s">
+      <c r="A561" s="8" t="s">
         <v>5654</v>
       </c>
-      <c r="B561" s="7" t="s">
+      <c r="B561" s="8" t="s">
         <v>5144</v>
       </c>
-      <c r="C561" s="7" t="s">
+      <c r="C561" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" s="7" t="s">
+      <c r="A562" s="8" t="s">
         <v>5655</v>
       </c>
-      <c r="B562" s="7" t="s">
+      <c r="B562" s="8" t="s">
         <v>5146</v>
       </c>
-      <c r="C562" s="7" t="s">
+      <c r="C562" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" s="7" t="s">
+      <c r="A563" s="8" t="s">
         <v>5656</v>
       </c>
-      <c r="B563" s="7" t="s">
+      <c r="B563" s="8" t="s">
         <v>5148</v>
       </c>
-      <c r="C563" s="7" t="s">
+      <c r="C563" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" s="7" t="s">
+      <c r="A564" s="8" t="s">
         <v>5657</v>
       </c>
-      <c r="B564" s="7" t="s">
+      <c r="B564" s="8" t="s">
         <v>5173</v>
       </c>
-      <c r="C564" s="7" t="s">
+      <c r="C564" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" s="7" t="s">
+      <c r="A565" s="8" t="s">
         <v>5650</v>
       </c>
-      <c r="B565" s="7" t="s">
+      <c r="B565" s="8" t="s">
         <v>5150</v>
       </c>
-      <c r="C565" s="7" t="s">
+      <c r="C565" s="8" t="s">
         <v>5648</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" s="7" t="s">
+      <c r="A566" s="8" t="s">
         <v>5658</v>
       </c>
-      <c r="B566" s="7" t="s">
+      <c r="B566" s="8" t="s">
         <v>5152</v>
       </c>
-      <c r="C566" s="7" t="s">
+      <c r="C566" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" s="7" t="s">
+      <c r="A567" s="8" t="s">
         <v>5659</v>
       </c>
-      <c r="B567" s="7" t="s">
+      <c r="B567" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C567" s="7" t="s">
+      <c r="C567" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" s="7" t="s">
+      <c r="A568" s="8" t="s">
         <v>5660</v>
       </c>
-      <c r="B568" s="7" t="s">
+      <c r="B568" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C568" s="7" t="s">
+      <c r="C568" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" s="7" t="s">
+      <c r="A569" s="8" t="s">
         <v>5661</v>
       </c>
-      <c r="B569" s="7" t="s">
+      <c r="B569" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C569" s="7" t="s">
+      <c r="C569" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" s="7" t="s">
+      <c r="A570" s="8" t="s">
         <v>5662</v>
       </c>
-      <c r="B570" s="7" t="s">
+      <c r="B570" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C570" s="7" t="s">
+      <c r="C570" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" s="7" t="s">
+      <c r="A571" s="8" t="s">
         <v>5663</v>
       </c>
-      <c r="B571" s="7" t="s">
+      <c r="B571" s="8" t="s">
         <v>5339</v>
       </c>
-      <c r="C571" s="7" t="s">
+      <c r="C571" s="8" t="s">
         <v>5658</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" s="7" t="s">
+      <c r="A572" s="8" t="s">
         <v>5664</v>
       </c>
-      <c r="B572" s="7" t="s">
+      <c r="B572" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C572" s="7" t="s">
+      <c r="C572" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" s="7" t="s">
+      <c r="A573" s="8" t="s">
         <v>5665</v>
       </c>
-      <c r="B573" s="7" t="s">
+      <c r="B573" s="8" t="s">
         <v>5342</v>
       </c>
-      <c r="C573" s="7" t="s">
+      <c r="C573" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" s="7" t="s">
+      <c r="A574" s="8" t="s">
         <v>5666</v>
       </c>
-      <c r="B574" s="7" t="s">
+      <c r="B574" s="8" t="s">
         <v>5344</v>
       </c>
-      <c r="C574" s="7" t="s">
+      <c r="C574" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" s="7" t="s">
+      <c r="A575" s="8" t="s">
         <v>5667</v>
       </c>
-      <c r="B575" s="7" t="s">
+      <c r="B575" s="8" t="s">
         <v>5346</v>
       </c>
-      <c r="C575" s="7" t="s">
+      <c r="C575" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" s="7" t="s">
+      <c r="A576" s="8" t="s">
         <v>5668</v>
       </c>
-      <c r="B576" s="7" t="s">
+      <c r="B576" s="8" t="s">
         <v>5348</v>
       </c>
-      <c r="C576" s="7" t="s">
+      <c r="C576" s="8" t="s">
         <v>5664</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="7" t="s">
+      <c r="A577" s="8" t="s">
         <v>5669</v>
       </c>
-      <c r="B577" s="7" t="s">
+      <c r="B577" s="8" t="s">
         <v>5172</v>
       </c>
-      <c r="C577" s="7" t="s">
+      <c r="C577" s="8" t="s">
         <v>5631</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="7" t="s">
+      <c r="A578" s="8" t="s">
         <v>5776</v>
       </c>
-      <c r="B578" s="7" t="s">
+      <c r="B578" s="8" t="s">
         <v>5777</v>
       </c>
-      <c r="C578" s="7" t="s">
+      <c r="C578" s="8" t="s">
         <v>5064</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" s="7" t="s">
+      <c r="A579" s="8" t="s">
         <v>5778</v>
       </c>
-      <c r="B579" s="7" t="s">
+      <c r="B579" s="8" t="s">
         <v>5779</v>
       </c>
-      <c r="C579" s="7" t="s">
+      <c r="C579" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" s="7" t="s">
+      <c r="A580" s="8" t="s">
         <v>5780</v>
       </c>
-      <c r="B580" s="7" t="s">
+      <c r="B580" s="8" t="s">
         <v>5781</v>
       </c>
-      <c r="C580" s="7" t="s">
+      <c r="C580" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581" s="7" t="s">
+      <c r="A581" s="8" t="s">
         <v>5782</v>
       </c>
-      <c r="B581" s="7" t="s">
+      <c r="B581" s="8" t="s">
         <v>5783</v>
       </c>
-      <c r="C581" s="7" t="s">
+      <c r="C581" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" s="7" t="s">
+      <c r="A582" s="8" t="s">
         <v>5784</v>
       </c>
-      <c r="B582" s="7" t="s">
+      <c r="B582" s="8" t="s">
         <v>5785</v>
       </c>
-      <c r="C582" s="7" t="s">
+      <c r="C582" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583" s="7" t="s">
+      <c r="A583" s="8" t="s">
         <v>5786</v>
       </c>
-      <c r="B583" s="7" t="s">
+      <c r="B583" s="8" t="s">
         <v>5787</v>
       </c>
-      <c r="C583" s="7" t="s">
+      <c r="C583" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584" s="7" t="s">
+      <c r="A584" s="8" t="s">
         <v>5788</v>
       </c>
-      <c r="B584" s="7" t="s">
+      <c r="B584" s="8" t="s">
         <v>5789</v>
       </c>
-      <c r="C584" s="7" t="s">
+      <c r="C584" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" s="7" t="s">
+      <c r="A585" s="8" t="s">
         <v>5790</v>
       </c>
-      <c r="B585" s="7" t="s">
+      <c r="B585" s="8" t="s">
         <v>5791</v>
       </c>
-      <c r="C585" s="7" t="s">
+      <c r="C585" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" s="7" t="s">
+      <c r="A586" s="8" t="s">
         <v>5792</v>
       </c>
-      <c r="B586" s="7" t="s">
+      <c r="B586" s="8" t="s">
         <v>5793</v>
       </c>
-      <c r="C586" s="7" t="s">
+      <c r="C586" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587" s="7" t="s">
+      <c r="A587" s="8" t="s">
         <v>5794</v>
       </c>
-      <c r="B587" s="7" t="s">
+      <c r="B587" s="8" t="s">
         <v>5795</v>
       </c>
-      <c r="C587" s="7" t="s">
+      <c r="C587" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" s="7" t="s">
-        <v>5794</v>
-      </c>
-      <c r="B588" s="7" t="s">
+      <c r="A588" s="8" t="s">
+        <v>5824</v>
+      </c>
+      <c r="B588" s="8" t="s">
         <v>5796</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="C588" s="8" t="s">
         <v>5776</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="8" t="s">
+      <c r="A589" s="9" t="s">
         <v>5797</v>
       </c>
-      <c r="B589" s="8" t="s">
+      <c r="B589" s="9" t="s">
         <v>5798</v>
       </c>
-      <c r="C589" s="8" t="s">
+      <c r="C589" s="9" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="8" t="s">
+      <c r="A590" s="9" t="s">
         <v>5799</v>
       </c>
-      <c r="B590" s="8" t="s">
+      <c r="B590" s="9" t="s">
         <v>5800</v>
       </c>
-      <c r="C590" s="8" t="s">
+      <c r="C590" s="9" t="s">
         <v>5797</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" s="7" t="s">
+      <c r="A591" s="8" t="s">
         <v>5670</v>
       </c>
-      <c r="B591" s="7" t="s">
+      <c r="B591" s="8" t="s">
         <v>5671</v>
       </c>
-      <c r="C591" s="7" t="s">
+      <c r="C591" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" s="7" t="s">
+      <c r="A592" s="8" t="s">
         <v>5672</v>
       </c>
-      <c r="B592" s="7" t="s">
+      <c r="B592" s="8" t="s">
         <v>5673</v>
       </c>
-      <c r="C592" s="7" t="s">
+      <c r="C592" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593" s="7" t="s">
+      <c r="A593" s="8" t="s">
         <v>5674</v>
       </c>
-      <c r="B593" s="7" t="s">
+      <c r="B593" s="8" t="s">
         <v>5154</v>
       </c>
-      <c r="C593" s="7" t="s">
+      <c r="C593" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594" s="7" t="s">
+      <c r="A594" s="8" t="s">
         <v>5675</v>
       </c>
-      <c r="B594" s="7" t="s">
+      <c r="B594" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C594" s="7" t="s">
+      <c r="C594" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595" s="7" t="s">
+      <c r="A595" s="8" t="s">
         <v>5676</v>
       </c>
-      <c r="B595" s="7" t="s">
+      <c r="B595" s="8" t="s">
         <v>5158</v>
       </c>
-      <c r="C595" s="7" t="s">
+      <c r="C595" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596" s="7" t="s">
+      <c r="A596" s="8" t="s">
         <v>5677</v>
       </c>
-      <c r="B596" s="7" t="s">
+      <c r="B596" s="8" t="s">
         <v>5678</v>
       </c>
-      <c r="C596" s="7" t="s">
+      <c r="C596" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A597" s="7" t="s">
+      <c r="A597" s="8" t="s">
         <v>5679</v>
       </c>
-      <c r="B597" s="7" t="s">
+      <c r="B597" s="8" t="s">
         <v>5680</v>
       </c>
-      <c r="C597" s="7" t="s">
+      <c r="C597" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A598" s="7" t="s">
+      <c r="A598" s="8" t="s">
         <v>5681</v>
       </c>
-      <c r="B598" s="7" t="s">
+      <c r="B598" s="8" t="s">
         <v>5682</v>
       </c>
-      <c r="C598" s="7" t="s">
+      <c r="C598" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A599" s="7" t="s">
+      <c r="A599" s="8" t="s">
         <v>5683</v>
       </c>
-      <c r="B599" s="7" t="s">
+      <c r="B599" s="8" t="s">
         <v>5684</v>
       </c>
-      <c r="C599" s="7" t="s">
+      <c r="C599" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" s="7" t="s">
+      <c r="A600" s="8" t="s">
         <v>5685</v>
       </c>
-      <c r="B600" s="7" t="s">
+      <c r="B600" s="8" t="s">
         <v>5686</v>
       </c>
-      <c r="C600" s="7" t="s">
+      <c r="C600" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" s="7" t="s">
+      <c r="A601" s="8" t="s">
         <v>5687</v>
       </c>
-      <c r="B601" s="7" t="s">
+      <c r="B601" s="8" t="s">
         <v>5688</v>
       </c>
-      <c r="C601" s="7" t="s">
+      <c r="C601" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602" s="7" t="s">
+      <c r="A602" s="8" t="s">
         <v>5689</v>
       </c>
-      <c r="B602" s="7" t="s">
+      <c r="B602" s="8" t="s">
         <v>5160</v>
       </c>
-      <c r="C602" s="7" t="s">
+      <c r="C602" s="8" t="s">
         <v>5672</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A603" s="7" t="s">
+      <c r="A603" s="8" t="s">
         <v>5690</v>
       </c>
-      <c r="B603" s="7" t="s">
+      <c r="B603" s="8" t="s">
         <v>5818</v>
       </c>
-      <c r="C603" s="7" t="s">
+      <c r="C603" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" s="7" t="s">
+      <c r="A604" s="8" t="s">
         <v>5691</v>
       </c>
-      <c r="B604" s="7" t="s">
+      <c r="B604" s="8" t="s">
         <v>5801</v>
       </c>
-      <c r="C604" s="7" t="s">
+      <c r="C604" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605" s="7" t="s">
+      <c r="A605" s="8" t="s">
         <v>5802</v>
       </c>
-      <c r="B605" s="7" t="s">
+      <c r="B605" s="8" t="s">
         <v>5073</v>
       </c>
-      <c r="C605" s="7" t="s">
+      <c r="C605" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606" s="7" t="s">
+      <c r="A606" s="8" t="s">
         <v>5692</v>
       </c>
-      <c r="B606" s="7" t="s">
+      <c r="B606" s="8" t="s">
         <v>5693</v>
       </c>
-      <c r="C606" s="7" t="s">
+      <c r="C606" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607" s="7" t="s">
+      <c r="A607" s="8" t="s">
         <v>5694</v>
       </c>
-      <c r="B607" s="7" t="s">
+      <c r="B607" s="8" t="s">
         <v>5695</v>
       </c>
-      <c r="C607" s="7" t="s">
+      <c r="C607" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608" s="7" t="s">
+      <c r="A608" s="8" t="s">
         <v>5696</v>
       </c>
-      <c r="B608" s="7" t="s">
+      <c r="B608" s="8" t="s">
         <v>5697</v>
       </c>
-      <c r="C608" s="7" t="s">
+      <c r="C608" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609" s="7" t="s">
+      <c r="A609" s="8" t="s">
         <v>5698</v>
       </c>
-      <c r="B609" s="7" t="s">
+      <c r="B609" s="8" t="s">
         <v>5162</v>
       </c>
-      <c r="C609" s="7" t="s">
+      <c r="C609" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610" s="7" t="s">
+      <c r="A610" s="8" t="s">
         <v>5699</v>
       </c>
-      <c r="B610" s="7" t="s">
+      <c r="B610" s="8" t="s">
         <v>5700</v>
       </c>
-      <c r="C610" s="7" t="s">
+      <c r="C610" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" s="7" t="s">
+      <c r="A611" s="8" t="s">
         <v>5701</v>
       </c>
-      <c r="B611" s="7" t="s">
+      <c r="B611" s="8" t="s">
         <v>5087</v>
       </c>
-      <c r="C611" s="7" t="s">
+      <c r="C611" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" s="7" t="s">
+      <c r="A612" s="8" t="s">
         <v>5702</v>
       </c>
-      <c r="B612" s="7" t="s">
+      <c r="B612" s="8" t="s">
         <v>5819</v>
       </c>
-      <c r="C612" s="7" t="s">
+      <c r="C612" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" s="7" t="s">
+      <c r="A613" s="8" t="s">
         <v>5703</v>
       </c>
-      <c r="B613" s="7" t="s">
+      <c r="B613" s="8" t="s">
         <v>5089</v>
       </c>
-      <c r="C613" s="7" t="s">
+      <c r="C613" s="8" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614" s="7" t="s">
+      <c r="A614" s="8" t="s">
         <v>5704</v>
       </c>
-      <c r="B614" s="7" t="s">
+      <c r="B614" s="8" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C614" s="8" t="s">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A615" s="8" t="s">
+        <v>5705</v>
+      </c>
+      <c r="B615" s="8" t="s">
         <v>5820</v>
       </c>
-      <c r="C614" s="7" t="s">
+      <c r="C615" s="8" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A616" s="8" t="s">
+        <v>5706</v>
+      </c>
+      <c r="B616" s="8" t="s">
+        <v>5821</v>
+      </c>
+      <c r="C616" s="8" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A617" s="8" t="s">
+        <v>5707</v>
+      </c>
+      <c r="B617" s="8" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C617" s="8" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A618" s="8" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B618" s="8" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C618" s="8" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A619" s="8" t="s">
+        <v>5708</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>5697</v>
+      </c>
+      <c r="C619" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A615" s="7" t="s">
-        <v>5705</v>
-      </c>
-      <c r="B615" s="7" t="s">
-        <v>5821</v>
-      </c>
-      <c r="C615" s="7" t="s">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616" s="7" t="s">
-        <v>5706</v>
-      </c>
-      <c r="B616" s="7" t="s">
-        <v>5822</v>
-      </c>
-      <c r="C616" s="7" t="s">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617" s="7" t="s">
-        <v>5707</v>
-      </c>
-      <c r="B617" s="7" t="s">
-        <v>5823</v>
-      </c>
-      <c r="C617" s="7" t="s">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A618" s="7" t="s">
-        <v>5707</v>
-      </c>
-      <c r="B618" s="7" t="s">
-        <v>5824</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A619" s="7" t="s">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A620" s="8" t="s">
+        <v>5709</v>
+      </c>
+      <c r="B620" s="8" t="s">
+        <v>5710</v>
+      </c>
+      <c r="C620" s="8" t="s">
         <v>5708</v>
       </c>
-      <c r="B619" s="7" t="s">
-        <v>5697</v>
-      </c>
-      <c r="C619" s="7" t="s">
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A621" s="8" t="s">
+        <v>5711</v>
+      </c>
+      <c r="B621" s="8" t="s">
+        <v>5712</v>
+      </c>
+      <c r="C621" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A622" s="8" t="s">
+        <v>5713</v>
+      </c>
+      <c r="B622" s="8" t="s">
+        <v>5714</v>
+      </c>
+      <c r="C622" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A623" s="8" t="s">
+        <v>5715</v>
+      </c>
+      <c r="B623" s="8" t="s">
+        <v>5716</v>
+      </c>
+      <c r="C623" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A624" s="8" t="s">
+        <v>5717</v>
+      </c>
+      <c r="B624" s="8" t="s">
+        <v>5684</v>
+      </c>
+      <c r="C624" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="8" t="s">
+        <v>5718</v>
+      </c>
+      <c r="B625" s="8" t="s">
+        <v>5719</v>
+      </c>
+      <c r="C625" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="8" t="s">
+        <v>5720</v>
+      </c>
+      <c r="B626" s="8" t="s">
+        <v>5688</v>
+      </c>
+      <c r="C626" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="8" t="s">
+        <v>5721</v>
+      </c>
+      <c r="B627" s="8" t="s">
+        <v>5722</v>
+      </c>
+      <c r="C627" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="8" t="s">
+        <v>5723</v>
+      </c>
+      <c r="B628" s="8" t="s">
+        <v>5724</v>
+      </c>
+      <c r="C628" s="8" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="8" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B629" s="8" t="s">
+        <v>5726</v>
+      </c>
+      <c r="C629" s="8" t="s">
         <v>5670</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A620" s="7" t="s">
-        <v>5709</v>
-      </c>
-      <c r="B620" s="7" t="s">
-        <v>5710</v>
-      </c>
-      <c r="C620" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A621" s="7" t="s">
-        <v>5711</v>
-      </c>
-      <c r="B621" s="7" t="s">
-        <v>5712</v>
-      </c>
-      <c r="C621" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A622" s="7" t="s">
-        <v>5713</v>
-      </c>
-      <c r="B622" s="7" t="s">
-        <v>5714</v>
-      </c>
-      <c r="C622" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A623" s="7" t="s">
-        <v>5715</v>
-      </c>
-      <c r="B623" s="7" t="s">
-        <v>5716</v>
-      </c>
-      <c r="C623" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="7" t="s">
-        <v>5717</v>
-      </c>
-      <c r="B624" s="7" t="s">
-        <v>5684</v>
-      </c>
-      <c r="C624" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A625" s="7" t="s">
-        <v>5718</v>
-      </c>
-      <c r="B625" s="7" t="s">
-        <v>5719</v>
-      </c>
-      <c r="C625" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626" s="7" t="s">
-        <v>5720</v>
-      </c>
-      <c r="B626" s="7" t="s">
-        <v>5688</v>
-      </c>
-      <c r="C626" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627" s="7" t="s">
-        <v>5721</v>
-      </c>
-      <c r="B627" s="7" t="s">
-        <v>5722</v>
-      </c>
-      <c r="C627" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A628" s="7" t="s">
-        <v>5723</v>
-      </c>
-      <c r="B628" s="7" t="s">
-        <v>5724</v>
-      </c>
-      <c r="C628" s="7" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A629" s="7" t="s">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="8" t="s">
+        <v>5727</v>
+      </c>
+      <c r="B630" s="8" t="s">
+        <v>5728</v>
+      </c>
+      <c r="C630" s="8" t="s">
         <v>5725</v>
       </c>
-      <c r="B629" s="7" t="s">
-        <v>5726</v>
-      </c>
-      <c r="C629" s="7" t="s">
-        <v>5670</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630" s="7" t="s">
-        <v>5727</v>
-      </c>
-      <c r="B630" s="7" t="s">
-        <v>5728</v>
-      </c>
-      <c r="C630" s="7" t="s">
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="8" t="s">
+        <v>5729</v>
+      </c>
+      <c r="B631" s="8" t="s">
+        <v>5730</v>
+      </c>
+      <c r="C631" s="8" t="s">
         <v>5725</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A631" s="7" t="s">
-        <v>5729</v>
-      </c>
-      <c r="B631" s="7" t="s">
-        <v>5730</v>
-      </c>
-      <c r="C631" s="7" t="s">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="8" t="s">
+        <v>5731</v>
+      </c>
+      <c r="B632" s="8" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C632" s="8" t="s">
         <v>5725</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A632" s="7" t="s">
-        <v>5731</v>
-      </c>
-      <c r="B632" s="7" t="s">
-        <v>5732</v>
-      </c>
-      <c r="C632" s="7" t="s">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="8" t="s">
+        <v>5733</v>
+      </c>
+      <c r="B633" s="8" t="s">
+        <v>5734</v>
+      </c>
+      <c r="C633" s="8" t="s">
         <v>5725</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A633" s="7" t="s">
-        <v>5733</v>
-      </c>
-      <c r="B633" s="7" t="s">
-        <v>5734</v>
-      </c>
-      <c r="C633" s="7" t="s">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="8" t="s">
+        <v>5735</v>
+      </c>
+      <c r="B634" s="8" t="s">
+        <v>5736</v>
+      </c>
+      <c r="C634" s="8" t="s">
         <v>5725</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A634" s="7" t="s">
-        <v>5735</v>
-      </c>
-      <c r="B634" s="7" t="s">
-        <v>5736</v>
-      </c>
-      <c r="C634" s="7" t="s">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="8" t="s">
+        <v>5737</v>
+      </c>
+      <c r="B635" s="8" t="s">
+        <v>5738</v>
+      </c>
+      <c r="C635" s="8" t="s">
         <v>5725</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A635" s="7" t="s">
-        <v>5737</v>
-      </c>
-      <c r="B635" s="7" t="s">
-        <v>5738</v>
-      </c>
-      <c r="C635" s="7" t="s">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="8" t="s">
+        <v>5739</v>
+      </c>
+      <c r="B636" s="8" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C636" s="8" t="s">
         <v>5725</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="7" t="s">
-        <v>5739</v>
-      </c>
-      <c r="B636" s="7" t="s">
-        <v>5740</v>
-      </c>
-      <c r="C636" s="7" t="s">
-        <v>5725</v>
-      </c>
-    </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A637" s="7" t="s">
+      <c r="A637" s="8" t="s">
         <v>5741</v>
       </c>
-      <c r="B637" s="7" t="s">
+      <c r="B637" s="8" t="s">
         <v>5742</v>
       </c>
-      <c r="C637" s="7" t="s">
+      <c r="C637" s="8" t="s">
         <v>5003</v>
       </c>
     </row>

--- a/PowerLmsData/系统资源/预初始化数据字典.xlsx
+++ b/PowerLmsData/系统资源/预初始化数据字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\光元\source\Repos1\PowerLms\PowerLmsData\系统资源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C38A57-85A7-4745-BCD4-1ADD92A2AB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB8721-B8DF-48A9-9156-9103F2B76AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9638" uniqueCount="5827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9602" uniqueCount="5810">
   <si>
     <t>Id</t>
   </si>
@@ -17570,27 +17570,15 @@
     <t>C.1.1</t>
   </si>
   <si>
-    <t>创建货主资料</t>
-  </si>
-  <si>
     <t>C.1.2</t>
   </si>
   <si>
-    <t>查看货主资料</t>
-  </si>
-  <si>
     <t>C.1.3</t>
   </si>
   <si>
-    <t>编辑货主资料</t>
-  </si>
-  <si>
     <t>C.1.4</t>
   </si>
   <si>
-    <t>删除货主资料</t>
-  </si>
-  <si>
     <t>C.1.5</t>
   </si>
   <si>
@@ -18014,9 +18002,6 @@
     <t>转换状态</t>
   </si>
   <si>
-    <t>更改入账费用</t>
-  </si>
-  <si>
     <t>D0.13</t>
   </si>
   <si>
@@ -18491,9 +18476,6 @@
     <t>D2.6.7</t>
   </si>
   <si>
-    <t>D2.6.8</t>
-  </si>
-  <si>
     <t>D2.7</t>
   </si>
   <si>
@@ -18749,9 +18731,6 @@
     <t>D3.6.7</t>
   </si>
   <si>
-    <t>D3.6.8</t>
-  </si>
-  <si>
     <t>D3.7</t>
   </si>
   <si>
@@ -18866,9 +18845,6 @@
     <t>D4.6.7</t>
   </si>
   <si>
-    <t>D4.6.8</t>
-  </si>
-  <si>
     <t>D4.7</t>
   </si>
   <si>
@@ -18983,9 +18959,6 @@
     <t>D5.6.7</t>
   </si>
   <si>
-    <t>D5.6.8</t>
-  </si>
-  <si>
     <t>D5.7</t>
   </si>
   <si>
@@ -19100,9 +19073,6 @@
     <t>D6.6.7</t>
   </si>
   <si>
-    <t>D6.6.8</t>
-  </si>
-  <si>
     <t>D6.7</t>
   </si>
   <si>
@@ -19217,9 +19187,6 @@
     <t>D7.6.7</t>
   </si>
   <si>
-    <t>D7.6.8</t>
-  </si>
-  <si>
     <t>D7.7</t>
   </si>
   <si>
@@ -19349,9 +19316,6 @@
     <t>D8.6.7</t>
   </si>
   <si>
-    <t>D8.6.8</t>
-  </si>
-  <si>
     <t>D8.7</t>
   </si>
   <si>
@@ -19466,9 +19430,6 @@
     <t>D9.6.7</t>
   </si>
   <si>
-    <t>D9.6.8</t>
-  </si>
-  <si>
     <t>D9.7</t>
   </si>
   <si>
@@ -19739,24 +19700,6 @@
     <t>费用明细操作</t>
   </si>
   <si>
-    <t>D0.6.2.1</t>
-  </si>
-  <si>
-    <t>查看本人制作的费用</t>
-  </si>
-  <si>
-    <t>D0.6.2.2</t>
-  </si>
-  <si>
-    <t>查看同组制作的费用</t>
-  </si>
-  <si>
-    <t>D0.6.2.3</t>
-  </si>
-  <si>
-    <t>查看所有人制作的费用</t>
-  </si>
-  <si>
     <t>D1.1.1.12</t>
   </si>
   <si>
@@ -19766,12 +19709,6 @@
     <t>D1.1.1.14</t>
   </si>
   <si>
-    <t>D1.6.9</t>
-  </si>
-  <si>
-    <t>查看自己制作的费用</t>
-  </si>
-  <si>
     <t>D2.1.1.15</t>
   </si>
   <si>
@@ -19974,6 +19911,18 @@
   </si>
   <si>
     <t>F.3.4</t>
+  </si>
+  <si>
+    <t>创建客户资料</t>
+  </si>
+  <si>
+    <t>查看客户资料</t>
+  </si>
+  <si>
+    <t>编辑客户资料</t>
+  </si>
+  <si>
+    <t>删除客户资料</t>
   </si>
 </sst>
 </file>
@@ -34111,13 +34060,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E900D446-02CE-4C48-B861-F395A1910026}">
-  <dimension ref="A1:C637"/>
+  <dimension ref="A1:C625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="A637" sqref="A637"/>
+    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="A625" sqref="A625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
@@ -34135,16 +34087,16 @@
         <v>5003</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5815</v>
+        <v>5794</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>5803</v>
+        <v>5782</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5804</v>
+        <v>5783</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5003</v>
@@ -34152,57 +34104,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>5805</v>
+        <v>5784</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>5806</v>
+        <v>5785</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5803</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>5807</v>
+        <v>5786</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5808</v>
+        <v>5787</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>5805</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>5809</v>
+        <v>5788</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5810</v>
+        <v>5789</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5805</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>5811</v>
+        <v>5790</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>5812</v>
+        <v>5791</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>5805</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>5813</v>
+        <v>5792</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>5814</v>
+        <v>5793</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5805</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -34243,7 +34195,7 @@
         <v>5008</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>5743</v>
+        <v>5730</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>5001</v>
@@ -34317,10 +34269,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>5744</v>
+        <v>5731</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>5745</v>
+        <v>5732</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>5001</v>
@@ -34328,10 +34280,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>5816</v>
+        <v>5795</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5817</v>
+        <v>5796</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>5001</v>
@@ -34364,7 +34316,7 @@
         <v>5024</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>5025</v>
+        <v>5806</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>5023</v>
@@ -34372,10 +34324,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>5027</v>
+        <v>5807</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>5023</v>
@@ -34383,10 +34335,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>5029</v>
+        <v>5808</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>5023</v>
@@ -34394,10 +34346,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>5030</v>
+        <v>5027</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>5031</v>
+        <v>5809</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>5023</v>
@@ -34405,10 +34357,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>5032</v>
+        <v>5028</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>5033</v>
+        <v>5029</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>5023</v>
@@ -34416,10 +34368,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>5034</v>
+        <v>5030</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>5035</v>
+        <v>5031</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>5023</v>
@@ -34427,10 +34379,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>5036</v>
+        <v>5032</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>5037</v>
+        <v>5033</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>5023</v>
@@ -34438,10 +34390,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>5021</v>
@@ -34449,87 +34401,87 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>5040</v>
+        <v>5036</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>5041</v>
+        <v>5037</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>5042</v>
+        <v>5038</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>5043</v>
+        <v>5039</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>5044</v>
+        <v>5040</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>5045</v>
+        <v>5041</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>5046</v>
+        <v>5042</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>5047</v>
+        <v>5043</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>5048</v>
+        <v>5044</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>5049</v>
+        <v>5045</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>5050</v>
+        <v>5046</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>5051</v>
+        <v>5047</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>5052</v>
+        <v>5048</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>5053</v>
+        <v>5049</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>5038</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>5054</v>
+        <v>5050</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>5055</v>
+        <v>5051</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>5021</v>
@@ -34537,54 +34489,54 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>5056</v>
+        <v>5052</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>5057</v>
+        <v>5053</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>5054</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>5058</v>
+        <v>5054</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>5059</v>
+        <v>5055</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>5054</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>5060</v>
+        <v>5056</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>5061</v>
+        <v>5057</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>5054</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>5062</v>
+        <v>5058</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>5063</v>
+        <v>5059</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>5054</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>5064</v>
+        <v>5060</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>5065</v>
+        <v>5061</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>5003</v>
@@ -34592,728 +34544,728 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>5067</v>
+        <v>5063</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>5064</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>5068</v>
+        <v>5064</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>5069</v>
+        <v>5065</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>5071</v>
+        <v>5067</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>5068</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>5072</v>
+        <v>5068</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>5073</v>
+        <v>5069</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>5074</v>
+        <v>5070</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>5075</v>
+        <v>5071</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>5076</v>
+        <v>5072</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>5077</v>
+        <v>5073</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>5078</v>
+        <v>5074</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>5079</v>
+        <v>5075</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>5080</v>
+        <v>5076</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>5081</v>
+        <v>5077</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>5082</v>
+        <v>5078</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>5083</v>
+        <v>5079</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>5084</v>
+        <v>5080</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>5085</v>
+        <v>5081</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>5086</v>
+        <v>5082</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>5087</v>
+        <v>5083</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>5088</v>
+        <v>5084</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>5089</v>
+        <v>5085</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>5090</v>
+        <v>5086</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>5091</v>
+        <v>5087</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>5092</v>
+        <v>5088</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>5093</v>
+        <v>5089</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>5094</v>
+        <v>5090</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>5095</v>
+        <v>5091</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>5096</v>
+        <v>5092</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>5097</v>
+        <v>5093</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>5746</v>
+        <v>5733</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>5259</v>
+        <v>5254</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>5070</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>5098</v>
+        <v>5094</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>5099</v>
+        <v>5095</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>5068</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>5100</v>
+        <v>5096</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>5101</v>
+        <v>5097</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>5098</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>5102</v>
+        <v>5098</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>5103</v>
+        <v>5099</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>5098</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>5104</v>
+        <v>5100</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>5105</v>
+        <v>5101</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>5098</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>5106</v>
+        <v>5102</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>5107</v>
+        <v>5103</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>5098</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>5108</v>
+        <v>5104</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>5109</v>
+        <v>5105</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>5110</v>
+        <v>5106</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>5111</v>
+        <v>5107</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>5108</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>5112</v>
+        <v>5108</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>5113</v>
+        <v>5109</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>5108</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>5114</v>
+        <v>5110</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>5115</v>
+        <v>5111</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>5108</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>5116</v>
+        <v>5112</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>5117</v>
+        <v>5113</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>5118</v>
+        <v>5114</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>5111</v>
+        <v>5107</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>5116</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>5119</v>
+        <v>5115</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>5113</v>
+        <v>5109</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>5116</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>5120</v>
+        <v>5116</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>5115</v>
+        <v>5111</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>5116</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>5121</v>
+        <v>5117</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>5122</v>
+        <v>5118</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>5123</v>
+        <v>5119</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>5124</v>
+        <v>5120</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>5121</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>5125</v>
+        <v>5121</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>5126</v>
+        <v>5122</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>5121</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>5127</v>
+        <v>5123</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>5128</v>
+        <v>5124</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>5121</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>5129</v>
+        <v>5125</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>5130</v>
+        <v>5126</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>5131</v>
+        <v>5127</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>5111</v>
+        <v>5107</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>5129</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>5132</v>
+        <v>5128</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>5113</v>
+        <v>5109</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>5129</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>5133</v>
+        <v>5129</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>5115</v>
+        <v>5111</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>5129</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>5747</v>
+        <v>5734</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>5066</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>5135</v>
+        <v>5131</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>5136</v>
+        <v>5132</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>5137</v>
+        <v>5133</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>5138</v>
+        <v>5134</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>5748</v>
+        <v>5135</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>5749</v>
+        <v>5136</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>5137</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>5750</v>
+        <v>5137</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>5751</v>
+        <v>5138</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>5137</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>5752</v>
+        <v>5139</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>5753</v>
+        <v>5140</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>5137</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>5134</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>5134</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>5147</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>5148</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>5134</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>5134</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>5066</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>5151</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>5151</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>5157</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>5158</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>5151</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>5151</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>5066</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>5161</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>5161</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>5161</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>5169</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>5170</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>5161</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>5066</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>5174</v>
+        <v>5175</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>5175</v>
+        <v>5176</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>5066</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>5176</v>
+        <v>5177</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>5174</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>5179</v>
+        <v>5180</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>5174</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>5180</v>
+        <v>5181</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>5174</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>5183</v>
+        <v>5067</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>5174</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -35321,227 +35273,227 @@
         <v>5184</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>5185</v>
+        <v>5069</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>5064</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>5187</v>
+        <v>5071</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>5186</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>5197</v>
+        <v>5735</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>5198</v>
+        <v>5736</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>5199</v>
+        <v>5737</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>5093</v>
+        <v>5254</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>5188</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>5754</v>
+        <v>5195</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>5095</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>5188</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>5755</v>
+        <v>5196</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>5097</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>5188</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>5756</v>
+        <v>5197</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>5259</v>
+        <v>5099</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>5188</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>5186</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>5200</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>5200</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>5200</v>
@@ -35549,10 +35501,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>5200</v>
@@ -35560,318 +35512,318 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>5184</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>5205</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>5113</v>
+        <v>5107</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>5205</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>5115</v>
+        <v>5109</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>5205</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>5117</v>
+        <v>5111</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>5184</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>5111</v>
+        <v>5118</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>5209</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>5113</v>
+        <v>5120</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>5115</v>
+        <v>5122</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>5184</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>5213</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>5126</v>
+        <v>5107</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>5213</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>5128</v>
+        <v>5109</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>5213</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>5130</v>
+        <v>5111</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>5184</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>5111</v>
+        <v>5734</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>5217</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>5113</v>
+        <v>5132</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>5115</v>
+        <v>5134</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>5747</v>
+        <v>5136</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>5184</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>5221</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>5221</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>5757</v>
+        <v>5227</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>5758</v>
+        <v>5152</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>5150</v>
+        <v>5154</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>5184</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>5230</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>5156</v>
+        <v>5160</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>5230</v>
@@ -35879,10 +35831,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>5158</v>
+        <v>5162</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>5230</v>
@@ -35890,10 +35842,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>5230</v>
@@ -35901,35 +35853,35 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>5235</v>
+        <v>5234</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>5184</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>5236</v>
+        <v>5235</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>5164</v>
+        <v>5168</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>5235</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>5237</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>5166</v>
-      </c>
       <c r="C165" s="8" t="s">
-        <v>5235</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -35937,10 +35889,10 @@
         <v>5238</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>5168</v>
+        <v>5182</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>5235</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -35948,10 +35900,10 @@
         <v>5239</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>5170</v>
+        <v>5067</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>5235</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -35959,384 +35911,384 @@
         <v>5240</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>5172</v>
+        <v>5069</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>5184</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>5241</v>
+        <v>5249</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>5242</v>
+        <v>5087</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>5064</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>5243</v>
+        <v>5250</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>5187</v>
+        <v>5089</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>5241</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>5244</v>
+        <v>5251</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>5071</v>
+        <v>5091</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>5243</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>5245</v>
+        <v>5252</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>5073</v>
+        <v>5093</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B173" s="8" t="s">
         <v>5254</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>5091</v>
-      </c>
       <c r="C173" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>5255</v>
+        <v>5738</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>5093</v>
+        <v>5595</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>5256</v>
+        <v>5739</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>5095</v>
+        <v>5597</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>5257</v>
+        <v>5241</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>5097</v>
+        <v>5071</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>5258</v>
+        <v>5242</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>5259</v>
+        <v>5073</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>5759</v>
+        <v>5243</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>5606</v>
+        <v>5075</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>5760</v>
+        <v>5244</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>5608</v>
+        <v>5077</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>5075</v>
+        <v>5079</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>5077</v>
+        <v>5081</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>5079</v>
+        <v>5083</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>5249</v>
+        <v>5248</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>5081</v>
+        <v>5085</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>5244</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>5083</v>
+        <v>5256</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>5244</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
-        <v>5251</v>
+        <v>5257</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>5085</v>
+        <v>5258</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>5244</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>5252</v>
+        <v>5259</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>5087</v>
+        <v>5260</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>5244</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>5253</v>
+        <v>5261</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>5089</v>
+        <v>5262</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>5244</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>5260</v>
+        <v>5263</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>5261</v>
+        <v>5264</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>5243</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>5262</v>
+        <v>5265</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>5263</v>
+        <v>5266</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>5260</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>5264</v>
+        <v>5267</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>5265</v>
+        <v>5268</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>5260</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>5266</v>
+        <v>5269</v>
       </c>
       <c r="B191" s="8" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C191" s="8" t="s">
         <v>5267</v>
-      </c>
-      <c r="C191" s="8" t="s">
-        <v>5260</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>5268</v>
+        <v>5271</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>5269</v>
+        <v>5272</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>5260</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>5270</v>
+        <v>5273</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>5271</v>
+        <v>5274</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>5260</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>5272</v>
+        <v>5275</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>5273</v>
+        <v>5276</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>5243</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>5274</v>
+        <v>5277</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>5275</v>
+        <v>5278</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>5272</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>5276</v>
+        <v>5279</v>
       </c>
       <c r="B196" s="8" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>5277</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>5272</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>5278</v>
+        <v>5281</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>5279</v>
+        <v>5282</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>5272</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
-        <v>5280</v>
+        <v>5283</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>5281</v>
+        <v>5284</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>5272</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>5282</v>
+        <v>5285</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>5283</v>
+        <v>5286</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>5243</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>5284</v>
+        <v>5287</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>5285</v>
+        <v>5095</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>5282</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>5286</v>
+        <v>5288</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C201" s="8" t="s">
         <v>5287</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>5282</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>5288</v>
+        <v>5289</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>5289</v>
+        <v>5099</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>5282</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -36344,32 +36296,32 @@
         <v>5290</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>5291</v>
+        <v>5101</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>5282</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>5292</v>
+        <v>5291</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>5099</v>
+        <v>5103</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>5243</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>5293</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>5101</v>
-      </c>
       <c r="C205" s="8" t="s">
-        <v>5292</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -36377,7 +36329,7 @@
         <v>5294</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>5103</v>
+        <v>5295</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>5292</v>
@@ -36385,10 +36337,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>5295</v>
+        <v>5296</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>5105</v>
+        <v>5297</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>5292</v>
@@ -36396,10 +36348,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
-        <v>5296</v>
+        <v>5298</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>5107</v>
+        <v>5299</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>5292</v>
@@ -36407,46 +36359,46 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>5297</v>
+        <v>5300</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>5298</v>
+        <v>5301</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>5243</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>5299</v>
+        <v>5302</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>5300</v>
+        <v>5105</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>5297</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="B211" s="8" t="s">
+        <v>5107</v>
+      </c>
+      <c r="C211" s="8" t="s">
         <v>5302</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>5297</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>5304</v>
+        <v>5109</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>5297</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -36454,164 +36406,164 @@
         <v>5305</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>5306</v>
+        <v>5111</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>5297</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>5109</v>
+        <v>5113</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>5308</v>
+        <v>5307</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>5111</v>
+        <v>5107</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>5113</v>
+        <v>5109</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>5115</v>
+        <v>5111</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>5307</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>5117</v>
+        <v>5118</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>5111</v>
+        <v>5120</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>5313</v>
+        <v>5312</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>5113</v>
+        <v>5122</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>5314</v>
+        <v>5313</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>5115</v>
+        <v>5124</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>5311</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>5122</v>
+        <v>5126</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>5316</v>
+        <v>5315</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>5124</v>
+        <v>5107</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>5317</v>
+        <v>5316</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>5126</v>
+        <v>5109</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>5318</v>
+        <v>5317</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>5128</v>
+        <v>5111</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>5315</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>5130</v>
+        <v>5734</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>5111</v>
+        <v>5132</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -36619,10 +36571,10 @@
         <v>5321</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>5113</v>
+        <v>5134</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -36630,10 +36582,10 @@
         <v>5322</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>5115</v>
+        <v>5136</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>5319</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -36641,10 +36593,10 @@
         <v>5323</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>5747</v>
+        <v>5138</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>5241</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -36652,109 +36604,109 @@
         <v>5324</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>5136</v>
+        <v>5140</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>5323</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>5326</v>
+        <v>5325</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>5138</v>
+        <v>5142</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>5323</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>5140</v>
+        <v>5144</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>5323</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>5328</v>
+        <v>5320</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>5142</v>
+        <v>5146</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>5323</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>5144</v>
+        <v>5148</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>5323</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>5146</v>
+        <v>5150</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>5323</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>5148</v>
+        <v>5152</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>5323</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>5173</v>
+        <v>5154</v>
       </c>
       <c r="C238" s="8" t="s">
-        <v>5323</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>5325</v>
+        <v>5331</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>5150</v>
+        <v>5156</v>
       </c>
       <c r="C239" s="8" t="s">
-        <v>5323</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B240" s="8" t="s">
         <v>5333</v>
       </c>
-      <c r="B240" s="8" t="s">
-        <v>5152</v>
-      </c>
       <c r="C240" s="8" t="s">
-        <v>5241</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -36762,10 +36714,10 @@
         <v>5334</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>5154</v>
+        <v>5158</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>5333</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -36773,98 +36725,98 @@
         <v>5335</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>5156</v>
+        <v>5336</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>5333</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>5336</v>
+        <v>5337</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>5158</v>
+        <v>5338</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>5333</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>5337</v>
+        <v>5339</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>5160</v>
+        <v>5340</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>5333</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>5338</v>
+        <v>5341</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>5339</v>
+        <v>5342</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>5333</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>5340</v>
+        <v>5343</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>5162</v>
+        <v>5168</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>5241</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>5341</v>
+        <v>5344</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>5342</v>
+        <v>5345</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>5340</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>5343</v>
+        <v>5346</v>
       </c>
       <c r="B248" s="8" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C248" s="8" t="s">
         <v>5344</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>5340</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
-        <v>5345</v>
+        <v>5347</v>
       </c>
       <c r="B249" s="8" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C249" s="8" t="s">
         <v>5346</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>5340</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>5069</v>
+      </c>
+      <c r="C250" s="8" t="s">
         <v>5347</v>
-      </c>
-      <c r="B250" s="8" t="s">
-        <v>5348</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>5340</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -36872,10 +36824,10 @@
         <v>5349</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>5172</v>
+        <v>5087</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>5241</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -36883,205 +36835,205 @@
         <v>5350</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>5351</v>
+        <v>5089</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>5064</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>5352</v>
+        <v>5351</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>5187</v>
+        <v>5091</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>5350</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>5353</v>
+        <v>5352</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>5071</v>
+        <v>5093</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>5352</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>5354</v>
+        <v>5353</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
-        <v>5355</v>
+        <v>5354</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>5091</v>
+        <v>5073</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>5093</v>
+        <v>5075</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>5357</v>
+        <v>5356</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>5095</v>
+        <v>5077</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
-        <v>5358</v>
+        <v>5357</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>5097</v>
+        <v>5079</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
-        <v>5359</v>
+        <v>5358</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>5075</v>
+        <v>5081</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
-        <v>5360</v>
+        <v>5359</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>5077</v>
+        <v>5083</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>5079</v>
+        <v>5085</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
-        <v>5362</v>
+        <v>5361</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>5081</v>
+        <v>5256</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>5353</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>5363</v>
+        <v>5362</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>5083</v>
+        <v>5258</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>5353</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
-        <v>5364</v>
+        <v>5363</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>5085</v>
+        <v>5260</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>5353</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>5087</v>
+        <v>5262</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>5353</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>5089</v>
+        <v>5264</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>5353</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>5261</v>
+        <v>5266</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>5352</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
-        <v>5368</v>
+        <v>5367</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>5263</v>
+        <v>5268</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>5367</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>5367</v>
@@ -37089,10 +37041,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>5267</v>
+        <v>5272</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>5367</v>
@@ -37100,10 +37052,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>5269</v>
+        <v>5274</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>5367</v>
@@ -37111,10 +37063,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>5372</v>
+        <v>5371</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>5271</v>
+        <v>5276</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>5367</v>
@@ -37122,365 +37074,365 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>5273</v>
+        <v>5278</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>5275</v>
+        <v>5280</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>5277</v>
+        <v>5282</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>5279</v>
+        <v>5284</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>5281</v>
+        <v>5286</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>5283</v>
+        <v>5095</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
-        <v>5379</v>
+        <v>5378</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>5285</v>
+        <v>5097</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>5287</v>
+        <v>5099</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>5289</v>
+        <v>5101</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>5291</v>
+        <v>5103</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>5099</v>
+        <v>5293</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>5101</v>
+        <v>5295</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>5103</v>
+        <v>5297</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>5105</v>
+        <v>5299</v>
       </c>
       <c r="C287" s="8" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>5107</v>
+        <v>5301</v>
       </c>
       <c r="C288" s="8" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>5298</v>
+        <v>5105</v>
       </c>
       <c r="C289" s="8" t="s">
-        <v>5352</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>5300</v>
+        <v>5107</v>
       </c>
       <c r="C290" s="8" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>5302</v>
+        <v>5109</v>
       </c>
       <c r="C291" s="8" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>5304</v>
+        <v>5111</v>
       </c>
       <c r="C292" s="8" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>5306</v>
+        <v>5113</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>5388</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="C294" s="8" t="s">
-        <v>5350</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>5115</v>
+        <v>5118</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>5393</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>5117</v>
+        <v>5120</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>5350</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>5111</v>
+        <v>5122</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>5113</v>
+        <v>5124</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
-        <v>5400</v>
+        <v>5399</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>5115</v>
+        <v>5126</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>5397</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>5122</v>
+        <v>5107</v>
       </c>
       <c r="C302" s="8" t="s">
-        <v>5350</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>5402</v>
+        <v>5401</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>5124</v>
+        <v>5109</v>
       </c>
       <c r="C303" s="8" t="s">
-        <v>5401</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>5126</v>
+        <v>5111</v>
       </c>
       <c r="C304" s="8" t="s">
-        <v>5401</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>5128</v>
+        <v>5734</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>5401</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>5350</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -37488,10 +37440,10 @@
         <v>5406</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>5111</v>
+        <v>5134</v>
       </c>
       <c r="C307" s="8" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -37499,10 +37451,10 @@
         <v>5407</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>5113</v>
+        <v>5136</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -37510,10 +37462,10 @@
         <v>5408</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>5115</v>
+        <v>5138</v>
       </c>
       <c r="C309" s="8" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -37521,10 +37473,10 @@
         <v>5409</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>5747</v>
+        <v>5140</v>
       </c>
       <c r="C310" s="8" t="s">
-        <v>5350</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -37532,175 +37484,175 @@
         <v>5410</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>5136</v>
+        <v>5142</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>5409</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>5138</v>
+        <v>5144</v>
       </c>
       <c r="C312" s="8" t="s">
-        <v>5409</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>5413</v>
+        <v>5405</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>5140</v>
+        <v>5146</v>
       </c>
       <c r="C313" s="8" t="s">
-        <v>5409</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>5142</v>
+        <v>5148</v>
       </c>
       <c r="C314" s="8" t="s">
-        <v>5409</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="s">
-        <v>5415</v>
+        <v>5413</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>5144</v>
+        <v>5150</v>
       </c>
       <c r="C315" s="8" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
-        <v>5416</v>
+        <v>5414</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>5146</v>
+        <v>5152</v>
       </c>
       <c r="C316" s="8" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
-        <v>5417</v>
+        <v>5415</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>5148</v>
+        <v>5154</v>
       </c>
       <c r="C317" s="8" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>5173</v>
+        <v>5156</v>
       </c>
       <c r="C318" s="8" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
-        <v>5411</v>
+        <v>5417</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>5150</v>
+        <v>5333</v>
       </c>
       <c r="C319" s="8" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>5152</v>
+        <v>5158</v>
       </c>
       <c r="C320" s="8" t="s">
-        <v>5350</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>5154</v>
+        <v>5336</v>
       </c>
       <c r="C321" s="8" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>5156</v>
+        <v>5338</v>
       </c>
       <c r="C322" s="8" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>5158</v>
+        <v>5340</v>
       </c>
       <c r="C323" s="8" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
-        <v>5423</v>
+        <v>5422</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>5160</v>
+        <v>5342</v>
       </c>
       <c r="C324" s="8" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
-        <v>5424</v>
+        <v>5423</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>5339</v>
+        <v>5168</v>
       </c>
       <c r="C325" s="8" t="s">
-        <v>5419</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B326" s="8" t="s">
         <v>5425</v>
       </c>
-      <c r="B326" s="8" t="s">
-        <v>5162</v>
-      </c>
       <c r="C326" s="8" t="s">
-        <v>5350</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -37708,10 +37660,10 @@
         <v>5426</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>5342</v>
+        <v>5182</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>5425</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -37719,10 +37671,10 @@
         <v>5427</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>5344</v>
+        <v>5067</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>5425</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -37730,10 +37682,10 @@
         <v>5428</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>5346</v>
+        <v>5069</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>5425</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -37741,10 +37693,10 @@
         <v>5429</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>5348</v>
+        <v>5071</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>5425</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -37752,10 +37704,10 @@
         <v>5430</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>5172</v>
+        <v>5073</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>5350</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -37763,208 +37715,208 @@
         <v>5431</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>5432</v>
+        <v>5075</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>5064</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
-        <v>5433</v>
+        <v>5432</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>5187</v>
+        <v>5077</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>5431</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>5071</v>
+        <v>5079</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>5433</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>5073</v>
+        <v>5081</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>5075</v>
+        <v>5083</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
-        <v>5437</v>
+        <v>5436</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>5077</v>
+        <v>5085</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>5079</v>
+        <v>5087</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
-        <v>5439</v>
+        <v>5438</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>5081</v>
+        <v>5089</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>5083</v>
+        <v>5091</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="s">
-        <v>5441</v>
+        <v>5440</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>5085</v>
+        <v>5093</v>
       </c>
       <c r="C341" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="s">
-        <v>5442</v>
+        <v>5740</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>5087</v>
+        <v>5254</v>
       </c>
       <c r="C342" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="8" t="s">
-        <v>5443</v>
+        <v>5741</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>5089</v>
+        <v>5595</v>
       </c>
       <c r="C343" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="s">
-        <v>5444</v>
+        <v>5742</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>5091</v>
+        <v>5597</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>5434</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
-        <v>5445</v>
+        <v>5441</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>5093</v>
+        <v>5734</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>5434</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="s">
-        <v>5446</v>
+        <v>5442</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>5095</v>
+        <v>5132</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>5434</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
-        <v>5447</v>
+        <v>5444</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>5097</v>
+        <v>5134</v>
       </c>
       <c r="C347" s="8" t="s">
-        <v>5434</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="s">
-        <v>5761</v>
+        <v>5445</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>5259</v>
+        <v>5136</v>
       </c>
       <c r="C348" s="8" t="s">
-        <v>5434</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
-        <v>5762</v>
+        <v>5446</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>5606</v>
+        <v>5138</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>5434</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="s">
-        <v>5763</v>
+        <v>5447</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>5608</v>
+        <v>5140</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>5434</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -37972,10 +37924,10 @@
         <v>5448</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>5747</v>
+        <v>5142</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>5431</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -37983,164 +37935,164 @@
         <v>5449</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>5136</v>
+        <v>5144</v>
       </c>
       <c r="C352" s="8" t="s">
-        <v>5448</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
-        <v>5451</v>
+        <v>5443</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>5138</v>
+        <v>5146</v>
       </c>
       <c r="C353" s="8" t="s">
-        <v>5448</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>5140</v>
+        <v>5148</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>5448</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
-        <v>5453</v>
+        <v>5451</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>5142</v>
+        <v>5150</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
-        <v>5454</v>
+        <v>5452</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>5144</v>
+        <v>5152</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
-        <v>5455</v>
+        <v>5453</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>5146</v>
+        <v>5154</v>
       </c>
       <c r="C357" s="8" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
-        <v>5456</v>
+        <v>5454</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>5148</v>
+        <v>5156</v>
       </c>
       <c r="C358" s="8" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
-        <v>5457</v>
+        <v>5455</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>5173</v>
+        <v>5333</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="s">
-        <v>5450</v>
+        <v>5456</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>5150</v>
+        <v>5158</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>5448</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
-        <v>5458</v>
+        <v>5457</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>5152</v>
+        <v>5336</v>
       </c>
       <c r="C361" s="8" t="s">
-        <v>5431</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>5154</v>
+        <v>5338</v>
       </c>
       <c r="C362" s="8" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>5156</v>
+        <v>5340</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>5158</v>
+        <v>5342</v>
       </c>
       <c r="C364" s="8" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>5160</v>
+        <v>5168</v>
       </c>
       <c r="C365" s="8" t="s">
-        <v>5458</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
+        <v>5462</v>
+      </c>
+      <c r="B366" s="8" t="s">
         <v>5463</v>
       </c>
-      <c r="B366" s="8" t="s">
-        <v>5339</v>
-      </c>
       <c r="C366" s="8" t="s">
-        <v>5458</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -38148,10 +38100,10 @@
         <v>5464</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>5162</v>
+        <v>5182</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>5431</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -38159,7 +38111,7 @@
         <v>5465</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>5342</v>
+        <v>5067</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>5464</v>
@@ -38170,10 +38122,10 @@
         <v>5466</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>5344</v>
+        <v>5069</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -38181,10 +38133,10 @@
         <v>5467</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>5346</v>
+        <v>5071</v>
       </c>
       <c r="C370" s="8" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -38192,10 +38144,10 @@
         <v>5468</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>5348</v>
+        <v>5073</v>
       </c>
       <c r="C371" s="8" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -38203,10 +38155,10 @@
         <v>5469</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>5172</v>
+        <v>5075</v>
       </c>
       <c r="C372" s="8" t="s">
-        <v>5431</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -38214,208 +38166,208 @@
         <v>5470</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>5471</v>
+        <v>5077</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>5064</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>5187</v>
+        <v>5079</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>5470</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="8" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>5071</v>
+        <v>5081</v>
       </c>
       <c r="C375" s="8" t="s">
-        <v>5472</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>5073</v>
+        <v>5083</v>
       </c>
       <c r="C376" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="8" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>5075</v>
+        <v>5085</v>
       </c>
       <c r="C377" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>5077</v>
+        <v>5087</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="8" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>5079</v>
+        <v>5089</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>5081</v>
+        <v>5091</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="8" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>5083</v>
+        <v>5093</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="8" t="s">
-        <v>5480</v>
+        <v>5743</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>5085</v>
+        <v>5254</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="8" t="s">
-        <v>5481</v>
+        <v>5744</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>5087</v>
+        <v>5595</v>
       </c>
       <c r="C383" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="8" t="s">
-        <v>5482</v>
+        <v>5745</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>5089</v>
+        <v>5597</v>
       </c>
       <c r="C384" s="8" t="s">
-        <v>5473</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="8" t="s">
-        <v>5483</v>
+        <v>5479</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>5091</v>
+        <v>5734</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>5473</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="8" t="s">
-        <v>5484</v>
+        <v>5480</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>5093</v>
+        <v>5132</v>
       </c>
       <c r="C386" s="8" t="s">
-        <v>5473</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="8" t="s">
-        <v>5485</v>
+        <v>5482</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>5095</v>
+        <v>5134</v>
       </c>
       <c r="C387" s="8" t="s">
-        <v>5473</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="8" t="s">
-        <v>5486</v>
+        <v>5483</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>5097</v>
+        <v>5136</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>5473</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="8" t="s">
-        <v>5764</v>
+        <v>5484</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>5259</v>
+        <v>5138</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>5473</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="8" t="s">
-        <v>5765</v>
+        <v>5485</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>5606</v>
+        <v>5140</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>5473</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="8" t="s">
-        <v>5766</v>
+        <v>5486</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>5608</v>
+        <v>5142</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>5473</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -38423,164 +38375,164 @@
         <v>5487</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>5747</v>
+        <v>5144</v>
       </c>
       <c r="C392" s="8" t="s">
-        <v>5470</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="8" t="s">
-        <v>5488</v>
+        <v>5481</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>5136</v>
+        <v>5146</v>
       </c>
       <c r="C393" s="8" t="s">
-        <v>5487</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="8" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>5138</v>
+        <v>5148</v>
       </c>
       <c r="C394" s="8" t="s">
-        <v>5487</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="8" t="s">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>5140</v>
+        <v>5150</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="8" t="s">
-        <v>5492</v>
+        <v>5490</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>5142</v>
+        <v>5152</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="8" t="s">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>5144</v>
+        <v>5154</v>
       </c>
       <c r="C397" s="8" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="8" t="s">
-        <v>5494</v>
+        <v>5492</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>5146</v>
+        <v>5156</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="8" t="s">
-        <v>5495</v>
+        <v>5493</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>5148</v>
+        <v>5333</v>
       </c>
       <c r="C399" s="8" t="s">
-        <v>5487</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="8" t="s">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>5173</v>
+        <v>5158</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>5487</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="8" t="s">
-        <v>5489</v>
+        <v>5495</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>5150</v>
+        <v>5336</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>5487</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="8" t="s">
-        <v>5497</v>
+        <v>5496</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>5152</v>
+        <v>5338</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>5470</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="8" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>5154</v>
+        <v>5340</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>5497</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="8" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>5156</v>
+        <v>5342</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>5497</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="8" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>5158</v>
+        <v>5168</v>
       </c>
       <c r="C405" s="8" t="s">
-        <v>5497</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="8" t="s">
+        <v>5500</v>
+      </c>
+      <c r="B406" s="8" t="s">
         <v>5501</v>
       </c>
-      <c r="B406" s="8" t="s">
-        <v>5160</v>
-      </c>
       <c r="C406" s="8" t="s">
-        <v>5497</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -38588,10 +38540,10 @@
         <v>5502</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>5339</v>
+        <v>5182</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>5497</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -38599,10 +38551,10 @@
         <v>5503</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>5162</v>
+        <v>5067</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>5470</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -38610,7 +38562,7 @@
         <v>5504</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>5342</v>
+        <v>5069</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>5503</v>
@@ -38621,7 +38573,7 @@
         <v>5505</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>5344</v>
+        <v>5071</v>
       </c>
       <c r="C410" s="8" t="s">
         <v>5503</v>
@@ -38632,7 +38584,7 @@
         <v>5506</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>5346</v>
+        <v>5073</v>
       </c>
       <c r="C411" s="8" t="s">
         <v>5503</v>
@@ -38643,7 +38595,7 @@
         <v>5507</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>5348</v>
+        <v>5075</v>
       </c>
       <c r="C412" s="8" t="s">
         <v>5503</v>
@@ -38654,10 +38606,10 @@
         <v>5508</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>5172</v>
+        <v>5077</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>5470</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -38665,238 +38617,238 @@
         <v>5509</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>5510</v>
+        <v>5079</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>5064</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="8" t="s">
-        <v>5511</v>
+        <v>5510</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>5187</v>
+        <v>5081</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="8" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>5071</v>
+        <v>5083</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>5511</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="8" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>5073</v>
+        <v>5085</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="8" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>5075</v>
+        <v>5087</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="8" t="s">
-        <v>5515</v>
+        <v>5514</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>5077</v>
+        <v>5089</v>
       </c>
       <c r="C419" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="8" t="s">
-        <v>5516</v>
+        <v>5515</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>5079</v>
+        <v>5091</v>
       </c>
       <c r="C420" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="8" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>5081</v>
+        <v>5093</v>
       </c>
       <c r="C421" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="8" t="s">
-        <v>5518</v>
+        <v>5746</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>5083</v>
+        <v>5254</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
-        <v>5519</v>
+        <v>5747</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>5085</v>
+        <v>5595</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="8" t="s">
-        <v>5520</v>
+        <v>5748</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>5087</v>
+        <v>5597</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>5512</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="8" t="s">
-        <v>5521</v>
+        <v>5517</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>5089</v>
+        <v>5734</v>
       </c>
       <c r="C425" s="8" t="s">
-        <v>5512</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
-        <v>5522</v>
+        <v>5518</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>5091</v>
+        <v>5132</v>
       </c>
       <c r="C426" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="8" t="s">
-        <v>5523</v>
+        <v>5520</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>5093</v>
+        <v>5134</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="8" t="s">
-        <v>5524</v>
+        <v>5521</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>5095</v>
+        <v>5136</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="8" t="s">
-        <v>5525</v>
+        <v>5522</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>5097</v>
+        <v>5138</v>
       </c>
       <c r="C429" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="8" t="s">
-        <v>5767</v>
+        <v>5523</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>5259</v>
+        <v>5140</v>
       </c>
       <c r="C430" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="8" t="s">
-        <v>5768</v>
+        <v>5524</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>5606</v>
+        <v>5142</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="8" t="s">
-        <v>5769</v>
+        <v>5525</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>5608</v>
+        <v>5144</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>5512</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="8" t="s">
-        <v>5526</v>
+        <v>5519</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>5747</v>
+        <v>5146</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>5509</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="8" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>5136</v>
+        <v>5148</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>5526</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="8" t="s">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>5138</v>
+        <v>5150</v>
       </c>
       <c r="C435" s="8" t="s">
         <v>5526</v>
@@ -38904,10 +38856,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="8" t="s">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>5140</v>
+        <v>5152</v>
       </c>
       <c r="C436" s="8" t="s">
         <v>5526</v>
@@ -38915,10 +38867,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="8" t="s">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>5142</v>
+        <v>5154</v>
       </c>
       <c r="C437" s="8" t="s">
         <v>5526</v>
@@ -38926,10 +38878,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="8" t="s">
-        <v>5532</v>
+        <v>5530</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>5144</v>
+        <v>5156</v>
       </c>
       <c r="C438" s="8" t="s">
         <v>5526</v>
@@ -38937,10 +38889,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="8" t="s">
-        <v>5533</v>
+        <v>5531</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>5146</v>
+        <v>5333</v>
       </c>
       <c r="C439" s="8" t="s">
         <v>5526</v>
@@ -38948,79 +38900,79 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
-        <v>5534</v>
+        <v>5532</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>5148</v>
+        <v>5158</v>
       </c>
       <c r="C440" s="8" t="s">
-        <v>5526</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="8" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>5173</v>
+        <v>5336</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>5526</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="8" t="s">
-        <v>5528</v>
+        <v>5534</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>5150</v>
+        <v>5338</v>
       </c>
       <c r="C442" s="8" t="s">
-        <v>5526</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="8" t="s">
-        <v>5536</v>
+        <v>5535</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>5152</v>
+        <v>5340</v>
       </c>
       <c r="C443" s="8" t="s">
-        <v>5509</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="8" t="s">
-        <v>5537</v>
+        <v>5536</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>5154</v>
+        <v>5342</v>
       </c>
       <c r="C444" s="8" t="s">
-        <v>5536</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="8" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>5156</v>
+        <v>5168</v>
       </c>
       <c r="C445" s="8" t="s">
-        <v>5536</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="8" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B446" s="8" t="s">
         <v>5539</v>
       </c>
-      <c r="B446" s="8" t="s">
-        <v>5158</v>
-      </c>
       <c r="C446" s="8" t="s">
-        <v>5536</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -39028,10 +38980,10 @@
         <v>5540</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>5160</v>
+        <v>5182</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>5536</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -39039,10 +38991,10 @@
         <v>5541</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>5339</v>
+        <v>5067</v>
       </c>
       <c r="C448" s="8" t="s">
-        <v>5536</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -39050,10 +39002,10 @@
         <v>5542</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>5162</v>
+        <v>5069</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>5509</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -39061,10 +39013,10 @@
         <v>5543</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>5342</v>
+        <v>5071</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -39072,10 +39024,10 @@
         <v>5544</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>5344</v>
+        <v>5073</v>
       </c>
       <c r="C451" s="8" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -39083,10 +39035,10 @@
         <v>5545</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>5346</v>
+        <v>5075</v>
       </c>
       <c r="C452" s="8" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -39094,10 +39046,10 @@
         <v>5546</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>5348</v>
+        <v>5077</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -39105,10 +39057,10 @@
         <v>5547</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>5172</v>
+        <v>5079</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>5509</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -39116,351 +39068,351 @@
         <v>5548</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>5549</v>
+        <v>5081</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>5064</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="8" t="s">
-        <v>5550</v>
+        <v>5549</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>5187</v>
+        <v>5083</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>5548</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="8" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>5071</v>
+        <v>5085</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>5550</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="8" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>5073</v>
+        <v>5087</v>
       </c>
       <c r="C458" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="8" t="s">
-        <v>5553</v>
+        <v>5552</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>5075</v>
+        <v>5089</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="8" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>5077</v>
+        <v>5091</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="8" t="s">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>5079</v>
+        <v>5093</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="8" t="s">
-        <v>5556</v>
+        <v>5749</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>5081</v>
+        <v>5254</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="8" t="s">
-        <v>5557</v>
+        <v>5750</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>5083</v>
+        <v>5595</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="8" t="s">
-        <v>5558</v>
+        <v>5751</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>5085</v>
+        <v>5597</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>5551</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="8" t="s">
-        <v>5559</v>
+        <v>5555</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>5087</v>
+        <v>5734</v>
       </c>
       <c r="C465" s="8" t="s">
-        <v>5551</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="8" t="s">
-        <v>5560</v>
+        <v>5556</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>5089</v>
+        <v>5132</v>
       </c>
       <c r="C466" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="8" t="s">
-        <v>5561</v>
+        <v>5558</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>5091</v>
+        <v>5134</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="8" t="s">
-        <v>5562</v>
+        <v>5559</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>5093</v>
+        <v>5136</v>
       </c>
       <c r="C468" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="8" t="s">
-        <v>5563</v>
+        <v>5560</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>5095</v>
+        <v>5138</v>
       </c>
       <c r="C469" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="8" t="s">
-        <v>5564</v>
+        <v>5561</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>5097</v>
+        <v>5140</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="8" t="s">
-        <v>5770</v>
+        <v>5562</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>5259</v>
+        <v>5142</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="8" t="s">
-        <v>5771</v>
+        <v>5563</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>5606</v>
+        <v>5144</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="8" t="s">
-        <v>5772</v>
+        <v>5557</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>5608</v>
+        <v>5146</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>5551</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="8" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>5747</v>
+        <v>5148</v>
       </c>
       <c r="C474" s="8" t="s">
-        <v>5548</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="8" t="s">
-        <v>5566</v>
+        <v>5565</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>5136</v>
+        <v>5150</v>
       </c>
       <c r="C475" s="8" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="8" t="s">
-        <v>5568</v>
+        <v>5566</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>5138</v>
+        <v>5152</v>
       </c>
       <c r="C476" s="8" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="8" t="s">
-        <v>5569</v>
+        <v>5567</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>5140</v>
+        <v>5154</v>
       </c>
       <c r="C477" s="8" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="8" t="s">
-        <v>5570</v>
+        <v>5568</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>5142</v>
+        <v>5156</v>
       </c>
       <c r="C478" s="8" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="8" t="s">
-        <v>5571</v>
+        <v>5569</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>5144</v>
+        <v>5333</v>
       </c>
       <c r="C479" s="8" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="8" t="s">
-        <v>5572</v>
+        <v>5570</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>5146</v>
+        <v>5158</v>
       </c>
       <c r="C480" s="8" t="s">
-        <v>5565</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="8" t="s">
-        <v>5573</v>
+        <v>5571</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>5148</v>
+        <v>5336</v>
       </c>
       <c r="C481" s="8" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="8" t="s">
-        <v>5574</v>
+        <v>5572</v>
       </c>
       <c r="B482" s="8" t="s">
-        <v>5173</v>
+        <v>5338</v>
       </c>
       <c r="C482" s="8" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="8" t="s">
-        <v>5567</v>
+        <v>5573</v>
       </c>
       <c r="B483" s="8" t="s">
-        <v>5150</v>
+        <v>5340</v>
       </c>
       <c r="C483" s="8" t="s">
-        <v>5565</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="8" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
       <c r="B484" s="8" t="s">
-        <v>5152</v>
+        <v>5342</v>
       </c>
       <c r="C484" s="8" t="s">
-        <v>5548</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="8" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="B485" s="8" t="s">
-        <v>5154</v>
+        <v>5168</v>
       </c>
       <c r="C485" s="8" t="s">
-        <v>5575</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="8" t="s">
+        <v>5576</v>
+      </c>
+      <c r="B486" s="8" t="s">
         <v>5577</v>
       </c>
-      <c r="B486" s="8" t="s">
-        <v>5156</v>
-      </c>
       <c r="C486" s="8" t="s">
-        <v>5575</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -39468,10 +39420,10 @@
         <v>5578</v>
       </c>
       <c r="B487" s="8" t="s">
-        <v>5158</v>
+        <v>5182</v>
       </c>
       <c r="C487" s="8" t="s">
-        <v>5575</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -39479,10 +39431,10 @@
         <v>5579</v>
       </c>
       <c r="B488" s="8" t="s">
-        <v>5160</v>
+        <v>5067</v>
       </c>
       <c r="C488" s="8" t="s">
-        <v>5575</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -39490,10 +39442,10 @@
         <v>5580</v>
       </c>
       <c r="B489" s="8" t="s">
-        <v>5339</v>
+        <v>5069</v>
       </c>
       <c r="C489" s="8" t="s">
-        <v>5575</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -39501,10 +39453,10 @@
         <v>5581</v>
       </c>
       <c r="B490" s="8" t="s">
-        <v>5162</v>
+        <v>5071</v>
       </c>
       <c r="C490" s="8" t="s">
-        <v>5548</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -39512,10 +39464,10 @@
         <v>5582</v>
       </c>
       <c r="B491" s="8" t="s">
-        <v>5342</v>
+        <v>5073</v>
       </c>
       <c r="C491" s="8" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -39523,10 +39475,10 @@
         <v>5583</v>
       </c>
       <c r="B492" s="8" t="s">
-        <v>5344</v>
+        <v>5075</v>
       </c>
       <c r="C492" s="8" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -39534,10 +39486,10 @@
         <v>5584</v>
       </c>
       <c r="B493" s="8" t="s">
-        <v>5346</v>
+        <v>5077</v>
       </c>
       <c r="C493" s="8" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -39545,10 +39497,10 @@
         <v>5585</v>
       </c>
       <c r="B494" s="8" t="s">
-        <v>5348</v>
+        <v>5079</v>
       </c>
       <c r="C494" s="8" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -39556,10 +39508,10 @@
         <v>5586</v>
       </c>
       <c r="B495" s="8" t="s">
-        <v>5172</v>
+        <v>5081</v>
       </c>
       <c r="C495" s="8" t="s">
-        <v>5548</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -39567,87 +39519,87 @@
         <v>5587</v>
       </c>
       <c r="B496" s="8" t="s">
-        <v>5588</v>
+        <v>5083</v>
       </c>
       <c r="C496" s="8" t="s">
-        <v>5064</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="8" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
       <c r="B497" s="8" t="s">
-        <v>5187</v>
+        <v>5085</v>
       </c>
       <c r="C497" s="8" t="s">
-        <v>5587</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="8" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="B498" s="8" t="s">
-        <v>5071</v>
+        <v>5087</v>
       </c>
       <c r="C498" s="8" t="s">
-        <v>5589</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="8" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
       <c r="B499" s="8" t="s">
-        <v>5073</v>
+        <v>5089</v>
       </c>
       <c r="C499" s="8" t="s">
-        <v>5590</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="8" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="B500" s="8" t="s">
-        <v>5075</v>
+        <v>5091</v>
       </c>
       <c r="C500" s="8" t="s">
-        <v>5590</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="8" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
       <c r="B501" s="8" t="s">
-        <v>5077</v>
+        <v>5093</v>
       </c>
       <c r="C501" s="8" t="s">
-        <v>5590</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="8" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="B502" s="8" t="s">
-        <v>5079</v>
+        <v>5254</v>
       </c>
       <c r="C502" s="8" t="s">
-        <v>5590</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="8" t="s">
+        <v>5594</v>
+      </c>
+      <c r="B503" s="8" t="s">
         <v>5595</v>
       </c>
-      <c r="B503" s="8" t="s">
-        <v>5081</v>
-      </c>
       <c r="C503" s="8" t="s">
-        <v>5590</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -39655,109 +39607,109 @@
         <v>5596</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>5083</v>
+        <v>5597</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>5590</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="8" t="s">
-        <v>5597</v>
+        <v>5598</v>
       </c>
       <c r="B505" s="8" t="s">
-        <v>5085</v>
+        <v>5734</v>
       </c>
       <c r="C505" s="8" t="s">
-        <v>5590</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="8" t="s">
+        <v>5599</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C506" s="8" t="s">
         <v>5598</v>
-      </c>
-      <c r="B506" s="8" t="s">
-        <v>5087</v>
-      </c>
-      <c r="C506" s="8" t="s">
-        <v>5590</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="8" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="B507" s="8" t="s">
-        <v>5089</v>
+        <v>5134</v>
       </c>
       <c r="C507" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="8" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="B508" s="8" t="s">
-        <v>5091</v>
+        <v>5136</v>
       </c>
       <c r="C508" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="8" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="B509" s="8" t="s">
-        <v>5093</v>
+        <v>5138</v>
       </c>
       <c r="C509" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="8" t="s">
-        <v>5602</v>
+        <v>5604</v>
       </c>
       <c r="B510" s="8" t="s">
-        <v>5095</v>
+        <v>5140</v>
       </c>
       <c r="C510" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="8" t="s">
-        <v>5603</v>
+        <v>5605</v>
       </c>
       <c r="B511" s="8" t="s">
-        <v>5097</v>
+        <v>5142</v>
       </c>
       <c r="C511" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="8" t="s">
-        <v>5604</v>
+        <v>5606</v>
       </c>
       <c r="B512" s="8" t="s">
-        <v>5259</v>
+        <v>5144</v>
       </c>
       <c r="C512" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="8" t="s">
-        <v>5605</v>
+        <v>5600</v>
       </c>
       <c r="B513" s="8" t="s">
-        <v>5606</v>
+        <v>5146</v>
       </c>
       <c r="C513" s="8" t="s">
-        <v>5590</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -39765,142 +39717,142 @@
         <v>5607</v>
       </c>
       <c r="B514" s="8" t="s">
-        <v>5608</v>
+        <v>5148</v>
       </c>
       <c r="C514" s="8" t="s">
-        <v>5590</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="8" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="B515" s="8" t="s">
-        <v>5747</v>
+        <v>5150</v>
       </c>
       <c r="C515" s="8" t="s">
-        <v>5587</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="8" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="B516" s="8" t="s">
-        <v>5136</v>
+        <v>5152</v>
       </c>
       <c r="C516" s="8" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="8" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="B517" s="8" t="s">
-        <v>5138</v>
+        <v>5154</v>
       </c>
       <c r="C517" s="8" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="8" t="s">
-        <v>5613</v>
+        <v>5611</v>
       </c>
       <c r="B518" s="8" t="s">
-        <v>5140</v>
+        <v>5156</v>
       </c>
       <c r="C518" s="8" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="8" t="s">
-        <v>5614</v>
+        <v>5612</v>
       </c>
       <c r="B519" s="8" t="s">
-        <v>5142</v>
+        <v>5333</v>
       </c>
       <c r="C519" s="8" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="8" t="s">
-        <v>5615</v>
+        <v>5613</v>
       </c>
       <c r="B520" s="8" t="s">
-        <v>5144</v>
+        <v>5158</v>
       </c>
       <c r="C520" s="8" t="s">
-        <v>5609</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="8" t="s">
-        <v>5616</v>
+        <v>5614</v>
       </c>
       <c r="B521" s="8" t="s">
-        <v>5146</v>
+        <v>5336</v>
       </c>
       <c r="C521" s="8" t="s">
-        <v>5609</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="8" t="s">
-        <v>5617</v>
+        <v>5615</v>
       </c>
       <c r="B522" s="8" t="s">
-        <v>5148</v>
+        <v>5338</v>
       </c>
       <c r="C522" s="8" t="s">
-        <v>5609</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="8" t="s">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="B523" s="8" t="s">
-        <v>5173</v>
+        <v>5340</v>
       </c>
       <c r="C523" s="8" t="s">
-        <v>5609</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="8" t="s">
-        <v>5611</v>
+        <v>5617</v>
       </c>
       <c r="B524" s="8" t="s">
-        <v>5150</v>
+        <v>5342</v>
       </c>
       <c r="C524" s="8" t="s">
-        <v>5609</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="8" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
       <c r="B525" s="8" t="s">
-        <v>5152</v>
+        <v>5168</v>
       </c>
       <c r="C525" s="8" t="s">
-        <v>5587</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="8" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B526" s="8" t="s">
         <v>5620</v>
       </c>
-      <c r="B526" s="8" t="s">
-        <v>5154</v>
-      </c>
       <c r="C526" s="8" t="s">
-        <v>5619</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -39908,7 +39860,7 @@
         <v>5621</v>
       </c>
       <c r="B527" s="8" t="s">
-        <v>5156</v>
+        <v>5182</v>
       </c>
       <c r="C527" s="8" t="s">
         <v>5619</v>
@@ -39919,10 +39871,10 @@
         <v>5622</v>
       </c>
       <c r="B528" s="8" t="s">
-        <v>5158</v>
+        <v>5067</v>
       </c>
       <c r="C528" s="8" t="s">
-        <v>5619</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -39930,10 +39882,10 @@
         <v>5623</v>
       </c>
       <c r="B529" s="8" t="s">
-        <v>5160</v>
+        <v>5069</v>
       </c>
       <c r="C529" s="8" t="s">
-        <v>5619</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -39941,10 +39893,10 @@
         <v>5624</v>
       </c>
       <c r="B530" s="8" t="s">
-        <v>5339</v>
+        <v>5071</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>5619</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -39952,10 +39904,10 @@
         <v>5625</v>
       </c>
       <c r="B531" s="8" t="s">
-        <v>5162</v>
+        <v>5073</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>5587</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -39963,10 +39915,10 @@
         <v>5626</v>
       </c>
       <c r="B532" s="8" t="s">
-        <v>5342</v>
+        <v>5075</v>
       </c>
       <c r="C532" s="8" t="s">
-        <v>5625</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -39974,10 +39926,10 @@
         <v>5627</v>
       </c>
       <c r="B533" s="8" t="s">
-        <v>5344</v>
+        <v>5077</v>
       </c>
       <c r="C533" s="8" t="s">
-        <v>5625</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -39985,10 +39937,10 @@
         <v>5628</v>
       </c>
       <c r="B534" s="8" t="s">
-        <v>5346</v>
+        <v>5079</v>
       </c>
       <c r="C534" s="8" t="s">
-        <v>5625</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -39996,10 +39948,10 @@
         <v>5629</v>
       </c>
       <c r="B535" s="8" t="s">
-        <v>5348</v>
+        <v>5081</v>
       </c>
       <c r="C535" s="8" t="s">
-        <v>5625</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -40007,10 +39959,10 @@
         <v>5630</v>
       </c>
       <c r="B536" s="8" t="s">
-        <v>5172</v>
+        <v>5083</v>
       </c>
       <c r="C536" s="8" t="s">
-        <v>5587</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -40018,780 +39970,780 @@
         <v>5631</v>
       </c>
       <c r="B537" s="8" t="s">
-        <v>5632</v>
+        <v>5085</v>
       </c>
       <c r="C537" s="8" t="s">
-        <v>5064</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="8" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
       <c r="B538" s="8" t="s">
-        <v>5187</v>
+        <v>5087</v>
       </c>
       <c r="C538" s="8" t="s">
-        <v>5631</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="8" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="B539" s="8" t="s">
-        <v>5071</v>
+        <v>5089</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>5633</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="8" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
       <c r="B540" s="8" t="s">
-        <v>5073</v>
+        <v>5091</v>
       </c>
       <c r="C540" s="8" t="s">
-        <v>5634</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="8" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="B541" s="8" t="s">
-        <v>5075</v>
+        <v>5093</v>
       </c>
       <c r="C541" s="8" t="s">
-        <v>5634</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="8" t="s">
-        <v>5637</v>
+        <v>5752</v>
       </c>
       <c r="B542" s="8" t="s">
-        <v>5077</v>
+        <v>5254</v>
       </c>
       <c r="C542" s="8" t="s">
-        <v>5634</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="8" t="s">
-        <v>5638</v>
+        <v>5753</v>
       </c>
       <c r="B543" s="8" t="s">
-        <v>5079</v>
+        <v>5595</v>
       </c>
       <c r="C543" s="8" t="s">
-        <v>5634</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="8" t="s">
-        <v>5639</v>
+        <v>5754</v>
       </c>
       <c r="B544" s="8" t="s">
-        <v>5081</v>
+        <v>5597</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>5634</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="8" t="s">
-        <v>5640</v>
+        <v>5636</v>
       </c>
       <c r="B545" s="8" t="s">
-        <v>5083</v>
+        <v>5734</v>
       </c>
       <c r="C545" s="8" t="s">
-        <v>5634</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="8" t="s">
-        <v>5641</v>
+        <v>5637</v>
       </c>
       <c r="B546" s="8" t="s">
-        <v>5085</v>
+        <v>5132</v>
       </c>
       <c r="C546" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="8" t="s">
-        <v>5642</v>
+        <v>5639</v>
       </c>
       <c r="B547" s="8" t="s">
-        <v>5087</v>
+        <v>5134</v>
       </c>
       <c r="C547" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="8" t="s">
-        <v>5643</v>
+        <v>5640</v>
       </c>
       <c r="B548" s="8" t="s">
-        <v>5089</v>
+        <v>5136</v>
       </c>
       <c r="C548" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="8" t="s">
-        <v>5644</v>
+        <v>5641</v>
       </c>
       <c r="B549" s="8" t="s">
-        <v>5091</v>
+        <v>5138</v>
       </c>
       <c r="C549" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="8" t="s">
-        <v>5645</v>
+        <v>5642</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>5093</v>
+        <v>5140</v>
       </c>
       <c r="C550" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="8" t="s">
-        <v>5646</v>
+        <v>5643</v>
       </c>
       <c r="B551" s="8" t="s">
-        <v>5095</v>
+        <v>5142</v>
       </c>
       <c r="C551" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="8" t="s">
-        <v>5647</v>
+        <v>5644</v>
       </c>
       <c r="B552" s="8" t="s">
-        <v>5097</v>
+        <v>5144</v>
       </c>
       <c r="C552" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="8" t="s">
-        <v>5773</v>
+        <v>5638</v>
       </c>
       <c r="B553" s="8" t="s">
-        <v>5259</v>
+        <v>5146</v>
       </c>
       <c r="C553" s="8" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="8" t="s">
-        <v>5774</v>
+        <v>5645</v>
       </c>
       <c r="B554" s="8" t="s">
-        <v>5606</v>
+        <v>5148</v>
       </c>
       <c r="C554" s="8" t="s">
-        <v>5634</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="8" t="s">
-        <v>5775</v>
+        <v>5646</v>
       </c>
       <c r="B555" s="8" t="s">
-        <v>5608</v>
+        <v>5150</v>
       </c>
       <c r="C555" s="8" t="s">
-        <v>5634</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="8" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>5747</v>
+        <v>5152</v>
       </c>
       <c r="C556" s="8" t="s">
-        <v>5631</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="8" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>5136</v>
+        <v>5154</v>
       </c>
       <c r="C557" s="8" t="s">
-        <v>5648</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="8" t="s">
-        <v>5651</v>
+        <v>5649</v>
       </c>
       <c r="B558" s="8" t="s">
-        <v>5138</v>
+        <v>5156</v>
       </c>
       <c r="C558" s="8" t="s">
-        <v>5648</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="8" t="s">
-        <v>5652</v>
+        <v>5650</v>
       </c>
       <c r="B559" s="8" t="s">
-        <v>5140</v>
+        <v>5333</v>
       </c>
       <c r="C559" s="8" t="s">
-        <v>5648</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="8" t="s">
-        <v>5653</v>
+        <v>5651</v>
       </c>
       <c r="B560" s="8" t="s">
-        <v>5142</v>
+        <v>5158</v>
       </c>
       <c r="C560" s="8" t="s">
-        <v>5648</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="8" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="B561" s="8" t="s">
-        <v>5144</v>
+        <v>5336</v>
       </c>
       <c r="C561" s="8" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="8" t="s">
-        <v>5655</v>
+        <v>5653</v>
       </c>
       <c r="B562" s="8" t="s">
-        <v>5146</v>
+        <v>5338</v>
       </c>
       <c r="C562" s="8" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="8" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="B563" s="8" t="s">
-        <v>5148</v>
+        <v>5340</v>
       </c>
       <c r="C563" s="8" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="8" t="s">
-        <v>5657</v>
+        <v>5655</v>
       </c>
       <c r="B564" s="8" t="s">
-        <v>5173</v>
+        <v>5342</v>
       </c>
       <c r="C564" s="8" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="8" t="s">
-        <v>5650</v>
+        <v>5656</v>
       </c>
       <c r="B565" s="8" t="s">
-        <v>5150</v>
+        <v>5168</v>
       </c>
       <c r="C565" s="8" t="s">
-        <v>5648</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="8" t="s">
-        <v>5658</v>
+        <v>5755</v>
       </c>
       <c r="B566" s="8" t="s">
-        <v>5152</v>
+        <v>5756</v>
       </c>
       <c r="C566" s="8" t="s">
-        <v>5631</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="8" t="s">
-        <v>5659</v>
+        <v>5757</v>
       </c>
       <c r="B567" s="8" t="s">
-        <v>5154</v>
+        <v>5758</v>
       </c>
       <c r="C567" s="8" t="s">
-        <v>5658</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="8" t="s">
-        <v>5660</v>
+        <v>5759</v>
       </c>
       <c r="B568" s="8" t="s">
-        <v>5156</v>
+        <v>5760</v>
       </c>
       <c r="C568" s="8" t="s">
-        <v>5658</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="8" t="s">
-        <v>5661</v>
+        <v>5761</v>
       </c>
       <c r="B569" s="8" t="s">
-        <v>5158</v>
+        <v>5762</v>
       </c>
       <c r="C569" s="8" t="s">
-        <v>5658</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="8" t="s">
-        <v>5662</v>
+        <v>5763</v>
       </c>
       <c r="B570" s="8" t="s">
-        <v>5160</v>
+        <v>5764</v>
       </c>
       <c r="C570" s="8" t="s">
-        <v>5658</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="8" t="s">
-        <v>5663</v>
+        <v>5765</v>
       </c>
       <c r="B571" s="8" t="s">
-        <v>5339</v>
+        <v>5766</v>
       </c>
       <c r="C571" s="8" t="s">
-        <v>5658</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="8" t="s">
-        <v>5664</v>
+        <v>5767</v>
       </c>
       <c r="B572" s="8" t="s">
-        <v>5162</v>
+        <v>5768</v>
       </c>
       <c r="C572" s="8" t="s">
-        <v>5631</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="8" t="s">
-        <v>5665</v>
+        <v>5769</v>
       </c>
       <c r="B573" s="8" t="s">
-        <v>5342</v>
+        <v>5770</v>
       </c>
       <c r="C573" s="8" t="s">
-        <v>5664</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="8" t="s">
-        <v>5666</v>
+        <v>5771</v>
       </c>
       <c r="B574" s="8" t="s">
-        <v>5344</v>
+        <v>5772</v>
       </c>
       <c r="C574" s="8" t="s">
-        <v>5664</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="8" t="s">
-        <v>5667</v>
+        <v>5773</v>
       </c>
       <c r="B575" s="8" t="s">
-        <v>5346</v>
+        <v>5774</v>
       </c>
       <c r="C575" s="8" t="s">
-        <v>5664</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="8" t="s">
-        <v>5668</v>
+        <v>5803</v>
       </c>
       <c r="B576" s="8" t="s">
-        <v>5348</v>
+        <v>5775</v>
       </c>
       <c r="C576" s="8" t="s">
-        <v>5664</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" s="8" t="s">
-        <v>5669</v>
-      </c>
-      <c r="B577" s="8" t="s">
-        <v>5172</v>
-      </c>
-      <c r="C577" s="8" t="s">
-        <v>5631</v>
+      <c r="A577" s="9" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B577" s="9" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>5003</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" s="8" t="s">
+      <c r="A578" s="9" t="s">
+        <v>5778</v>
+      </c>
+      <c r="B578" s="9" t="s">
+        <v>5779</v>
+      </c>
+      <c r="C578" s="9" t="s">
         <v>5776</v>
-      </c>
-      <c r="B578" s="8" t="s">
-        <v>5777</v>
-      </c>
-      <c r="C578" s="8" t="s">
-        <v>5064</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="8" t="s">
-        <v>5778</v>
+        <v>5657</v>
       </c>
       <c r="B579" s="8" t="s">
-        <v>5779</v>
+        <v>5658</v>
       </c>
       <c r="C579" s="8" t="s">
-        <v>5776</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="8" t="s">
-        <v>5780</v>
+        <v>5659</v>
       </c>
       <c r="B580" s="8" t="s">
-        <v>5781</v>
+        <v>5660</v>
       </c>
       <c r="C580" s="8" t="s">
-        <v>5776</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="8" t="s">
-        <v>5782</v>
+        <v>5661</v>
       </c>
       <c r="B581" s="8" t="s">
-        <v>5783</v>
+        <v>5150</v>
       </c>
       <c r="C581" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="8" t="s">
-        <v>5784</v>
+        <v>5662</v>
       </c>
       <c r="B582" s="8" t="s">
-        <v>5785</v>
+        <v>5152</v>
       </c>
       <c r="C582" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="8" t="s">
-        <v>5786</v>
+        <v>5663</v>
       </c>
       <c r="B583" s="8" t="s">
-        <v>5787</v>
+        <v>5154</v>
       </c>
       <c r="C583" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="8" t="s">
-        <v>5788</v>
+        <v>5664</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>5789</v>
+        <v>5665</v>
       </c>
       <c r="C584" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="8" t="s">
-        <v>5790</v>
+        <v>5666</v>
       </c>
       <c r="B585" s="8" t="s">
-        <v>5791</v>
+        <v>5667</v>
       </c>
       <c r="C585" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="8" t="s">
-        <v>5792</v>
+        <v>5668</v>
       </c>
       <c r="B586" s="8" t="s">
-        <v>5793</v>
+        <v>5669</v>
       </c>
       <c r="C586" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="8" t="s">
-        <v>5794</v>
+        <v>5670</v>
       </c>
       <c r="B587" s="8" t="s">
-        <v>5795</v>
+        <v>5671</v>
       </c>
       <c r="C587" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="8" t="s">
-        <v>5824</v>
+        <v>5672</v>
       </c>
       <c r="B588" s="8" t="s">
-        <v>5796</v>
+        <v>5673</v>
       </c>
       <c r="C588" s="8" t="s">
-        <v>5776</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" s="9" t="s">
-        <v>5797</v>
-      </c>
-      <c r="B589" s="9" t="s">
-        <v>5798</v>
-      </c>
-      <c r="C589" s="9" t="s">
-        <v>5003</v>
+      <c r="A589" s="8" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B589" s="8" t="s">
+        <v>5675</v>
+      </c>
+      <c r="C589" s="8" t="s">
+        <v>5659</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" s="9" t="s">
-        <v>5799</v>
-      </c>
-      <c r="B590" s="9" t="s">
-        <v>5800</v>
-      </c>
-      <c r="C590" s="9" t="s">
-        <v>5797</v>
+      <c r="A590" s="8" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B590" s="8" t="s">
+        <v>5156</v>
+      </c>
+      <c r="C590" s="8" t="s">
+        <v>5659</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="8" t="s">
-        <v>5670</v>
+        <v>5677</v>
       </c>
       <c r="B591" s="8" t="s">
-        <v>5671</v>
+        <v>5797</v>
       </c>
       <c r="C591" s="8" t="s">
-        <v>5003</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="8" t="s">
-        <v>5672</v>
+        <v>5678</v>
       </c>
       <c r="B592" s="8" t="s">
-        <v>5673</v>
+        <v>5780</v>
       </c>
       <c r="C592" s="8" t="s">
-        <v>5670</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="8" t="s">
-        <v>5674</v>
+        <v>5781</v>
       </c>
       <c r="B593" s="8" t="s">
-        <v>5154</v>
+        <v>5069</v>
       </c>
       <c r="C593" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="8" t="s">
-        <v>5675</v>
+        <v>5679</v>
       </c>
       <c r="B594" s="8" t="s">
-        <v>5156</v>
+        <v>5680</v>
       </c>
       <c r="C594" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="8" t="s">
-        <v>5676</v>
+        <v>5681</v>
       </c>
       <c r="B595" s="8" t="s">
-        <v>5158</v>
+        <v>5682</v>
       </c>
       <c r="C595" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="8" t="s">
+        <v>5683</v>
+      </c>
+      <c r="B596" s="8" t="s">
+        <v>5684</v>
+      </c>
+      <c r="C596" s="8" t="s">
         <v>5677</v>
-      </c>
-      <c r="B596" s="8" t="s">
-        <v>5678</v>
-      </c>
-      <c r="C596" s="8" t="s">
-        <v>5672</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="8" t="s">
-        <v>5679</v>
+        <v>5685</v>
       </c>
       <c r="B597" s="8" t="s">
-        <v>5680</v>
+        <v>5158</v>
       </c>
       <c r="C597" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="8" t="s">
-        <v>5681</v>
+        <v>5686</v>
       </c>
       <c r="B598" s="8" t="s">
-        <v>5682</v>
+        <v>5687</v>
       </c>
       <c r="C598" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="8" t="s">
-        <v>5683</v>
+        <v>5688</v>
       </c>
       <c r="B599" s="8" t="s">
-        <v>5684</v>
+        <v>5083</v>
       </c>
       <c r="C599" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="8" t="s">
-        <v>5685</v>
+        <v>5689</v>
       </c>
       <c r="B600" s="8" t="s">
-        <v>5686</v>
+        <v>5798</v>
       </c>
       <c r="C600" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="8" t="s">
-        <v>5687</v>
+        <v>5690</v>
       </c>
       <c r="B601" s="8" t="s">
-        <v>5688</v>
+        <v>5085</v>
       </c>
       <c r="C601" s="8" t="s">
-        <v>5672</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="8" t="s">
-        <v>5689</v>
+        <v>5691</v>
       </c>
       <c r="B602" s="8" t="s">
-        <v>5160</v>
+        <v>5804</v>
       </c>
       <c r="C602" s="8" t="s">
-        <v>5672</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="8" t="s">
-        <v>5690</v>
+        <v>5692</v>
       </c>
       <c r="B603" s="8" t="s">
-        <v>5818</v>
+        <v>5799</v>
       </c>
       <c r="C603" s="8" t="s">
-        <v>5670</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="8" t="s">
+        <v>5693</v>
+      </c>
+      <c r="B604" s="8" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C604" s="8" t="s">
         <v>5691</v>
-      </c>
-      <c r="B604" s="8" t="s">
-        <v>5801</v>
-      </c>
-      <c r="C604" s="8" t="s">
-        <v>5690</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="8" t="s">
-        <v>5802</v>
+        <v>5694</v>
       </c>
       <c r="B605" s="8" t="s">
-        <v>5073</v>
+        <v>5801</v>
       </c>
       <c r="C605" s="8" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="8" t="s">
-        <v>5692</v>
+        <v>5805</v>
       </c>
       <c r="B606" s="8" t="s">
-        <v>5693</v>
+        <v>5802</v>
       </c>
       <c r="C606" s="8" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="8" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>5695</v>
+        <v>5684</v>
       </c>
       <c r="C607" s="8" t="s">
-        <v>5690</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -40802,7 +40754,7 @@
         <v>5697</v>
       </c>
       <c r="C608" s="8" t="s">
-        <v>5690</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -40810,317 +40762,185 @@
         <v>5698</v>
       </c>
       <c r="B609" s="8" t="s">
-        <v>5162</v>
+        <v>5699</v>
       </c>
       <c r="C609" s="8" t="s">
-        <v>5690</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="8" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="B610" s="8" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="C610" s="8" t="s">
-        <v>5690</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="8" t="s">
-        <v>5701</v>
+        <v>5702</v>
       </c>
       <c r="B611" s="8" t="s">
-        <v>5087</v>
+        <v>5703</v>
       </c>
       <c r="C611" s="8" t="s">
-        <v>5690</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="8" t="s">
-        <v>5702</v>
+        <v>5704</v>
       </c>
       <c r="B612" s="8" t="s">
-        <v>5819</v>
+        <v>5671</v>
       </c>
       <c r="C612" s="8" t="s">
-        <v>5690</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="8" t="s">
-        <v>5703</v>
+        <v>5705</v>
       </c>
       <c r="B613" s="8" t="s">
-        <v>5089</v>
+        <v>5706</v>
       </c>
       <c r="C613" s="8" t="s">
-        <v>5690</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="8" t="s">
-        <v>5704</v>
+        <v>5707</v>
       </c>
       <c r="B614" s="8" t="s">
-        <v>5825</v>
+        <v>5675</v>
       </c>
       <c r="C614" s="8" t="s">
-        <v>5670</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="8" t="s">
-        <v>5705</v>
+        <v>5708</v>
       </c>
       <c r="B615" s="8" t="s">
-        <v>5820</v>
+        <v>5709</v>
       </c>
       <c r="C615" s="8" t="s">
-        <v>5704</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="8" t="s">
-        <v>5706</v>
+        <v>5710</v>
       </c>
       <c r="B616" s="8" t="s">
-        <v>5821</v>
+        <v>5711</v>
       </c>
       <c r="C616" s="8" t="s">
-        <v>5704</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="8" t="s">
-        <v>5707</v>
+        <v>5712</v>
       </c>
       <c r="B617" s="8" t="s">
-        <v>5822</v>
+        <v>5713</v>
       </c>
       <c r="C617" s="8" t="s">
-        <v>5704</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="8" t="s">
-        <v>5826</v>
+        <v>5714</v>
       </c>
       <c r="B618" s="8" t="s">
-        <v>5823</v>
+        <v>5715</v>
       </c>
       <c r="C618" s="8" t="s">
-        <v>5704</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="8" t="s">
-        <v>5708</v>
+        <v>5716</v>
       </c>
       <c r="B619" s="8" t="s">
-        <v>5697</v>
+        <v>5717</v>
       </c>
       <c r="C619" s="8" t="s">
-        <v>5670</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="8" t="s">
-        <v>5709</v>
+        <v>5718</v>
       </c>
       <c r="B620" s="8" t="s">
-        <v>5710</v>
+        <v>5719</v>
       </c>
       <c r="C620" s="8" t="s">
-        <v>5708</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="8" t="s">
-        <v>5711</v>
+        <v>5720</v>
       </c>
       <c r="B621" s="8" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C621" s="8" t="s">
         <v>5712</v>
-      </c>
-      <c r="C621" s="8" t="s">
-        <v>5708</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="8" t="s">
-        <v>5713</v>
+        <v>5722</v>
       </c>
       <c r="B622" s="8" t="s">
-        <v>5714</v>
+        <v>5723</v>
       </c>
       <c r="C622" s="8" t="s">
-        <v>5708</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="8" t="s">
-        <v>5715</v>
+        <v>5724</v>
       </c>
       <c r="B623" s="8" t="s">
-        <v>5716</v>
+        <v>5725</v>
       </c>
       <c r="C623" s="8" t="s">
-        <v>5708</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="8" t="s">
-        <v>5717</v>
+        <v>5726</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>5684</v>
+        <v>5727</v>
       </c>
       <c r="C624" s="8" t="s">
-        <v>5708</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="8" t="s">
-        <v>5718</v>
+        <v>5728</v>
       </c>
       <c r="B625" s="8" t="s">
-        <v>5719</v>
+        <v>5729</v>
       </c>
       <c r="C625" s="8" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626" s="8" t="s">
-        <v>5720</v>
-      </c>
-      <c r="B626" s="8" t="s">
-        <v>5688</v>
-      </c>
-      <c r="C626" s="8" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627" s="8" t="s">
-        <v>5721</v>
-      </c>
-      <c r="B627" s="8" t="s">
-        <v>5722</v>
-      </c>
-      <c r="C627" s="8" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A628" s="8" t="s">
-        <v>5723</v>
-      </c>
-      <c r="B628" s="8" t="s">
-        <v>5724</v>
-      </c>
-      <c r="C628" s="8" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A629" s="8" t="s">
-        <v>5725</v>
-      </c>
-      <c r="B629" s="8" t="s">
-        <v>5726</v>
-      </c>
-      <c r="C629" s="8" t="s">
-        <v>5670</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630" s="8" t="s">
-        <v>5727</v>
-      </c>
-      <c r="B630" s="8" t="s">
-        <v>5728</v>
-      </c>
-      <c r="C630" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A631" s="8" t="s">
-        <v>5729</v>
-      </c>
-      <c r="B631" s="8" t="s">
-        <v>5730</v>
-      </c>
-      <c r="C631" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A632" s="8" t="s">
-        <v>5731</v>
-      </c>
-      <c r="B632" s="8" t="s">
-        <v>5732</v>
-      </c>
-      <c r="C632" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A633" s="8" t="s">
-        <v>5733</v>
-      </c>
-      <c r="B633" s="8" t="s">
-        <v>5734</v>
-      </c>
-      <c r="C633" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A634" s="8" t="s">
-        <v>5735</v>
-      </c>
-      <c r="B634" s="8" t="s">
-        <v>5736</v>
-      </c>
-      <c r="C634" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A635" s="8" t="s">
-        <v>5737</v>
-      </c>
-      <c r="B635" s="8" t="s">
-        <v>5738</v>
-      </c>
-      <c r="C635" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A636" s="8" t="s">
-        <v>5739</v>
-      </c>
-      <c r="B636" s="8" t="s">
-        <v>5740</v>
-      </c>
-      <c r="C636" s="8" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A637" s="8" t="s">
-        <v>5741</v>
-      </c>
-      <c r="B637" s="8" t="s">
-        <v>5742</v>
-      </c>
-      <c r="C637" s="8" t="s">
         <v>5003</v>
       </c>
     </row>
